--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,20 +4,2434 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello world.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="806">
+  <si>
+    <t>"09-22-01</t>
+  </si>
+  <si>
+    <t>0xc0000636a0</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>0xc000063690</t>
+  </si>
+  <si>
+    <t>0xc0000636b0</t>
+  </si>
+  <si>
+    <t>0xc0000636c0</t>
+  </si>
+  <si>
+    <t>0xc0000636d0</t>
+  </si>
+  <si>
+    <t>0xc0000243c8</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0xc0000243d8</t>
+  </si>
+  <si>
+    <t>"09-22-03</t>
+  </si>
+  <si>
+    <t>0xc0000636f0</t>
+  </si>
+  <si>
+    <t>0xc0000636e0</t>
+  </si>
+  <si>
+    <t>0xc000063700</t>
+  </si>
+  <si>
+    <t>0xc000063710</t>
+  </si>
+  <si>
+    <t>0xc000063720</t>
+  </si>
+  <si>
+    <t>0xc000024410</t>
+  </si>
+  <si>
+    <t>0xc000024420</t>
+  </si>
+  <si>
+    <t>"09-22-04</t>
+  </si>
+  <si>
+    <t>0xc000063740</t>
+  </si>
+  <si>
+    <t>0xc000063730</t>
+  </si>
+  <si>
+    <t>0xc000063750</t>
+  </si>
+  <si>
+    <t>0xc000063760</t>
+  </si>
+  <si>
+    <t>0xc000063770</t>
+  </si>
+  <si>
+    <t>0xc000024458</t>
+  </si>
+  <si>
+    <t>0xc000024468</t>
+  </si>
+  <si>
+    <t>"09-22-05</t>
+  </si>
+  <si>
+    <t>0xc000063790</t>
+  </si>
+  <si>
+    <t>0xc000063780</t>
+  </si>
+  <si>
+    <t>0xc0000637a0</t>
+  </si>
+  <si>
+    <t>0xc0000637b0</t>
+  </si>
+  <si>
+    <t>0xc0000637c0</t>
+  </si>
+  <si>
+    <t>0xc000024498</t>
+  </si>
+  <si>
+    <t>0xc0000244a8</t>
+  </si>
+  <si>
+    <t>"09-22-06</t>
+  </si>
+  <si>
+    <t>0xc0000637e0</t>
+  </si>
+  <si>
+    <t>0xc0000637d0</t>
+  </si>
+  <si>
+    <t>0xc0000637f0</t>
+  </si>
+  <si>
+    <t>0xc000063800</t>
+  </si>
+  <si>
+    <t>0xc000063810</t>
+  </si>
+  <si>
+    <t>0xc0000244e0</t>
+  </si>
+  <si>
+    <t>0xc0000244f0</t>
+  </si>
+  <si>
+    <t>"09-22-07</t>
+  </si>
+  <si>
+    <t>0xc000063830</t>
+  </si>
+  <si>
+    <t>0xc000063820</t>
+  </si>
+  <si>
+    <t>0xc000063840</t>
+  </si>
+  <si>
+    <t>0xc000063850</t>
+  </si>
+  <si>
+    <t>0xc000063860</t>
+  </si>
+  <si>
+    <t>0xc000024520</t>
+  </si>
+  <si>
+    <t>0xc000024538</t>
+  </si>
+  <si>
+    <t>"09-22-08</t>
+  </si>
+  <si>
+    <t>0xc000063880</t>
+  </si>
+  <si>
+    <t>0xc000063870</t>
+  </si>
+  <si>
+    <t>0xc000063890</t>
+  </si>
+  <si>
+    <t>0xc0000638a0</t>
+  </si>
+  <si>
+    <t>0xc0000638b0</t>
+  </si>
+  <si>
+    <t>0xc000024560</t>
+  </si>
+  <si>
+    <t>0xc000024578</t>
+  </si>
+  <si>
+    <t>"09-22-09</t>
+  </si>
+  <si>
+    <t>0xc0000638d0</t>
+  </si>
+  <si>
+    <t>0xc0000638c0</t>
+  </si>
+  <si>
+    <t>0xc0000638e0</t>
+  </si>
+  <si>
+    <t>0xc0000638f0</t>
+  </si>
+  <si>
+    <t>0xc000063900</t>
+  </si>
+  <si>
+    <t>0xc0000245b8</t>
+  </si>
+  <si>
+    <t>0xc0000245d0</t>
+  </si>
+  <si>
+    <t>"09-22-10</t>
+  </si>
+  <si>
+    <t>0xc000063920</t>
+  </si>
+  <si>
+    <t>0xc000063910</t>
+  </si>
+  <si>
+    <t>0xc000063930</t>
+  </si>
+  <si>
+    <t>0xc000063940</t>
+  </si>
+  <si>
+    <t>0xc000063950</t>
+  </si>
+  <si>
+    <t>0xc000024610</t>
+  </si>
+  <si>
+    <t>0xc000024628</t>
+  </si>
+  <si>
+    <t>"09-22-11</t>
+  </si>
+  <si>
+    <t>0xc000063970</t>
+  </si>
+  <si>
+    <t>0xc000063960</t>
+  </si>
+  <si>
+    <t>0xc000063980</t>
+  </si>
+  <si>
+    <t>0xc000063990</t>
+  </si>
+  <si>
+    <t>0xc0000639a0</t>
+  </si>
+  <si>
+    <t>0xc000024660</t>
+  </si>
+  <si>
+    <t>0xc000024678</t>
+  </si>
+  <si>
+    <t>"09-22-12</t>
+  </si>
+  <si>
+    <t>0xc0000639c0</t>
+  </si>
+  <si>
+    <t>0xc0000639b0</t>
+  </si>
+  <si>
+    <t>0xc0000639d0</t>
+  </si>
+  <si>
+    <t>0xc0000639e0</t>
+  </si>
+  <si>
+    <t>0xc0000639f0</t>
+  </si>
+  <si>
+    <t>0xc0000246c0</t>
+  </si>
+  <si>
+    <t>0xc0000246d8</t>
+  </si>
+  <si>
+    <t>"09-22-13</t>
+  </si>
+  <si>
+    <t>0xc000063a10</t>
+  </si>
+  <si>
+    <t>0xc000063a00</t>
+  </si>
+  <si>
+    <t>0xc000063a20</t>
+  </si>
+  <si>
+    <t>0xc000063a30</t>
+  </si>
+  <si>
+    <t>0xc000063a40</t>
+  </si>
+  <si>
+    <t>0xc000024710</t>
+  </si>
+  <si>
+    <t>0xc000024720</t>
+  </si>
+  <si>
+    <t>"09-22-14</t>
+  </si>
+  <si>
+    <t>0xc000063a60</t>
+  </si>
+  <si>
+    <t>0xc000063a50</t>
+  </si>
+  <si>
+    <t>0xc000063a70</t>
+  </si>
+  <si>
+    <t>0xc000063a80</t>
+  </si>
+  <si>
+    <t>0xc000063a90</t>
+  </si>
+  <si>
+    <t>0xc000024770</t>
+  </si>
+  <si>
+    <t>0xc000024780</t>
+  </si>
+  <si>
+    <t>"09-22-15</t>
+  </si>
+  <si>
+    <t>0xc000063ab0</t>
+  </si>
+  <si>
+    <t>0xc000063aa0</t>
+  </si>
+  <si>
+    <t>0xc000063ac0</t>
+  </si>
+  <si>
+    <t>0xc000063ad0</t>
+  </si>
+  <si>
+    <t>0xc000063ae0</t>
+  </si>
+  <si>
+    <t>0xc0000247b0</t>
+  </si>
+  <si>
+    <t>0xc0000247c8</t>
+  </si>
+  <si>
+    <t>"09-22-16</t>
+  </si>
+  <si>
+    <t>0xc000063b00</t>
+  </si>
+  <si>
+    <t>0xc000063af0</t>
+  </si>
+  <si>
+    <t>0xc000063b10</t>
+  </si>
+  <si>
+    <t>0xc000063b20</t>
+  </si>
+  <si>
+    <t>0xc000063b30</t>
+  </si>
+  <si>
+    <t>0xc000024800</t>
+  </si>
+  <si>
+    <t>0xc000024810</t>
+  </si>
+  <si>
+    <t>"09-22-17</t>
+  </si>
+  <si>
+    <t>0xc000063b50</t>
+  </si>
+  <si>
+    <t>0xc000063b40</t>
+  </si>
+  <si>
+    <t>0xc000063b60</t>
+  </si>
+  <si>
+    <t>0xc000063b70</t>
+  </si>
+  <si>
+    <t>0xc000063b80</t>
+  </si>
+  <si>
+    <t>0xc000024860</t>
+  </si>
+  <si>
+    <t>0xc000024878</t>
+  </si>
+  <si>
+    <t>"09-22-18</t>
+  </si>
+  <si>
+    <t>0xc000063ba0</t>
+  </si>
+  <si>
+    <t>0xc000063b90</t>
+  </si>
+  <si>
+    <t>0xc000063bb0</t>
+  </si>
+  <si>
+    <t>0xc000063bc0</t>
+  </si>
+  <si>
+    <t>0xc000063bd0</t>
+  </si>
+  <si>
+    <t>0xc0000248b0</t>
+  </si>
+  <si>
+    <t>0xc0000248c0</t>
+  </si>
+  <si>
+    <t>"09-22-19</t>
+  </si>
+  <si>
+    <t>0xc000063bf0</t>
+  </si>
+  <si>
+    <t>0xc000063be0</t>
+  </si>
+  <si>
+    <t>0xc000063c00</t>
+  </si>
+  <si>
+    <t>0xc000063c10</t>
+  </si>
+  <si>
+    <t>0xc000063c20</t>
+  </si>
+  <si>
+    <t>0xc000024900</t>
+  </si>
+  <si>
+    <t>0xc000024910</t>
+  </si>
+  <si>
+    <t>07-22-01</t>
+  </si>
+  <si>
+    <t>0xc000063c40</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>0xc000063c30</t>
+  </si>
+  <si>
+    <t>0xc000063c50</t>
+  </si>
+  <si>
+    <t>0xc000063c60</t>
+  </si>
+  <si>
+    <t>0xc000063c70</t>
+  </si>
+  <si>
+    <t>0xc000024930</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0xc000024940</t>
+  </si>
+  <si>
+    <t>07-22-02</t>
+  </si>
+  <si>
+    <t>0xc000063c90</t>
+  </si>
+  <si>
+    <t>0xc000063c80</t>
+  </si>
+  <si>
+    <t>0xc000063ca0</t>
+  </si>
+  <si>
+    <t>0xc000063cb0</t>
+  </si>
+  <si>
+    <t>0xc000063cc0</t>
+  </si>
+  <si>
+    <t>0xc000024950</t>
+  </si>
+  <si>
+    <t>0xc000024960</t>
+  </si>
+  <si>
+    <t>07-22-03</t>
+  </si>
+  <si>
+    <t>0xc000063ce0</t>
+  </si>
+  <si>
+    <t>0xc000063cd0</t>
+  </si>
+  <si>
+    <t>0xc000063cf0</t>
+  </si>
+  <si>
+    <t>0xc000063d00</t>
+  </si>
+  <si>
+    <t>0xc000063d10</t>
+  </si>
+  <si>
+    <t>0xc000024970</t>
+  </si>
+  <si>
+    <t>0xc000024980</t>
+  </si>
+  <si>
+    <t>07-22-04</t>
+  </si>
+  <si>
+    <t>0xc000063d30</t>
+  </si>
+  <si>
+    <t>0xc000063d20</t>
+  </si>
+  <si>
+    <t>0xc000063d40</t>
+  </si>
+  <si>
+    <t>0xc000063d50</t>
+  </si>
+  <si>
+    <t>0xc000063d60</t>
+  </si>
+  <si>
+    <t>0xc0000249a0</t>
+  </si>
+  <si>
+    <t>0xc0000249b0</t>
+  </si>
+  <si>
+    <t>07-22-05</t>
+  </si>
+  <si>
+    <t>0xc000063d80</t>
+  </si>
+  <si>
+    <t>0xc000063d70</t>
+  </si>
+  <si>
+    <t>0xc000063d90</t>
+  </si>
+  <si>
+    <t>0xc000063da0</t>
+  </si>
+  <si>
+    <t>0xc000063db0</t>
+  </si>
+  <si>
+    <t>0xc0000249c0</t>
+  </si>
+  <si>
+    <t>0xc0000249d0</t>
+  </si>
+  <si>
+    <t>07-22-06</t>
+  </si>
+  <si>
+    <t>0xc000063dd0</t>
+  </si>
+  <si>
+    <t>0xc000063dc0</t>
+  </si>
+  <si>
+    <t>0xc000063de0</t>
+  </si>
+  <si>
+    <t>0xc000063df0</t>
+  </si>
+  <si>
+    <t>0xc000063e00</t>
+  </si>
+  <si>
+    <t>0xc0000249f0</t>
+  </si>
+  <si>
+    <t>0xc000024a00</t>
+  </si>
+  <si>
+    <t>07-22-07</t>
+  </si>
+  <si>
+    <t>0xc000063e20</t>
+  </si>
+  <si>
+    <t>0xc000063e10</t>
+  </si>
+  <si>
+    <t>0xc000063e30</t>
+  </si>
+  <si>
+    <t>0xc000063e40</t>
+  </si>
+  <si>
+    <t>0xc000063e50</t>
+  </si>
+  <si>
+    <t>0xc000024a20</t>
+  </si>
+  <si>
+    <t>0xc000024a30</t>
+  </si>
+  <si>
+    <t>07-22-08</t>
+  </si>
+  <si>
+    <t>0xc000063e70</t>
+  </si>
+  <si>
+    <t>0xc000063e60</t>
+  </si>
+  <si>
+    <t>0xc000063e80</t>
+  </si>
+  <si>
+    <t>0xc000063e90</t>
+  </si>
+  <si>
+    <t>0xc000063ea0</t>
+  </si>
+  <si>
+    <t>0xc000024a60</t>
+  </si>
+  <si>
+    <t>0xc000024a70</t>
+  </si>
+  <si>
+    <t>07-22-09</t>
+  </si>
+  <si>
+    <t>0xc000063ec0</t>
+  </si>
+  <si>
+    <t>0xc000063eb0</t>
+  </si>
+  <si>
+    <t>0xc000063ed0</t>
+  </si>
+  <si>
+    <t>0xc000063ee0</t>
+  </si>
+  <si>
+    <t>0xc000063ef0</t>
+  </si>
+  <si>
+    <t>0xc000024a90</t>
+  </si>
+  <si>
+    <t>0xc000024aa0</t>
+  </si>
+  <si>
+    <t>07-22-10</t>
+  </si>
+  <si>
+    <t>0xc000063f10</t>
+  </si>
+  <si>
+    <t>0xc000063f00</t>
+  </si>
+  <si>
+    <t>0xc000063f20</t>
+  </si>
+  <si>
+    <t>0xc000063f30</t>
+  </si>
+  <si>
+    <t>0xc000063f40</t>
+  </si>
+  <si>
+    <t>0xc000024ad0</t>
+  </si>
+  <si>
+    <t>0xc000024ae0</t>
+  </si>
+  <si>
+    <t>07-22-11</t>
+  </si>
+  <si>
+    <t>0xc000063f60</t>
+  </si>
+  <si>
+    <t>0xc000063f50</t>
+  </si>
+  <si>
+    <t>0xc000063f70</t>
+  </si>
+  <si>
+    <t>0xc000063f80</t>
+  </si>
+  <si>
+    <t>0xc000063f90</t>
+  </si>
+  <si>
+    <t>0xc000024b10</t>
+  </si>
+  <si>
+    <t>0xc000024b40</t>
+  </si>
+  <si>
+    <t>07-22-12</t>
+  </si>
+  <si>
+    <t>0xc000063fb0</t>
+  </si>
+  <si>
+    <t>0xc000063fa0</t>
+  </si>
+  <si>
+    <t>0xc000063fc0</t>
+  </si>
+  <si>
+    <t>0xc000063fd0</t>
+  </si>
+  <si>
+    <t>0xc000063fe0</t>
+  </si>
+  <si>
+    <t>0xc000024bd0</t>
+  </si>
+  <si>
+    <t>0xc000024be0</t>
+  </si>
+  <si>
+    <t>07-22-13</t>
+  </si>
+  <si>
+    <t>0xc00039e000</t>
+  </si>
+  <si>
+    <t>0xc000063ff0</t>
+  </si>
+  <si>
+    <t>0xc00039e010</t>
+  </si>
+  <si>
+    <t>0xc00039e020</t>
+  </si>
+  <si>
+    <t>0xc00039e030</t>
+  </si>
+  <si>
+    <t>0xc000024c00</t>
+  </si>
+  <si>
+    <t>0xc000024c10</t>
+  </si>
+  <si>
+    <t>07-22-14</t>
+  </si>
+  <si>
+    <t>0xc00039e050</t>
+  </si>
+  <si>
+    <t>0xc00039e040</t>
+  </si>
+  <si>
+    <t>0xc00039e060</t>
+  </si>
+  <si>
+    <t>0xc00039e070</t>
+  </si>
+  <si>
+    <t>0xc00039e080</t>
+  </si>
+  <si>
+    <t>0xc000024c40</t>
+  </si>
+  <si>
+    <t>0xc000024c50</t>
+  </si>
+  <si>
+    <t>07-22-15</t>
+  </si>
+  <si>
+    <t>0xc00039e0a0</t>
+  </si>
+  <si>
+    <t>0xc00039e090</t>
+  </si>
+  <si>
+    <t>0xc00039e0b0</t>
+  </si>
+  <si>
+    <t>0xc00039e0c0</t>
+  </si>
+  <si>
+    <t>0xc00039e0d0</t>
+  </si>
+  <si>
+    <t>0xc000024c70</t>
+  </si>
+  <si>
+    <t>0xc000024c80</t>
+  </si>
+  <si>
+    <t>07-22-16</t>
+  </si>
+  <si>
+    <t>0xc00039e0f0</t>
+  </si>
+  <si>
+    <t>0xc00039e0e0</t>
+  </si>
+  <si>
+    <t>0xc00039e100</t>
+  </si>
+  <si>
+    <t>0xc00039e110</t>
+  </si>
+  <si>
+    <t>0xc00039e120</t>
+  </si>
+  <si>
+    <t>0xc000024ca0</t>
+  </si>
+  <si>
+    <t>0xc000024cb0</t>
+  </si>
+  <si>
+    <t>07-22-17</t>
+  </si>
+  <si>
+    <t>0xc00039e140</t>
+  </si>
+  <si>
+    <t>0xc00039e130</t>
+  </si>
+  <si>
+    <t>0xc00039e150</t>
+  </si>
+  <si>
+    <t>0xc00039e160</t>
+  </si>
+  <si>
+    <t>0xc00039e170</t>
+  </si>
+  <si>
+    <t>0xc000024ce0</t>
+  </si>
+  <si>
+    <t>0xc000024cf0</t>
+  </si>
+  <si>
+    <t>07-22-18</t>
+  </si>
+  <si>
+    <t>0xc00039e190</t>
+  </si>
+  <si>
+    <t>0xc00039e180</t>
+  </si>
+  <si>
+    <t>0xc00039e1a0</t>
+  </si>
+  <si>
+    <t>0xc00039e1b0</t>
+  </si>
+  <si>
+    <t>0xc00039e1c0</t>
+  </si>
+  <si>
+    <t>0xc000024d20</t>
+  </si>
+  <si>
+    <t>0xc000024d30</t>
+  </si>
+  <si>
+    <t>07-22-19</t>
+  </si>
+  <si>
+    <t>0xc00039e1e0</t>
+  </si>
+  <si>
+    <t>0xc00039e1d0</t>
+  </si>
+  <si>
+    <t>0xc00039e1f0</t>
+  </si>
+  <si>
+    <t>0xc00039e200</t>
+  </si>
+  <si>
+    <t>0xc00039e210</t>
+  </si>
+  <si>
+    <t>0xc000024d50</t>
+  </si>
+  <si>
+    <t>0xc000024d60</t>
+  </si>
+  <si>
+    <t>07-22-20</t>
+  </si>
+  <si>
+    <t>0xc00039e230</t>
+  </si>
+  <si>
+    <t>0xc00039e220</t>
+  </si>
+  <si>
+    <t>0xc00039e240</t>
+  </si>
+  <si>
+    <t>0xc00039e250</t>
+  </si>
+  <si>
+    <t>0xc00039e260</t>
+  </si>
+  <si>
+    <t>0xc000024d90</t>
+  </si>
+  <si>
+    <t>0xc000024da0</t>
+  </si>
+  <si>
+    <t>07-22-21</t>
+  </si>
+  <si>
+    <t>0xc00039e280</t>
+  </si>
+  <si>
+    <t>0xc00039e270</t>
+  </si>
+  <si>
+    <t>0xc00039e290</t>
+  </si>
+  <si>
+    <t>0xc00039e2a0</t>
+  </si>
+  <si>
+    <t>0xc00039e2b0</t>
+  </si>
+  <si>
+    <t>0xc000024dd0</t>
+  </si>
+  <si>
+    <t>0xc000024de0</t>
+  </si>
+  <si>
+    <t>08-22-01</t>
+  </si>
+  <si>
+    <t>0xc00039e2d0</t>
+  </si>
+  <si>
+    <t>0xc00039e2c0</t>
+  </si>
+  <si>
+    <t>0xc00039e2e0</t>
+  </si>
+  <si>
+    <t>0xc00039e2f0</t>
+  </si>
+  <si>
+    <t>0xc00039e300</t>
+  </si>
+  <si>
+    <t>0xc000024e00</t>
+  </si>
+  <si>
+    <t>0xc000024e10</t>
+  </si>
+  <si>
+    <t>08-22-02</t>
+  </si>
+  <si>
+    <t>0xc00039e320</t>
+  </si>
+  <si>
+    <t>0xc00039e310</t>
+  </si>
+  <si>
+    <t>0xc00039e330</t>
+  </si>
+  <si>
+    <t>0xc00039e340</t>
+  </si>
+  <si>
+    <t>0xc00039e350</t>
+  </si>
+  <si>
+    <t>0xc000024e30</t>
+  </si>
+  <si>
+    <t>0xc000024e40</t>
+  </si>
+  <si>
+    <t>08-22-03</t>
+  </si>
+  <si>
+    <t>0xc00039e370</t>
+  </si>
+  <si>
+    <t>0xc00039e360</t>
+  </si>
+  <si>
+    <t>0xc00039e380</t>
+  </si>
+  <si>
+    <t>0xc00039e390</t>
+  </si>
+  <si>
+    <t>0xc00039e3a0</t>
+  </si>
+  <si>
+    <t>0xc000024e58</t>
+  </si>
+  <si>
+    <t>0xc000024e68</t>
+  </si>
+  <si>
+    <t>08-22-04</t>
+  </si>
+  <si>
+    <t>0xc00039e3c0</t>
+  </si>
+  <si>
+    <t>0xc00039e3b0</t>
+  </si>
+  <si>
+    <t>0xc00039e3d0</t>
+  </si>
+  <si>
+    <t>0xc00039e3e0</t>
+  </si>
+  <si>
+    <t>0xc00039e3f0</t>
+  </si>
+  <si>
+    <t>0xc000024ea0</t>
+  </si>
+  <si>
+    <t>0xc000024ec0</t>
+  </si>
+  <si>
+    <t>08-22-05</t>
+  </si>
+  <si>
+    <t>0xc00039e410</t>
+  </si>
+  <si>
+    <t>0xc00039e400</t>
+  </si>
+  <si>
+    <t>0xc00039e420</t>
+  </si>
+  <si>
+    <t>0xc00039e430</t>
+  </si>
+  <si>
+    <t>0xc00039e440</t>
+  </si>
+  <si>
+    <t>0xc000024ed8</t>
+  </si>
+  <si>
+    <t>0xc000024ef8</t>
+  </si>
+  <si>
+    <t>08-22-06</t>
+  </si>
+  <si>
+    <t>0xc00039e460</t>
+  </si>
+  <si>
+    <t>0xc00039e450</t>
+  </si>
+  <si>
+    <t>0xc00039e470</t>
+  </si>
+  <si>
+    <t>0xc00039e480</t>
+  </si>
+  <si>
+    <t>0xc00039e490</t>
+  </si>
+  <si>
+    <t>0xc000024f30</t>
+  </si>
+  <si>
+    <t>0xc000024f60</t>
+  </si>
+  <si>
+    <t>08-22-07</t>
+  </si>
+  <si>
+    <t>0xc00039e4b0</t>
+  </si>
+  <si>
+    <t>0xc00039e4a0</t>
+  </si>
+  <si>
+    <t>0xc00039e4c0</t>
+  </si>
+  <si>
+    <t>0xc00039e4d0</t>
+  </si>
+  <si>
+    <t>0xc00039e4e0</t>
+  </si>
+  <si>
+    <t>0xc000024fa0</t>
+  </si>
+  <si>
+    <t>0xc000024fc0</t>
+  </si>
+  <si>
+    <t>08-22-08</t>
+  </si>
+  <si>
+    <t>0xc00039e500</t>
+  </si>
+  <si>
+    <t>0xc00039e4f0</t>
+  </si>
+  <si>
+    <t>0xc00039e510</t>
+  </si>
+  <si>
+    <t>0xc00039e520</t>
+  </si>
+  <si>
+    <t>0xc00039e530</t>
+  </si>
+  <si>
+    <t>0xc000024ff0</t>
+  </si>
+  <si>
+    <t>0xc000025000</t>
+  </si>
+  <si>
+    <t>08-22-09</t>
+  </si>
+  <si>
+    <t>0xc00039e550</t>
+  </si>
+  <si>
+    <t>0xc00039e540</t>
+  </si>
+  <si>
+    <t>0xc00039e560</t>
+  </si>
+  <si>
+    <t>0xc00039e570</t>
+  </si>
+  <si>
+    <t>0xc00039e580</t>
+  </si>
+  <si>
+    <t>0xc000025030</t>
+  </si>
+  <si>
+    <t>0xc000025050</t>
+  </si>
+  <si>
+    <t>08-22-10</t>
+  </si>
+  <si>
+    <t>0xc00039e5a0</t>
+  </si>
+  <si>
+    <t>0xc00039e590</t>
+  </si>
+  <si>
+    <t>0xc00039e5b0</t>
+  </si>
+  <si>
+    <t>0xc00039e5c0</t>
+  </si>
+  <si>
+    <t>0xc00039e5d0</t>
+  </si>
+  <si>
+    <t>0xc000025080</t>
+  </si>
+  <si>
+    <t>0xc000025090</t>
+  </si>
+  <si>
+    <t>08-22-11</t>
+  </si>
+  <si>
+    <t>0xc00039e5f0</t>
+  </si>
+  <si>
+    <t>0xc00039e5e0</t>
+  </si>
+  <si>
+    <t>0xc00039e600</t>
+  </si>
+  <si>
+    <t>0xc00039e610</t>
+  </si>
+  <si>
+    <t>0xc00039e620</t>
+  </si>
+  <si>
+    <t>0xc0000250b0</t>
+  </si>
+  <si>
+    <t>0xc0000250c0</t>
+  </si>
+  <si>
+    <t>08-22-12</t>
+  </si>
+  <si>
+    <t>0xc00039e640</t>
+  </si>
+  <si>
+    <t>0xc00039e630</t>
+  </si>
+  <si>
+    <t>0xc00039e650</t>
+  </si>
+  <si>
+    <t>0xc00039e660</t>
+  </si>
+  <si>
+    <t>0xc00039e670</t>
+  </si>
+  <si>
+    <t>0xc0000250e0</t>
+  </si>
+  <si>
+    <t>0xc0000250f0</t>
+  </si>
+  <si>
+    <t>08-22-13</t>
+  </si>
+  <si>
+    <t>0xc00039e690</t>
+  </si>
+  <si>
+    <t>0xc00039e680</t>
+  </si>
+  <si>
+    <t>0xc00039e6a0</t>
+  </si>
+  <si>
+    <t>0xc00039e6b0</t>
+  </si>
+  <si>
+    <t>0xc00039e6c0</t>
+  </si>
+  <si>
+    <t>0xc000025110</t>
+  </si>
+  <si>
+    <t>0xc000025120</t>
+  </si>
+  <si>
+    <t>08-22-14</t>
+  </si>
+  <si>
+    <t>0xc00039e6e0</t>
+  </si>
+  <si>
+    <t>0xc00039e6d0</t>
+  </si>
+  <si>
+    <t>0xc00039e6f0</t>
+  </si>
+  <si>
+    <t>0xc00039e700</t>
+  </si>
+  <si>
+    <t>0xc00039e710</t>
+  </si>
+  <si>
+    <t>0xc000025140</t>
+  </si>
+  <si>
+    <t>0xc000025150</t>
+  </si>
+  <si>
+    <t>08-22-15</t>
+  </si>
+  <si>
+    <t>0xc00039e730</t>
+  </si>
+  <si>
+    <t>0xc00039e720</t>
+  </si>
+  <si>
+    <t>0xc00039e740</t>
+  </si>
+  <si>
+    <t>0xc00039e750</t>
+  </si>
+  <si>
+    <t>0xc00039e760</t>
+  </si>
+  <si>
+    <t>0xc000025170</t>
+  </si>
+  <si>
+    <t>0xc000025180</t>
+  </si>
+  <si>
+    <t>08-22-16</t>
+  </si>
+  <si>
+    <t>0xc00039e780</t>
+  </si>
+  <si>
+    <t>0xc00039e770</t>
+  </si>
+  <si>
+    <t>0xc00039e790</t>
+  </si>
+  <si>
+    <t>0xc00039e7a0</t>
+  </si>
+  <si>
+    <t>0xc00039e7b0</t>
+  </si>
+  <si>
+    <t>0xc0000251a0</t>
+  </si>
+  <si>
+    <t>0xc0000251b0</t>
+  </si>
+  <si>
+    <t>08-22-17</t>
+  </si>
+  <si>
+    <t>0xc00039e7d0</t>
+  </si>
+  <si>
+    <t>0xc00039e7c0</t>
+  </si>
+  <si>
+    <t>0xc00039e7e0</t>
+  </si>
+  <si>
+    <t>0xc00039e7f0</t>
+  </si>
+  <si>
+    <t>0xc00039e800</t>
+  </si>
+  <si>
+    <t>0xc0000251d0</t>
+  </si>
+  <si>
+    <t>0xc0000251e0</t>
+  </si>
+  <si>
+    <t>08-22-18</t>
+  </si>
+  <si>
+    <t>0xc00039e820</t>
+  </si>
+  <si>
+    <t>0xc00039e810</t>
+  </si>
+  <si>
+    <t>0xc00039e830</t>
+  </si>
+  <si>
+    <t>0xc00039e840</t>
+  </si>
+  <si>
+    <t>0xc00039e850</t>
+  </si>
+  <si>
+    <t>0xc0000251f8</t>
+  </si>
+  <si>
+    <t>0xc000025218</t>
+  </si>
+  <si>
+    <t>08-22-19</t>
+  </si>
+  <si>
+    <t>0xc00039e870</t>
+  </si>
+  <si>
+    <t>0xc00039e860</t>
+  </si>
+  <si>
+    <t>0xc00039e880</t>
+  </si>
+  <si>
+    <t>0xc00039e890</t>
+  </si>
+  <si>
+    <t>0xc00039e8a0</t>
+  </si>
+  <si>
+    <t>0xc000025240</t>
+  </si>
+  <si>
+    <t>0xc000025250</t>
+  </si>
+  <si>
+    <t>08-22-20</t>
+  </si>
+  <si>
+    <t>0xc00039e8c0</t>
+  </si>
+  <si>
+    <t>0xc00039e8b0</t>
+  </si>
+  <si>
+    <t>0xc00039e8d0</t>
+  </si>
+  <si>
+    <t>0xc00039e8e0</t>
+  </si>
+  <si>
+    <t>0xc00039e8f0</t>
+  </si>
+  <si>
+    <t>0xc000025270</t>
+  </si>
+  <si>
+    <t>0xc000025280</t>
+  </si>
+  <si>
+    <t>08-22-21</t>
+  </si>
+  <si>
+    <t>0xc00039e910</t>
+  </si>
+  <si>
+    <t>0xc00039e900</t>
+  </si>
+  <si>
+    <t>0xc00039e920</t>
+  </si>
+  <si>
+    <t>0xc00039e930</t>
+  </si>
+  <si>
+    <t>0xc00039e940</t>
+  </si>
+  <si>
+    <t>0xc000025298</t>
+  </si>
+  <si>
+    <t>0xc0000252a8</t>
+  </si>
+  <si>
+    <t>08-22-22</t>
+  </si>
+  <si>
+    <t>0xc00039e960</t>
+  </si>
+  <si>
+    <t>0xc00039e950</t>
+  </si>
+  <si>
+    <t>0xc00039e970</t>
+  </si>
+  <si>
+    <t>0xc00039e980</t>
+  </si>
+  <si>
+    <t>0xc00039e990</t>
+  </si>
+  <si>
+    <t>0xc0000252d0</t>
+  </si>
+  <si>
+    <t>0xc0000252e0</t>
+  </si>
+  <si>
+    <t>09-22-02</t>
+  </si>
+  <si>
+    <t>0xc00039e9b0</t>
+  </si>
+  <si>
+    <t>0xc00039e9a0</t>
+  </si>
+  <si>
+    <t>0xc00039e9c0</t>
+  </si>
+  <si>
+    <t>0xc00039e9d0</t>
+  </si>
+  <si>
+    <t>0xc00039e9e0</t>
+  </si>
+  <si>
+    <t>0xc000025310</t>
+  </si>
+  <si>
+    <t>0xc000025320</t>
+  </si>
+  <si>
+    <t>10-22-01</t>
+  </si>
+  <si>
+    <t>0xc00039ea10</t>
+  </si>
+  <si>
+    <t>0xc00039ea00</t>
+  </si>
+  <si>
+    <t>0xc00039ea20</t>
+  </si>
+  <si>
+    <t>0xc00039ea30</t>
+  </si>
+  <si>
+    <t>0xc00039ea40</t>
+  </si>
+  <si>
+    <t>0xc000025340</t>
+  </si>
+  <si>
+    <t>0xc000025350</t>
+  </si>
+  <si>
+    <t>10-22-02</t>
+  </si>
+  <si>
+    <t>0xc00039ea80</t>
+  </si>
+  <si>
+    <t>0xc00039ea60</t>
+  </si>
+  <si>
+    <t>0xc00039eaa0</t>
+  </si>
+  <si>
+    <t>0xc00039eac0</t>
+  </si>
+  <si>
+    <t>0xc00039ead0</t>
+  </si>
+  <si>
+    <t>0xc000025370</t>
+  </si>
+  <si>
+    <t>0xc000025380</t>
+  </si>
+  <si>
+    <t>10-22-03</t>
+  </si>
+  <si>
+    <t>0xc00039eb00</t>
+  </si>
+  <si>
+    <t>0xc00039eaf0</t>
+  </si>
+  <si>
+    <t>0xc00039eb10</t>
+  </si>
+  <si>
+    <t>0xc00039eb20</t>
+  </si>
+  <si>
+    <t>0xc00039eb30</t>
+  </si>
+  <si>
+    <t>0xc0000253b8</t>
+  </si>
+  <si>
+    <t>0xc0000253f8</t>
+  </si>
+  <si>
+    <t>10-22-04</t>
+  </si>
+  <si>
+    <t>0xc00039eb50</t>
+  </si>
+  <si>
+    <t>0xc00039eb40</t>
+  </si>
+  <si>
+    <t>0xc00039eb60</t>
+  </si>
+  <si>
+    <t>0xc00039eb70</t>
+  </si>
+  <si>
+    <t>0xc00039eb80</t>
+  </si>
+  <si>
+    <t>0xc000025410</t>
+  </si>
+  <si>
+    <t>0xc000025420</t>
+  </si>
+  <si>
+    <t>10-22-05</t>
+  </si>
+  <si>
+    <t>0xc00039eba0</t>
+  </si>
+  <si>
+    <t>0xc00039eb90</t>
+  </si>
+  <si>
+    <t>0xc00039ebb0</t>
+  </si>
+  <si>
+    <t>0xc00039ebc0</t>
+  </si>
+  <si>
+    <t>0xc00039ebd0</t>
+  </si>
+  <si>
+    <t>0xc000025440</t>
+  </si>
+  <si>
+    <t>0xc000025450</t>
+  </si>
+  <si>
+    <t>10-22-06</t>
+  </si>
+  <si>
+    <t>0xc00039ebf0</t>
+  </si>
+  <si>
+    <t>0xc00039ebe0</t>
+  </si>
+  <si>
+    <t>0xc00039ec00</t>
+  </si>
+  <si>
+    <t>0xc00039ec10</t>
+  </si>
+  <si>
+    <t>0xc00039ec20</t>
+  </si>
+  <si>
+    <t>0xc000025470</t>
+  </si>
+  <si>
+    <t>0xc000025480</t>
+  </si>
+  <si>
+    <t>10-22-07</t>
+  </si>
+  <si>
+    <t>0xc00039ec40</t>
+  </si>
+  <si>
+    <t>0xc00039ec30</t>
+  </si>
+  <si>
+    <t>0xc00039ec50</t>
+  </si>
+  <si>
+    <t>0xc00039ec60</t>
+  </si>
+  <si>
+    <t>0xc00039ec70</t>
+  </si>
+  <si>
+    <t>0xc0000254b0</t>
+  </si>
+  <si>
+    <t>0xc0000254d0</t>
+  </si>
+  <si>
+    <t>10-22-08</t>
+  </si>
+  <si>
+    <t>0xc00039eca0</t>
+  </si>
+  <si>
+    <t>0xc00039ec90</t>
+  </si>
+  <si>
+    <t>0xc00039ecb0</t>
+  </si>
+  <si>
+    <t>0xc00039ecd0</t>
+  </si>
+  <si>
+    <t>0xc00039ecf0</t>
+  </si>
+  <si>
+    <t>0xc000025500</t>
+  </si>
+  <si>
+    <t>0xc000025510</t>
+  </si>
+  <si>
+    <t>10-22-09</t>
+  </si>
+  <si>
+    <t>0xc00039ed10</t>
+  </si>
+  <si>
+    <t>0xc00039ed00</t>
+  </si>
+  <si>
+    <t>0xc00039ed20</t>
+  </si>
+  <si>
+    <t>0xc00039ed30</t>
+  </si>
+  <si>
+    <t>0xc00039ed40</t>
+  </si>
+  <si>
+    <t>0xc000025570</t>
+  </si>
+  <si>
+    <t>0xc0000255a0</t>
+  </si>
+  <si>
+    <t>10-22-10</t>
+  </si>
+  <si>
+    <t>0xc00039ed60</t>
+  </si>
+  <si>
+    <t>0xc00039ed50</t>
+  </si>
+  <si>
+    <t>0xc00039ed70</t>
+  </si>
+  <si>
+    <t>0xc00039ed80</t>
+  </si>
+  <si>
+    <t>0xc00039ed90</t>
+  </si>
+  <si>
+    <t>0xc0000255b8</t>
+  </si>
+  <si>
+    <t>0xc0000255e8</t>
+  </si>
+  <si>
+    <t>10-22-11</t>
+  </si>
+  <si>
+    <t>0xc00039edb0</t>
+  </si>
+  <si>
+    <t>0xc00039eda0</t>
+  </si>
+  <si>
+    <t>0xc00039edc0</t>
+  </si>
+  <si>
+    <t>0xc00039edd0</t>
+  </si>
+  <si>
+    <t>0xc00039ede0</t>
+  </si>
+  <si>
+    <t>0xc000025630</t>
+  </si>
+  <si>
+    <t>0xc000025640</t>
+  </si>
+  <si>
+    <t>10-22-12</t>
+  </si>
+  <si>
+    <t>0xc00039ee00</t>
+  </si>
+  <si>
+    <t>0xc00039edf0</t>
+  </si>
+  <si>
+    <t>0xc00039ee10</t>
+  </si>
+  <si>
+    <t>0xc00039ee20</t>
+  </si>
+  <si>
+    <t>0xc00039ee30</t>
+  </si>
+  <si>
+    <t>0xc000025670</t>
+  </si>
+  <si>
+    <t>0xc000025690</t>
+  </si>
+  <si>
+    <t>10-22-13</t>
+  </si>
+  <si>
+    <t>0xc00039ee50</t>
+  </si>
+  <si>
+    <t>0xc00039ee40</t>
+  </si>
+  <si>
+    <t>0xc00039ee60</t>
+  </si>
+  <si>
+    <t>0xc00039ee70</t>
+  </si>
+  <si>
+    <t>0xc00039ee80</t>
+  </si>
+  <si>
+    <t>0xc0000256a8</t>
+  </si>
+  <si>
+    <t>0xc0000256b8</t>
+  </si>
+  <si>
+    <t>10-22-14</t>
+  </si>
+  <si>
+    <t>0xc00039eea0</t>
+  </si>
+  <si>
+    <t>0xc00039ee90</t>
+  </si>
+  <si>
+    <t>0xc00039eec0</t>
+  </si>
+  <si>
+    <t>0xc00039eee0</t>
+  </si>
+  <si>
+    <t>0xc00039eef0</t>
+  </si>
+  <si>
+    <t>0xc0000256e0</t>
+  </si>
+  <si>
+    <t>0xc0000256f0</t>
+  </si>
+  <si>
+    <t>10-22-15</t>
+  </si>
+  <si>
+    <t>0xc00039ef10</t>
+  </si>
+  <si>
+    <t>0xc00039ef00</t>
+  </si>
+  <si>
+    <t>0xc00039ef20</t>
+  </si>
+  <si>
+    <t>0xc00039ef40</t>
+  </si>
+  <si>
+    <t>0xc00039ef60</t>
+  </si>
+  <si>
+    <t>0xc000025710</t>
+  </si>
+  <si>
+    <t>0xc000025720</t>
+  </si>
+  <si>
+    <t>10-22-16</t>
+  </si>
+  <si>
+    <t>0xc00039ef90</t>
+  </si>
+  <si>
+    <t>0xc00039ef70</t>
+  </si>
+  <si>
+    <t>0xc00039efa0</t>
+  </si>
+  <si>
+    <t>0xc00039efb0</t>
+  </si>
+  <si>
+    <t>0xc00039efe0</t>
+  </si>
+  <si>
+    <t>0xc000025740</t>
+  </si>
+  <si>
+    <t>0xc000025750</t>
+  </si>
+  <si>
+    <t>10-22-17</t>
+  </si>
+  <si>
+    <t>0xc00039f000</t>
+  </si>
+  <si>
+    <t>0xc00039eff0</t>
+  </si>
+  <si>
+    <t>0xc00039f010</t>
+  </si>
+  <si>
+    <t>0xc00039f020</t>
+  </si>
+  <si>
+    <t>0xc00039f040</t>
+  </si>
+  <si>
+    <t>0xc000025770</t>
+  </si>
+  <si>
+    <t>0xc000025780</t>
+  </si>
+  <si>
+    <t>10-22-18</t>
+  </si>
+  <si>
+    <t>0xc00039f060</t>
+  </si>
+  <si>
+    <t>0xc00039f050</t>
+  </si>
+  <si>
+    <t>0xc00039f070</t>
+  </si>
+  <si>
+    <t>0xc00039f080</t>
+  </si>
+  <si>
+    <t>0xc00039f0a0</t>
+  </si>
+  <si>
+    <t>0xc000025798</t>
+  </si>
+  <si>
+    <t>0xc0000257a8</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>&lt;nil&gt;</t>
+  </si>
+  <si>
+    <t>0xc00039f0b0</t>
+  </si>
+  <si>
+    <t>0xc00039f0c0</t>
+  </si>
+  <si>
+    <t>0xc00039f0d0</t>
+  </si>
+  <si>
+    <t>0xc00039f0e0</t>
+  </si>
+  <si>
+    <t>0xc0000257b8</t>
+  </si>
+  <si>
+    <t>0xc0000257c8</t>
+  </si>
+  <si>
+    <t>CAP-112</t>
+  </si>
+  <si>
+    <t>0xc00039f100</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>0xc00039f0f0</t>
+  </si>
+  <si>
+    <t>0xc00039f110</t>
+  </si>
+  <si>
+    <t>0xc00039f130</t>
+  </si>
+  <si>
+    <t>0xc00039f150</t>
+  </si>
+  <si>
+    <t>0xc0000257d8</t>
+  </si>
+  <si>
+    <t>0xc0000257e8</t>
+  </si>
+  <si>
+    <t>CAP-144</t>
+  </si>
+  <si>
+    <t>0xc00039f170</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>0xc00039f160</t>
+  </si>
+  <si>
+    <t>0xc00039f180</t>
+  </si>
+  <si>
+    <t>0xc00039f190</t>
+  </si>
+  <si>
+    <t>0xc00039f1a0</t>
+  </si>
+  <si>
+    <t>0xc0000257f8</t>
+  </si>
+  <si>
+    <t>0xc000025818</t>
+  </si>
+  <si>
+    <t>CAP-198</t>
+  </si>
+  <si>
+    <t>0xc00039f1c0</t>
+  </si>
+  <si>
+    <t>0xc00039f1b0</t>
+  </si>
+  <si>
+    <t>0xc00039f1e0</t>
+  </si>
+  <si>
+    <t>0xc00039f1f0</t>
+  </si>
+  <si>
+    <t>0xc00039f200</t>
+  </si>
+  <si>
+    <t>0xc000025828</t>
+  </si>
+  <si>
+    <t>0xc000025848</t>
+  </si>
+  <si>
+    <t>CAP-205</t>
+  </si>
+  <si>
+    <t>0xc00039f230</t>
+  </si>
+  <si>
+    <t>0xc00039f220</t>
+  </si>
+  <si>
+    <t>0xc00039f260</t>
+  </si>
+  <si>
+    <t>0xc00039f270</t>
+  </si>
+  <si>
+    <t>0xc00039f280</t>
+  </si>
+  <si>
+    <t>0xc000025858</t>
+  </si>
+  <si>
+    <t>0xc000025878</t>
+  </si>
+  <si>
+    <t>CAP-225</t>
+  </si>
+  <si>
+    <t>0xc00039f2a0</t>
+  </si>
+  <si>
+    <t>0xc00039f290</t>
+  </si>
+  <si>
+    <t>0xc00039f2b0</t>
+  </si>
+  <si>
+    <t>0xc00039f2c0</t>
+  </si>
+  <si>
+    <t>0xc00039f2d0</t>
+  </si>
+  <si>
+    <t>0xc000025888</t>
+  </si>
+  <si>
+    <t>0xc000025898</t>
+  </si>
+  <si>
+    <t>CAP-230</t>
+  </si>
+  <si>
+    <t>0xc00039f2f0</t>
+  </si>
+  <si>
+    <t>0xc00039f2e0</t>
+  </si>
+  <si>
+    <t>0xc00039f300</t>
+  </si>
+  <si>
+    <t>0xc00039f310</t>
+  </si>
+  <si>
+    <t>0xc00039f320</t>
+  </si>
+  <si>
+    <t>0xc0000258a8</t>
+  </si>
+  <si>
+    <t>0xc0000258d8</t>
+  </si>
+  <si>
+    <t>CAP-251</t>
+  </si>
+  <si>
+    <t>0xc00039f340</t>
+  </si>
+  <si>
+    <t>0xc00039f330</t>
+  </si>
+  <si>
+    <t>0xc00039f350</t>
+  </si>
+  <si>
+    <t>0xc00039f360</t>
+  </si>
+  <si>
+    <t>0xc00039f380</t>
+  </si>
+  <si>
+    <t>0xc0000258f8</t>
+  </si>
+  <si>
+    <t>0xc000025928</t>
+  </si>
+  <si>
+    <t>CAP-260</t>
+  </si>
+  <si>
+    <t>0xc00039f3b0</t>
+  </si>
+  <si>
+    <t>0xc00039f390</t>
+  </si>
+  <si>
+    <t>0xc00039f3c0</t>
+  </si>
+  <si>
+    <t>0xc00039f3d0</t>
+  </si>
+  <si>
+    <t>0xc00039f3e0</t>
+  </si>
+  <si>
+    <t>0xc000025938</t>
+  </si>
+  <si>
+    <t>0xc000025998</t>
+  </si>
+  <si>
+    <t>CAP-263</t>
+  </si>
+  <si>
+    <t>0xc00039f410</t>
+  </si>
+  <si>
+    <t>0xc00039f400</t>
+  </si>
+  <si>
+    <t>0xc00039f430</t>
+  </si>
+  <si>
+    <t>0xc00039f440</t>
+  </si>
+  <si>
+    <t>0xc00039f450</t>
+  </si>
+  <si>
+    <t>0xc0000259f0</t>
+  </si>
+  <si>
+    <t>0xc000025a00</t>
+  </si>
+  <si>
+    <t>CAP-272</t>
+  </si>
+  <si>
+    <t>0xc00039f470</t>
+  </si>
+  <si>
+    <t>0xc00039f460</t>
+  </si>
+  <si>
+    <t>0xc00039f480</t>
+  </si>
+  <si>
+    <t>0xc00039f490</t>
+  </si>
+  <si>
+    <t>0xc00039f4b0</t>
+  </si>
+  <si>
+    <t>0xc000025a30</t>
+  </si>
+  <si>
+    <t>0xc000025a50</t>
+  </si>
+  <si>
+    <t>CAP-312</t>
+  </si>
+  <si>
+    <t>0xc00039f4d0</t>
+  </si>
+  <si>
+    <t>0xc00039f4c0</t>
+  </si>
+  <si>
+    <t>0xc00039f4f0</t>
+  </si>
+  <si>
+    <t>0xc00039f500</t>
+  </si>
+  <si>
+    <t>0xc00039f510</t>
+  </si>
+  <si>
+    <t>0xc000025a88</t>
+  </si>
+  <si>
+    <t>0xc000025ab0</t>
+  </si>
+  <si>
+    <t>CAP-313</t>
+  </si>
+  <si>
+    <t>0xc00039f530</t>
+  </si>
+  <si>
+    <t>0xc00039f520</t>
+  </si>
+  <si>
+    <t>0xc00039f550</t>
+  </si>
+  <si>
+    <t>0xc00039f560</t>
+  </si>
+  <si>
+    <t>0xc00039f570</t>
+  </si>
+  <si>
+    <t>0xc000025ac8</t>
+  </si>
+  <si>
+    <t>0xc000025af0</t>
+  </si>
+  <si>
+    <t>CAP-314</t>
+  </si>
+  <si>
+    <t>0xc00039f5c0</t>
+  </si>
+  <si>
+    <t>0xc00039f5a0</t>
+  </si>
+  <si>
+    <t>0xc00039f5d0</t>
+  </si>
+  <si>
+    <t>0xc00039f5e0</t>
+  </si>
+  <si>
+    <t>0xc00039f5f0</t>
+  </si>
+  <si>
+    <t>0xc000025b18</t>
+  </si>
+  <si>
+    <t>0xc000025b40</t>
+  </si>
+  <si>
+    <t>CAP-316</t>
+  </si>
+  <si>
+    <t>0xc00039f610</t>
+  </si>
+  <si>
+    <t>0xc00039f600</t>
+  </si>
+  <si>
+    <t>0xc00039f620</t>
+  </si>
+  <si>
+    <t>0xc00039f630</t>
+  </si>
+  <si>
+    <t>0xc00039f640</t>
+  </si>
+  <si>
+    <t>0xc000025b58</t>
+  </si>
+  <si>
+    <t>0xc000025bb0</t>
+  </si>
+  <si>
+    <t>CAP-317</t>
+  </si>
+  <si>
+    <t>0xc00039f660</t>
+  </si>
+  <si>
+    <t>0xc00039f650</t>
+  </si>
+  <si>
+    <t>0xc00039f670</t>
+  </si>
+  <si>
+    <t>0xc00039f680</t>
+  </si>
+  <si>
+    <t>0xc00039f690</t>
+  </si>
+  <si>
+    <t>0xc000025be8</t>
+  </si>
+  <si>
+    <t>0xc000025c10</t>
+  </si>
+  <si>
+    <t>CAP-320</t>
+  </si>
+  <si>
+    <t>0xc00039f6b0</t>
+  </si>
+  <si>
+    <t>0xc00039f6a0</t>
+  </si>
+  <si>
+    <t>0xc00039f6c0</t>
+  </si>
+  <si>
+    <t>0xc00039f6d0</t>
+  </si>
+  <si>
+    <t>0xc00039f6e0</t>
+  </si>
+  <si>
+    <t>0xc000025c40</t>
+  </si>
+  <si>
+    <t>0xc000025c50</t>
+  </si>
+  <si>
+    <t>CAP-321</t>
+  </si>
+  <si>
+    <t>0xc00039f700</t>
+  </si>
+  <si>
+    <t>0xc00039f6f0</t>
+  </si>
+  <si>
+    <t>0xc00039f710</t>
+  </si>
+  <si>
+    <t>0xc00039f720</t>
+  </si>
+  <si>
+    <t>0xc00039f730</t>
+  </si>
+  <si>
+    <t>0xc000025c80</t>
+  </si>
+  <si>
+    <t>0xc000025ca0</t>
+  </si>
+  <si>
+    <t>CAP-322</t>
+  </si>
+  <si>
+    <t>0xc00039f750</t>
+  </si>
+  <si>
+    <t>0xc00039f740</t>
+  </si>
+  <si>
+    <t>0xc00039f760</t>
+  </si>
+  <si>
+    <t>0xc00039f770</t>
+  </si>
+  <si>
+    <t>0xc00039f780</t>
+  </si>
+  <si>
+    <t>0xc000025cd8</t>
+  </si>
+  <si>
+    <t>0xc000025ce8</t>
+  </si>
+  <si>
+    <t>CAP-323</t>
+  </si>
+  <si>
+    <t>0xc00039f7a0</t>
+  </si>
+  <si>
+    <t>0xc00039f790</t>
+  </si>
+  <si>
+    <t>0xc00039f7b0</t>
+  </si>
+  <si>
+    <t>0xc00039f7c0</t>
+  </si>
+  <si>
+    <t>0xc00039f7d0</t>
+  </si>
+  <si>
+    <t>0xc000025d10</t>
+  </si>
+  <si>
+    <t>0xc000025d28</t>
   </si>
 </sst>
 </file>
@@ -323,31 +2737,3208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>249</v>
+      </c>
+      <c r="H31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" t="s">
+        <v>290</v>
+      </c>
+      <c r="I36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H37" t="s">
+        <v>298</v>
+      </c>
+      <c r="I37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>305</v>
+      </c>
+      <c r="H38" t="s">
+        <v>306</v>
+      </c>
+      <c r="I38" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" t="s">
+        <v>313</v>
+      </c>
+      <c r="H39" t="s">
+        <v>314</v>
+      </c>
+      <c r="I39" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>321</v>
+      </c>
+      <c r="H40" t="s">
+        <v>322</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" t="s">
+        <v>327</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>329</v>
+      </c>
+      <c r="H41" t="s">
+        <v>330</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" t="s">
+        <v>335</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>337</v>
+      </c>
+      <c r="H42" t="s">
+        <v>338</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>342</v>
+      </c>
+      <c r="E43" t="s">
+        <v>343</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>350</v>
+      </c>
+      <c r="E44" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" t="s">
+        <v>359</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>361</v>
+      </c>
+      <c r="H45" t="s">
+        <v>362</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>366</v>
+      </c>
+      <c r="E46" t="s">
+        <v>367</v>
+      </c>
+      <c r="F46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" t="s">
+        <v>369</v>
+      </c>
+      <c r="H46" t="s">
+        <v>370</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>372</v>
+      </c>
+      <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>374</v>
+      </c>
+      <c r="E47" t="s">
+        <v>375</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>377</v>
+      </c>
+      <c r="H47" t="s">
+        <v>378</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F48" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" t="s">
+        <v>385</v>
+      </c>
+      <c r="H48" t="s">
+        <v>386</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>390</v>
+      </c>
+      <c r="E49" t="s">
+        <v>391</v>
+      </c>
+      <c r="F49" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" t="s">
+        <v>393</v>
+      </c>
+      <c r="H49" t="s">
+        <v>394</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>396</v>
+      </c>
+      <c r="B50" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>398</v>
+      </c>
+      <c r="E50" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>401</v>
+      </c>
+      <c r="H50" t="s">
+        <v>402</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" t="s">
+        <v>409</v>
+      </c>
+      <c r="H51" t="s">
+        <v>410</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>412</v>
+      </c>
+      <c r="B52" t="s">
+        <v>413</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>414</v>
+      </c>
+      <c r="E52" t="s">
+        <v>415</v>
+      </c>
+      <c r="F52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G52" t="s">
+        <v>417</v>
+      </c>
+      <c r="H52" t="s">
+        <v>418</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>420</v>
+      </c>
+      <c r="B53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" t="s">
+        <v>425</v>
+      </c>
+      <c r="H53" t="s">
+        <v>426</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>428</v>
+      </c>
+      <c r="B54" t="s">
+        <v>429</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>430</v>
+      </c>
+      <c r="E54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H54" t="s">
+        <v>434</v>
+      </c>
+      <c r="I54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" t="s">
+        <v>437</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>438</v>
+      </c>
+      <c r="E55" t="s">
+        <v>439</v>
+      </c>
+      <c r="F55" t="s">
+        <v>440</v>
+      </c>
+      <c r="G55" t="s">
+        <v>441</v>
+      </c>
+      <c r="H55" t="s">
+        <v>442</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" t="s">
+        <v>445</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>446</v>
+      </c>
+      <c r="E56" t="s">
+        <v>447</v>
+      </c>
+      <c r="F56" t="s">
+        <v>448</v>
+      </c>
+      <c r="G56" t="s">
+        <v>449</v>
+      </c>
+      <c r="H56" t="s">
+        <v>450</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>452</v>
+      </c>
+      <c r="B57" t="s">
+        <v>453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>454</v>
+      </c>
+      <c r="E57" t="s">
+        <v>455</v>
+      </c>
+      <c r="F57" t="s">
+        <v>456</v>
+      </c>
+      <c r="G57" t="s">
+        <v>457</v>
+      </c>
+      <c r="H57" t="s">
+        <v>458</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>460</v>
+      </c>
+      <c r="B58" t="s">
+        <v>461</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>462</v>
+      </c>
+      <c r="E58" t="s">
+        <v>463</v>
+      </c>
+      <c r="F58" t="s">
+        <v>464</v>
+      </c>
+      <c r="G58" t="s">
+        <v>465</v>
+      </c>
+      <c r="H58" t="s">
+        <v>466</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>468</v>
+      </c>
+      <c r="B59" t="s">
+        <v>469</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>470</v>
+      </c>
+      <c r="E59" t="s">
+        <v>471</v>
+      </c>
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+      <c r="G59" t="s">
+        <v>473</v>
+      </c>
+      <c r="H59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>478</v>
+      </c>
+      <c r="E60" t="s">
+        <v>479</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>481</v>
+      </c>
+      <c r="H60" t="s">
+        <v>482</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>484</v>
+      </c>
+      <c r="B61" t="s">
+        <v>485</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>486</v>
+      </c>
+      <c r="E61" t="s">
+        <v>487</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>489</v>
+      </c>
+      <c r="H61" t="s">
+        <v>490</v>
+      </c>
+      <c r="I61" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>492</v>
+      </c>
+      <c r="B62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>494</v>
+      </c>
+      <c r="E62" t="s">
+        <v>495</v>
+      </c>
+      <c r="F62" t="s">
+        <v>496</v>
+      </c>
+      <c r="G62" t="s">
+        <v>497</v>
+      </c>
+      <c r="H62" t="s">
+        <v>498</v>
+      </c>
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>500</v>
+      </c>
+      <c r="B63" t="s">
+        <v>501</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>502</v>
+      </c>
+      <c r="E63" t="s">
+        <v>503</v>
+      </c>
+      <c r="F63" t="s">
+        <v>504</v>
+      </c>
+      <c r="G63" t="s">
+        <v>505</v>
+      </c>
+      <c r="H63" t="s">
+        <v>506</v>
+      </c>
+      <c r="I63" t="s">
+        <v>154</v>
+      </c>
+      <c r="J63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>508</v>
+      </c>
+      <c r="B64" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>510</v>
+      </c>
+      <c r="E64" t="s">
+        <v>511</v>
+      </c>
+      <c r="F64" t="s">
+        <v>512</v>
+      </c>
+      <c r="G64" t="s">
+        <v>513</v>
+      </c>
+      <c r="H64" t="s">
+        <v>514</v>
+      </c>
+      <c r="I64" t="s">
+        <v>154</v>
+      </c>
+      <c r="J64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>516</v>
+      </c>
+      <c r="B65" t="s">
+        <v>517</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>518</v>
+      </c>
+      <c r="E65" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" t="s">
+        <v>521</v>
+      </c>
+      <c r="H65" t="s">
+        <v>522</v>
+      </c>
+      <c r="I65" t="s">
+        <v>154</v>
+      </c>
+      <c r="J65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>524</v>
+      </c>
+      <c r="B66" t="s">
+        <v>525</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>526</v>
+      </c>
+      <c r="E66" t="s">
+        <v>527</v>
+      </c>
+      <c r="F66" t="s">
+        <v>528</v>
+      </c>
+      <c r="G66" t="s">
+        <v>529</v>
+      </c>
+      <c r="H66" t="s">
+        <v>530</v>
+      </c>
+      <c r="I66" t="s">
+        <v>154</v>
+      </c>
+      <c r="J66" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67" t="s">
+        <v>533</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>534</v>
+      </c>
+      <c r="E67" t="s">
+        <v>535</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>537</v>
+      </c>
+      <c r="H67" t="s">
+        <v>538</v>
+      </c>
+      <c r="I67" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>540</v>
+      </c>
+      <c r="B68" t="s">
+        <v>541</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>542</v>
+      </c>
+      <c r="E68" t="s">
+        <v>543</v>
+      </c>
+      <c r="F68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G68" t="s">
+        <v>545</v>
+      </c>
+      <c r="H68" t="s">
+        <v>546</v>
+      </c>
+      <c r="I68" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>548</v>
+      </c>
+      <c r="B69" t="s">
+        <v>549</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>550</v>
+      </c>
+      <c r="E69" t="s">
+        <v>551</v>
+      </c>
+      <c r="F69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69" t="s">
+        <v>553</v>
+      </c>
+      <c r="H69" t="s">
+        <v>554</v>
+      </c>
+      <c r="I69" t="s">
+        <v>154</v>
+      </c>
+      <c r="J69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>556</v>
+      </c>
+      <c r="B70" t="s">
+        <v>557</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>558</v>
+      </c>
+      <c r="E70" t="s">
+        <v>559</v>
+      </c>
+      <c r="F70" t="s">
+        <v>560</v>
+      </c>
+      <c r="G70" t="s">
+        <v>561</v>
+      </c>
+      <c r="H70" t="s">
+        <v>562</v>
+      </c>
+      <c r="I70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>564</v>
+      </c>
+      <c r="B71" t="s">
+        <v>565</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>566</v>
+      </c>
+      <c r="E71" t="s">
+        <v>567</v>
+      </c>
+      <c r="F71" t="s">
+        <v>568</v>
+      </c>
+      <c r="G71" t="s">
+        <v>569</v>
+      </c>
+      <c r="H71" t="s">
+        <v>570</v>
+      </c>
+      <c r="I71" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>572</v>
+      </c>
+      <c r="B72" t="s">
+        <v>573</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>574</v>
+      </c>
+      <c r="E72" t="s">
+        <v>575</v>
+      </c>
+      <c r="F72" t="s">
+        <v>576</v>
+      </c>
+      <c r="G72" t="s">
+        <v>577</v>
+      </c>
+      <c r="H72" t="s">
+        <v>578</v>
+      </c>
+      <c r="I72" t="s">
+        <v>154</v>
+      </c>
+      <c r="J72" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>580</v>
+      </c>
+      <c r="B73" t="s">
+        <v>581</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>582</v>
+      </c>
+      <c r="E73" t="s">
+        <v>583</v>
+      </c>
+      <c r="F73" t="s">
+        <v>584</v>
+      </c>
+      <c r="G73" t="s">
+        <v>585</v>
+      </c>
+      <c r="H73" t="s">
+        <v>586</v>
+      </c>
+      <c r="I73" t="s">
+        <v>154</v>
+      </c>
+      <c r="J73" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>588</v>
+      </c>
+      <c r="B74" t="s">
+        <v>589</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>590</v>
+      </c>
+      <c r="E74" t="s">
+        <v>591</v>
+      </c>
+      <c r="F74" t="s">
+        <v>592</v>
+      </c>
+      <c r="G74" t="s">
+        <v>593</v>
+      </c>
+      <c r="H74" t="s">
+        <v>594</v>
+      </c>
+      <c r="I74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>596</v>
+      </c>
+      <c r="B75" t="s">
+        <v>597</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>598</v>
+      </c>
+      <c r="E75" t="s">
+        <v>599</v>
+      </c>
+      <c r="F75" t="s">
+        <v>600</v>
+      </c>
+      <c r="G75" t="s">
+        <v>601</v>
+      </c>
+      <c r="H75" t="s">
+        <v>602</v>
+      </c>
+      <c r="I75" t="s">
+        <v>154</v>
+      </c>
+      <c r="J75" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>604</v>
+      </c>
+      <c r="B76" t="s">
+        <v>605</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>606</v>
+      </c>
+      <c r="E76" t="s">
+        <v>607</v>
+      </c>
+      <c r="F76" t="s">
+        <v>608</v>
+      </c>
+      <c r="G76" t="s">
+        <v>609</v>
+      </c>
+      <c r="H76" t="s">
+        <v>610</v>
+      </c>
+      <c r="I76" t="s">
+        <v>154</v>
+      </c>
+      <c r="J76" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>612</v>
+      </c>
+      <c r="B77" t="s">
+        <v>613</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>614</v>
+      </c>
+      <c r="E77" t="s">
+        <v>615</v>
+      </c>
+      <c r="F77" t="s">
+        <v>616</v>
+      </c>
+      <c r="G77" t="s">
+        <v>617</v>
+      </c>
+      <c r="H77" t="s">
+        <v>618</v>
+      </c>
+      <c r="I77" t="s">
+        <v>154</v>
+      </c>
+      <c r="J77" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>620</v>
+      </c>
+      <c r="B78" t="s">
+        <v>621</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>622</v>
+      </c>
+      <c r="E78" t="s">
+        <v>623</v>
+      </c>
+      <c r="F78" t="s">
+        <v>624</v>
+      </c>
+      <c r="G78" t="s">
+        <v>625</v>
+      </c>
+      <c r="H78" t="s">
+        <v>626</v>
+      </c>
+      <c r="I78" t="s">
+        <v>154</v>
+      </c>
+      <c r="J78" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>628</v>
+      </c>
+      <c r="B79" t="s">
+        <v>629</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>630</v>
+      </c>
+      <c r="E79" t="s">
+        <v>631</v>
+      </c>
+      <c r="F79" t="s">
+        <v>632</v>
+      </c>
+      <c r="G79" t="s">
+        <v>633</v>
+      </c>
+      <c r="H79" t="s">
+        <v>634</v>
+      </c>
+      <c r="I79" t="s">
+        <v>154</v>
+      </c>
+      <c r="J79" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>636</v>
+      </c>
+      <c r="B80" t="s">
+        <v>637</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>638</v>
+      </c>
+      <c r="E80" t="s">
+        <v>639</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" t="s">
+        <v>641</v>
+      </c>
+      <c r="H80" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" t="s">
+        <v>154</v>
+      </c>
+      <c r="J80" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>644</v>
+      </c>
+      <c r="B81" t="s">
+        <v>645</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>646</v>
+      </c>
+      <c r="E81" t="s">
+        <v>647</v>
+      </c>
+      <c r="F81" t="s">
+        <v>648</v>
+      </c>
+      <c r="G81" t="s">
+        <v>649</v>
+      </c>
+      <c r="H81" t="s">
+        <v>650</v>
+      </c>
+      <c r="I81" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>652</v>
+      </c>
+      <c r="B82" t="s">
+        <v>653</v>
+      </c>
+      <c r="C82" t="s">
+        <v>654</v>
+      </c>
+      <c r="D82" t="s">
+        <v>655</v>
+      </c>
+      <c r="E82" t="s">
+        <v>656</v>
+      </c>
+      <c r="F82" t="s">
+        <v>657</v>
+      </c>
+      <c r="G82" t="s">
+        <v>658</v>
+      </c>
+      <c r="H82" t="s">
+        <v>659</v>
+      </c>
+      <c r="I82" t="s">
+        <v>154</v>
+      </c>
+      <c r="J82" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>661</v>
+      </c>
+      <c r="B83" t="s">
+        <v>662</v>
+      </c>
+      <c r="C83" t="s">
+        <v>663</v>
+      </c>
+      <c r="D83" t="s">
+        <v>664</v>
+      </c>
+      <c r="E83" t="s">
+        <v>665</v>
+      </c>
+      <c r="F83" t="s">
+        <v>666</v>
+      </c>
+      <c r="G83" t="s">
+        <v>667</v>
+      </c>
+      <c r="H83" t="s">
+        <v>668</v>
+      </c>
+      <c r="I83" t="s">
+        <v>154</v>
+      </c>
+      <c r="J83" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>670</v>
+      </c>
+      <c r="B84" t="s">
+        <v>671</v>
+      </c>
+      <c r="C84" t="s">
+        <v>654</v>
+      </c>
+      <c r="D84" t="s">
+        <v>672</v>
+      </c>
+      <c r="E84" t="s">
+        <v>673</v>
+      </c>
+      <c r="F84" t="s">
+        <v>674</v>
+      </c>
+      <c r="G84" t="s">
+        <v>675</v>
+      </c>
+      <c r="H84" t="s">
+        <v>676</v>
+      </c>
+      <c r="I84" t="s">
+        <v>154</v>
+      </c>
+      <c r="J84" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>678</v>
+      </c>
+      <c r="B85" t="s">
+        <v>679</v>
+      </c>
+      <c r="C85" t="s">
+        <v>654</v>
+      </c>
+      <c r="D85" t="s">
+        <v>680</v>
+      </c>
+      <c r="E85" t="s">
+        <v>681</v>
+      </c>
+      <c r="F85" t="s">
+        <v>682</v>
+      </c>
+      <c r="G85" t="s">
+        <v>683</v>
+      </c>
+      <c r="H85" t="s">
+        <v>684</v>
+      </c>
+      <c r="I85" t="s">
+        <v>154</v>
+      </c>
+      <c r="J85" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>686</v>
+      </c>
+      <c r="B86" t="s">
+        <v>687</v>
+      </c>
+      <c r="C86" t="s">
+        <v>654</v>
+      </c>
+      <c r="D86" t="s">
+        <v>688</v>
+      </c>
+      <c r="E86" t="s">
+        <v>689</v>
+      </c>
+      <c r="F86" t="s">
+        <v>690</v>
+      </c>
+      <c r="G86" t="s">
+        <v>691</v>
+      </c>
+      <c r="H86" t="s">
+        <v>692</v>
+      </c>
+      <c r="I86" t="s">
+        <v>154</v>
+      </c>
+      <c r="J86" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>694</v>
+      </c>
+      <c r="B87" t="s">
+        <v>695</v>
+      </c>
+      <c r="C87" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" t="s">
+        <v>696</v>
+      </c>
+      <c r="E87" t="s">
+        <v>697</v>
+      </c>
+      <c r="F87" t="s">
+        <v>698</v>
+      </c>
+      <c r="G87" t="s">
+        <v>699</v>
+      </c>
+      <c r="H87" t="s">
+        <v>700</v>
+      </c>
+      <c r="I87" t="s">
+        <v>154</v>
+      </c>
+      <c r="J87" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>702</v>
+      </c>
+      <c r="B88" t="s">
+        <v>703</v>
+      </c>
+      <c r="C88" t="s">
+        <v>654</v>
+      </c>
+      <c r="D88" t="s">
+        <v>704</v>
+      </c>
+      <c r="E88" t="s">
+        <v>705</v>
+      </c>
+      <c r="F88" t="s">
+        <v>706</v>
+      </c>
+      <c r="G88" t="s">
+        <v>707</v>
+      </c>
+      <c r="H88" t="s">
+        <v>708</v>
+      </c>
+      <c r="I88" t="s">
+        <v>154</v>
+      </c>
+      <c r="J88" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>710</v>
+      </c>
+      <c r="B89" t="s">
+        <v>711</v>
+      </c>
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" t="s">
+        <v>712</v>
+      </c>
+      <c r="E89" t="s">
+        <v>713</v>
+      </c>
+      <c r="F89" t="s">
+        <v>714</v>
+      </c>
+      <c r="G89" t="s">
+        <v>715</v>
+      </c>
+      <c r="H89" t="s">
+        <v>716</v>
+      </c>
+      <c r="I89" t="s">
+        <v>154</v>
+      </c>
+      <c r="J89" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>718</v>
+      </c>
+      <c r="B90" t="s">
+        <v>719</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>720</v>
+      </c>
+      <c r="E90" t="s">
+        <v>721</v>
+      </c>
+      <c r="F90" t="s">
+        <v>722</v>
+      </c>
+      <c r="G90" t="s">
+        <v>723</v>
+      </c>
+      <c r="H90" t="s">
+        <v>724</v>
+      </c>
+      <c r="I90" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>726</v>
+      </c>
+      <c r="B91" t="s">
+        <v>727</v>
+      </c>
+      <c r="C91" t="s">
+        <v>654</v>
+      </c>
+      <c r="D91" t="s">
+        <v>728</v>
+      </c>
+      <c r="E91" t="s">
+        <v>729</v>
+      </c>
+      <c r="F91" t="s">
+        <v>730</v>
+      </c>
+      <c r="G91" t="s">
+        <v>731</v>
+      </c>
+      <c r="H91" t="s">
+        <v>732</v>
+      </c>
+      <c r="I91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>734</v>
+      </c>
+      <c r="B92" t="s">
+        <v>735</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>736</v>
+      </c>
+      <c r="E92" t="s">
+        <v>737</v>
+      </c>
+      <c r="F92" t="s">
+        <v>738</v>
+      </c>
+      <c r="G92" t="s">
+        <v>739</v>
+      </c>
+      <c r="H92" t="s">
+        <v>740</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>742</v>
+      </c>
+      <c r="B93" t="s">
+        <v>743</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>744</v>
+      </c>
+      <c r="E93" t="s">
+        <v>745</v>
+      </c>
+      <c r="F93" t="s">
+        <v>746</v>
+      </c>
+      <c r="G93" t="s">
+        <v>747</v>
+      </c>
+      <c r="H93" t="s">
+        <v>748</v>
+      </c>
+      <c r="I93" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>750</v>
+      </c>
+      <c r="B94" t="s">
+        <v>751</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>752</v>
+      </c>
+      <c r="E94" t="s">
+        <v>753</v>
+      </c>
+      <c r="F94" t="s">
+        <v>754</v>
+      </c>
+      <c r="G94" t="s">
+        <v>755</v>
+      </c>
+      <c r="H94" t="s">
+        <v>756</v>
+      </c>
+      <c r="I94" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>758</v>
+      </c>
+      <c r="B95" t="s">
+        <v>759</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>760</v>
+      </c>
+      <c r="E95" t="s">
+        <v>761</v>
+      </c>
+      <c r="F95" t="s">
+        <v>762</v>
+      </c>
+      <c r="G95" t="s">
+        <v>763</v>
+      </c>
+      <c r="H95" t="s">
+        <v>764</v>
+      </c>
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>766</v>
+      </c>
+      <c r="B96" t="s">
+        <v>767</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>768</v>
+      </c>
+      <c r="E96" t="s">
+        <v>769</v>
+      </c>
+      <c r="F96" t="s">
+        <v>770</v>
+      </c>
+      <c r="G96" t="s">
+        <v>771</v>
+      </c>
+      <c r="H96" t="s">
+        <v>772</v>
+      </c>
+      <c r="I96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>774</v>
+      </c>
+      <c r="B97" t="s">
+        <v>775</v>
+      </c>
+      <c r="C97" t="s">
+        <v>663</v>
+      </c>
+      <c r="D97" t="s">
+        <v>776</v>
+      </c>
+      <c r="E97" t="s">
+        <v>777</v>
+      </c>
+      <c r="F97" t="s">
+        <v>778</v>
+      </c>
+      <c r="G97" t="s">
+        <v>779</v>
+      </c>
+      <c r="H97" t="s">
+        <v>780</v>
+      </c>
+      <c r="I97" t="s">
+        <v>154</v>
+      </c>
+      <c r="J97" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>782</v>
+      </c>
+      <c r="B98" t="s">
+        <v>783</v>
+      </c>
+      <c r="C98" t="s">
+        <v>663</v>
+      </c>
+      <c r="D98" t="s">
+        <v>784</v>
+      </c>
+      <c r="E98" t="s">
+        <v>785</v>
+      </c>
+      <c r="F98" t="s">
+        <v>786</v>
+      </c>
+      <c r="G98" t="s">
+        <v>787</v>
+      </c>
+      <c r="H98" t="s">
+        <v>788</v>
+      </c>
+      <c r="I98" t="s">
+        <v>154</v>
+      </c>
+      <c r="J98" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>790</v>
+      </c>
+      <c r="B99" t="s">
+        <v>791</v>
+      </c>
+      <c r="C99" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" t="s">
+        <v>792</v>
+      </c>
+      <c r="E99" t="s">
+        <v>793</v>
+      </c>
+      <c r="F99" t="s">
+        <v>794</v>
+      </c>
+      <c r="G99" t="s">
+        <v>795</v>
+      </c>
+      <c r="H99" t="s">
+        <v>796</v>
+      </c>
+      <c r="I99" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>798</v>
+      </c>
+      <c r="B100" t="s">
+        <v>799</v>
+      </c>
+      <c r="C100" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100" t="s">
+        <v>800</v>
+      </c>
+      <c r="E100" t="s">
+        <v>801</v>
+      </c>
+      <c r="F100" t="s">
+        <v>802</v>
+      </c>
+      <c r="G100" t="s">
+        <v>803</v>
+      </c>
+      <c r="H100" t="s">
+        <v>804</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -19,1933 +19,1933 @@
     <t>"09-22-01</t>
   </si>
   <si>
-    <t>0xc0000636a0</t>
+    <t>0xc0005000c0</t>
   </si>
   <si>
     <t>PW</t>
   </si>
   <si>
-    <t>0xc000063690</t>
-  </si>
-  <si>
-    <t>0xc0000636b0</t>
-  </si>
-  <si>
-    <t>0xc0000636c0</t>
-  </si>
-  <si>
-    <t>0xc0000636d0</t>
-  </si>
-  <si>
-    <t>0xc0000243c8</t>
+    <t>0xc0005000b0</t>
+  </si>
+  <si>
+    <t>0xc0005000d0</t>
+  </si>
+  <si>
+    <t>0xc0005000e0</t>
+  </si>
+  <si>
+    <t>0xc0005000f0</t>
+  </si>
+  <si>
+    <t>0xc0005060e8</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>0xc0000243d8</t>
+    <t>0xc0005060f8</t>
   </si>
   <si>
     <t>"09-22-03</t>
   </si>
   <si>
-    <t>0xc0000636f0</t>
-  </si>
-  <si>
-    <t>0xc0000636e0</t>
-  </si>
-  <si>
-    <t>0xc000063700</t>
-  </si>
-  <si>
-    <t>0xc000063710</t>
-  </si>
-  <si>
-    <t>0xc000063720</t>
-  </si>
-  <si>
-    <t>0xc000024410</t>
-  </si>
-  <si>
-    <t>0xc000024420</t>
+    <t>0xc000500110</t>
+  </si>
+  <si>
+    <t>0xc000500100</t>
+  </si>
+  <si>
+    <t>0xc000500120</t>
+  </si>
+  <si>
+    <t>0xc000500130</t>
+  </si>
+  <si>
+    <t>0xc000500140</t>
+  </si>
+  <si>
+    <t>0xc000506130</t>
+  </si>
+  <si>
+    <t>0xc000506140</t>
   </si>
   <si>
     <t>"09-22-04</t>
   </si>
   <si>
-    <t>0xc000063740</t>
-  </si>
-  <si>
-    <t>0xc000063730</t>
-  </si>
-  <si>
-    <t>0xc000063750</t>
-  </si>
-  <si>
-    <t>0xc000063760</t>
-  </si>
-  <si>
-    <t>0xc000063770</t>
-  </si>
-  <si>
-    <t>0xc000024458</t>
-  </si>
-  <si>
-    <t>0xc000024468</t>
+    <t>0xc000500160</t>
+  </si>
+  <si>
+    <t>0xc000500150</t>
+  </si>
+  <si>
+    <t>0xc000500170</t>
+  </si>
+  <si>
+    <t>0xc000500180</t>
+  </si>
+  <si>
+    <t>0xc000500190</t>
+  </si>
+  <si>
+    <t>0xc000506178</t>
+  </si>
+  <si>
+    <t>0xc000506188</t>
   </si>
   <si>
     <t>"09-22-05</t>
   </si>
   <si>
-    <t>0xc000063790</t>
-  </si>
-  <si>
-    <t>0xc000063780</t>
-  </si>
-  <si>
-    <t>0xc0000637a0</t>
-  </si>
-  <si>
-    <t>0xc0000637b0</t>
-  </si>
-  <si>
-    <t>0xc0000637c0</t>
-  </si>
-  <si>
-    <t>0xc000024498</t>
-  </si>
-  <si>
-    <t>0xc0000244a8</t>
+    <t>0xc0005001b0</t>
+  </si>
+  <si>
+    <t>0xc0005001a0</t>
+  </si>
+  <si>
+    <t>0xc0005001c0</t>
+  </si>
+  <si>
+    <t>0xc0005001d0</t>
+  </si>
+  <si>
+    <t>0xc0005001e0</t>
+  </si>
+  <si>
+    <t>0xc0005061b8</t>
+  </si>
+  <si>
+    <t>0xc0005061c8</t>
   </si>
   <si>
     <t>"09-22-06</t>
   </si>
   <si>
-    <t>0xc0000637e0</t>
-  </si>
-  <si>
-    <t>0xc0000637d0</t>
-  </si>
-  <si>
-    <t>0xc0000637f0</t>
-  </si>
-  <si>
-    <t>0xc000063800</t>
-  </si>
-  <si>
-    <t>0xc000063810</t>
-  </si>
-  <si>
-    <t>0xc0000244e0</t>
-  </si>
-  <si>
-    <t>0xc0000244f0</t>
+    <t>0xc000500200</t>
+  </si>
+  <si>
+    <t>0xc0005001f0</t>
+  </si>
+  <si>
+    <t>0xc000500210</t>
+  </si>
+  <si>
+    <t>0xc000500220</t>
+  </si>
+  <si>
+    <t>0xc000500230</t>
+  </si>
+  <si>
+    <t>0xc000506200</t>
+  </si>
+  <si>
+    <t>0xc000506210</t>
   </si>
   <si>
     <t>"09-22-07</t>
   </si>
   <si>
-    <t>0xc000063830</t>
-  </si>
-  <si>
-    <t>0xc000063820</t>
-  </si>
-  <si>
-    <t>0xc000063840</t>
-  </si>
-  <si>
-    <t>0xc000063850</t>
-  </si>
-  <si>
-    <t>0xc000063860</t>
-  </si>
-  <si>
-    <t>0xc000024520</t>
-  </si>
-  <si>
-    <t>0xc000024538</t>
+    <t>0xc000500250</t>
+  </si>
+  <si>
+    <t>0xc000500240</t>
+  </si>
+  <si>
+    <t>0xc000500260</t>
+  </si>
+  <si>
+    <t>0xc000500270</t>
+  </si>
+  <si>
+    <t>0xc000500280</t>
+  </si>
+  <si>
+    <t>0xc000506240</t>
+  </si>
+  <si>
+    <t>0xc000506258</t>
   </si>
   <si>
     <t>"09-22-08</t>
   </si>
   <si>
-    <t>0xc000063880</t>
-  </si>
-  <si>
-    <t>0xc000063870</t>
-  </si>
-  <si>
-    <t>0xc000063890</t>
-  </si>
-  <si>
-    <t>0xc0000638a0</t>
-  </si>
-  <si>
-    <t>0xc0000638b0</t>
-  </si>
-  <si>
-    <t>0xc000024560</t>
-  </si>
-  <si>
-    <t>0xc000024578</t>
+    <t>0xc0005002a0</t>
+  </si>
+  <si>
+    <t>0xc000500290</t>
+  </si>
+  <si>
+    <t>0xc0005002b0</t>
+  </si>
+  <si>
+    <t>0xc0005002c0</t>
+  </si>
+  <si>
+    <t>0xc0005002d0</t>
+  </si>
+  <si>
+    <t>0xc000506280</t>
+  </si>
+  <si>
+    <t>0xc000506298</t>
   </si>
   <si>
     <t>"09-22-09</t>
   </si>
   <si>
-    <t>0xc0000638d0</t>
-  </si>
-  <si>
-    <t>0xc0000638c0</t>
-  </si>
-  <si>
-    <t>0xc0000638e0</t>
-  </si>
-  <si>
-    <t>0xc0000638f0</t>
-  </si>
-  <si>
-    <t>0xc000063900</t>
-  </si>
-  <si>
-    <t>0xc0000245b8</t>
-  </si>
-  <si>
-    <t>0xc0000245d0</t>
+    <t>0xc0005002f0</t>
+  </si>
+  <si>
+    <t>0xc0005002e0</t>
+  </si>
+  <si>
+    <t>0xc000500300</t>
+  </si>
+  <si>
+    <t>0xc000500310</t>
+  </si>
+  <si>
+    <t>0xc000500320</t>
+  </si>
+  <si>
+    <t>0xc0005062d8</t>
+  </si>
+  <si>
+    <t>0xc0005062f0</t>
   </si>
   <si>
     <t>"09-22-10</t>
   </si>
   <si>
-    <t>0xc000063920</t>
-  </si>
-  <si>
-    <t>0xc000063910</t>
-  </si>
-  <si>
-    <t>0xc000063930</t>
-  </si>
-  <si>
-    <t>0xc000063940</t>
-  </si>
-  <si>
-    <t>0xc000063950</t>
-  </si>
-  <si>
-    <t>0xc000024610</t>
-  </si>
-  <si>
-    <t>0xc000024628</t>
+    <t>0xc000500340</t>
+  </si>
+  <si>
+    <t>0xc000500330</t>
+  </si>
+  <si>
+    <t>0xc000500350</t>
+  </si>
+  <si>
+    <t>0xc000500360</t>
+  </si>
+  <si>
+    <t>0xc000500370</t>
+  </si>
+  <si>
+    <t>0xc000506330</t>
+  </si>
+  <si>
+    <t>0xc000506348</t>
   </si>
   <si>
     <t>"09-22-11</t>
   </si>
   <si>
-    <t>0xc000063970</t>
-  </si>
-  <si>
-    <t>0xc000063960</t>
-  </si>
-  <si>
-    <t>0xc000063980</t>
-  </si>
-  <si>
-    <t>0xc000063990</t>
-  </si>
-  <si>
-    <t>0xc0000639a0</t>
-  </si>
-  <si>
-    <t>0xc000024660</t>
-  </si>
-  <si>
-    <t>0xc000024678</t>
+    <t>0xc000500390</t>
+  </si>
+  <si>
+    <t>0xc000500380</t>
+  </si>
+  <si>
+    <t>0xc0005003a0</t>
+  </si>
+  <si>
+    <t>0xc0005003b0</t>
+  </si>
+  <si>
+    <t>0xc0005003c0</t>
+  </si>
+  <si>
+    <t>0xc000506380</t>
+  </si>
+  <si>
+    <t>0xc000506398</t>
   </si>
   <si>
     <t>"09-22-12</t>
   </si>
   <si>
-    <t>0xc0000639c0</t>
-  </si>
-  <si>
-    <t>0xc0000639b0</t>
-  </si>
-  <si>
-    <t>0xc0000639d0</t>
-  </si>
-  <si>
-    <t>0xc0000639e0</t>
-  </si>
-  <si>
-    <t>0xc0000639f0</t>
-  </si>
-  <si>
-    <t>0xc0000246c0</t>
-  </si>
-  <si>
-    <t>0xc0000246d8</t>
+    <t>0xc0005003e0</t>
+  </si>
+  <si>
+    <t>0xc0005003d0</t>
+  </si>
+  <si>
+    <t>0xc0005003f0</t>
+  </si>
+  <si>
+    <t>0xc000500400</t>
+  </si>
+  <si>
+    <t>0xc000500410</t>
+  </si>
+  <si>
+    <t>0xc0005063e0</t>
+  </si>
+  <si>
+    <t>0xc0005063f8</t>
   </si>
   <si>
     <t>"09-22-13</t>
   </si>
   <si>
-    <t>0xc000063a10</t>
-  </si>
-  <si>
-    <t>0xc000063a00</t>
-  </si>
-  <si>
-    <t>0xc000063a20</t>
-  </si>
-  <si>
-    <t>0xc000063a30</t>
-  </si>
-  <si>
-    <t>0xc000063a40</t>
-  </si>
-  <si>
-    <t>0xc000024710</t>
-  </si>
-  <si>
-    <t>0xc000024720</t>
+    <t>0xc000500430</t>
+  </si>
+  <si>
+    <t>0xc000500420</t>
+  </si>
+  <si>
+    <t>0xc000500440</t>
+  </si>
+  <si>
+    <t>0xc000500450</t>
+  </si>
+  <si>
+    <t>0xc000500460</t>
+  </si>
+  <si>
+    <t>0xc000506430</t>
+  </si>
+  <si>
+    <t>0xc000506440</t>
   </si>
   <si>
     <t>"09-22-14</t>
   </si>
   <si>
-    <t>0xc000063a60</t>
-  </si>
-  <si>
-    <t>0xc000063a50</t>
-  </si>
-  <si>
-    <t>0xc000063a70</t>
-  </si>
-  <si>
-    <t>0xc000063a80</t>
-  </si>
-  <si>
-    <t>0xc000063a90</t>
-  </si>
-  <si>
-    <t>0xc000024770</t>
-  </si>
-  <si>
-    <t>0xc000024780</t>
+    <t>0xc000500480</t>
+  </si>
+  <si>
+    <t>0xc000500470</t>
+  </si>
+  <si>
+    <t>0xc000500490</t>
+  </si>
+  <si>
+    <t>0xc0005004a0</t>
+  </si>
+  <si>
+    <t>0xc0005004b0</t>
+  </si>
+  <si>
+    <t>0xc000506490</t>
+  </si>
+  <si>
+    <t>0xc0005064a0</t>
   </si>
   <si>
     <t>"09-22-15</t>
   </si>
   <si>
-    <t>0xc000063ab0</t>
-  </si>
-  <si>
-    <t>0xc000063aa0</t>
-  </si>
-  <si>
-    <t>0xc000063ac0</t>
-  </si>
-  <si>
-    <t>0xc000063ad0</t>
-  </si>
-  <si>
-    <t>0xc000063ae0</t>
-  </si>
-  <si>
-    <t>0xc0000247b0</t>
-  </si>
-  <si>
-    <t>0xc0000247c8</t>
+    <t>0xc0005004d0</t>
+  </si>
+  <si>
+    <t>0xc0005004c0</t>
+  </si>
+  <si>
+    <t>0xc0005004e0</t>
+  </si>
+  <si>
+    <t>0xc0005004f0</t>
+  </si>
+  <si>
+    <t>0xc000500500</t>
+  </si>
+  <si>
+    <t>0xc0005064d0</t>
+  </si>
+  <si>
+    <t>0xc0005064e8</t>
   </si>
   <si>
     <t>"09-22-16</t>
   </si>
   <si>
-    <t>0xc000063b00</t>
-  </si>
-  <si>
-    <t>0xc000063af0</t>
-  </si>
-  <si>
-    <t>0xc000063b10</t>
-  </si>
-  <si>
-    <t>0xc000063b20</t>
-  </si>
-  <si>
-    <t>0xc000063b30</t>
-  </si>
-  <si>
-    <t>0xc000024800</t>
-  </si>
-  <si>
-    <t>0xc000024810</t>
+    <t>0xc000500520</t>
+  </si>
+  <si>
+    <t>0xc000500510</t>
+  </si>
+  <si>
+    <t>0xc000500530</t>
+  </si>
+  <si>
+    <t>0xc000500540</t>
+  </si>
+  <si>
+    <t>0xc000500550</t>
+  </si>
+  <si>
+    <t>0xc000506520</t>
+  </si>
+  <si>
+    <t>0xc000506530</t>
   </si>
   <si>
     <t>"09-22-17</t>
   </si>
   <si>
-    <t>0xc000063b50</t>
-  </si>
-  <si>
-    <t>0xc000063b40</t>
-  </si>
-  <si>
-    <t>0xc000063b60</t>
-  </si>
-  <si>
-    <t>0xc000063b70</t>
-  </si>
-  <si>
-    <t>0xc000063b80</t>
-  </si>
-  <si>
-    <t>0xc000024860</t>
-  </si>
-  <si>
-    <t>0xc000024878</t>
+    <t>0xc000500570</t>
+  </si>
+  <si>
+    <t>0xc000500560</t>
+  </si>
+  <si>
+    <t>0xc000500580</t>
+  </si>
+  <si>
+    <t>0xc000500590</t>
+  </si>
+  <si>
+    <t>0xc0005005a0</t>
+  </si>
+  <si>
+    <t>0xc000506580</t>
+  </si>
+  <si>
+    <t>0xc000506598</t>
   </si>
   <si>
     <t>"09-22-18</t>
   </si>
   <si>
-    <t>0xc000063ba0</t>
-  </si>
-  <si>
-    <t>0xc000063b90</t>
-  </si>
-  <si>
-    <t>0xc000063bb0</t>
-  </si>
-  <si>
-    <t>0xc000063bc0</t>
-  </si>
-  <si>
-    <t>0xc000063bd0</t>
-  </si>
-  <si>
-    <t>0xc0000248b0</t>
-  </si>
-  <si>
-    <t>0xc0000248c0</t>
+    <t>0xc0005005c0</t>
+  </si>
+  <si>
+    <t>0xc0005005b0</t>
+  </si>
+  <si>
+    <t>0xc0005005d0</t>
+  </si>
+  <si>
+    <t>0xc0005005e0</t>
+  </si>
+  <si>
+    <t>0xc0005005f0</t>
+  </si>
+  <si>
+    <t>0xc0005065d0</t>
+  </si>
+  <si>
+    <t>0xc0005065e0</t>
   </si>
   <si>
     <t>"09-22-19</t>
   </si>
   <si>
-    <t>0xc000063bf0</t>
-  </si>
-  <si>
-    <t>0xc000063be0</t>
-  </si>
-  <si>
-    <t>0xc000063c00</t>
-  </si>
-  <si>
-    <t>0xc000063c10</t>
-  </si>
-  <si>
-    <t>0xc000063c20</t>
-  </si>
-  <si>
-    <t>0xc000024900</t>
-  </si>
-  <si>
-    <t>0xc000024910</t>
+    <t>0xc000500610</t>
+  </si>
+  <si>
+    <t>0xc000500600</t>
+  </si>
+  <si>
+    <t>0xc000500620</t>
+  </si>
+  <si>
+    <t>0xc000500630</t>
+  </si>
+  <si>
+    <t>0xc000500640</t>
+  </si>
+  <si>
+    <t>0xc000506620</t>
+  </si>
+  <si>
+    <t>0xc000506630</t>
   </si>
   <si>
     <t>07-22-01</t>
   </si>
   <si>
-    <t>0xc000063c40</t>
+    <t>0xc000500660</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>0xc000063c30</t>
-  </si>
-  <si>
-    <t>0xc000063c50</t>
-  </si>
-  <si>
-    <t>0xc000063c60</t>
-  </si>
-  <si>
-    <t>0xc000063c70</t>
-  </si>
-  <si>
-    <t>0xc000024930</t>
+    <t>0xc000500650</t>
+  </si>
+  <si>
+    <t>0xc000500670</t>
+  </si>
+  <si>
+    <t>0xc000500680</t>
+  </si>
+  <si>
+    <t>0xc000500690</t>
+  </si>
+  <si>
+    <t>0xc000506650</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0xc000024940</t>
+    <t>0xc000506660</t>
   </si>
   <si>
     <t>07-22-02</t>
   </si>
   <si>
-    <t>0xc000063c90</t>
-  </si>
-  <si>
-    <t>0xc000063c80</t>
-  </si>
-  <si>
-    <t>0xc000063ca0</t>
-  </si>
-  <si>
-    <t>0xc000063cb0</t>
-  </si>
-  <si>
-    <t>0xc000063cc0</t>
-  </si>
-  <si>
-    <t>0xc000024950</t>
-  </si>
-  <si>
-    <t>0xc000024960</t>
+    <t>0xc0005006b0</t>
+  </si>
+  <si>
+    <t>0xc0005006a0</t>
+  </si>
+  <si>
+    <t>0xc0005006c0</t>
+  </si>
+  <si>
+    <t>0xc0005006d0</t>
+  </si>
+  <si>
+    <t>0xc0005006e0</t>
+  </si>
+  <si>
+    <t>0xc000506670</t>
+  </si>
+  <si>
+    <t>0xc000506680</t>
   </si>
   <si>
     <t>07-22-03</t>
   </si>
   <si>
-    <t>0xc000063ce0</t>
-  </si>
-  <si>
-    <t>0xc000063cd0</t>
-  </si>
-  <si>
-    <t>0xc000063cf0</t>
-  </si>
-  <si>
-    <t>0xc000063d00</t>
-  </si>
-  <si>
-    <t>0xc000063d10</t>
-  </si>
-  <si>
-    <t>0xc000024970</t>
-  </si>
-  <si>
-    <t>0xc000024980</t>
+    <t>0xc000500700</t>
+  </si>
+  <si>
+    <t>0xc0005006f0</t>
+  </si>
+  <si>
+    <t>0xc000500710</t>
+  </si>
+  <si>
+    <t>0xc000500720</t>
+  </si>
+  <si>
+    <t>0xc000500730</t>
+  </si>
+  <si>
+    <t>0xc000506690</t>
+  </si>
+  <si>
+    <t>0xc0005066a0</t>
   </si>
   <si>
     <t>07-22-04</t>
   </si>
   <si>
-    <t>0xc000063d30</t>
-  </si>
-  <si>
-    <t>0xc000063d20</t>
-  </si>
-  <si>
-    <t>0xc000063d40</t>
-  </si>
-  <si>
-    <t>0xc000063d50</t>
-  </si>
-  <si>
-    <t>0xc000063d60</t>
-  </si>
-  <si>
-    <t>0xc0000249a0</t>
-  </si>
-  <si>
-    <t>0xc0000249b0</t>
+    <t>0xc000500750</t>
+  </si>
+  <si>
+    <t>0xc000500740</t>
+  </si>
+  <si>
+    <t>0xc000500760</t>
+  </si>
+  <si>
+    <t>0xc000500770</t>
+  </si>
+  <si>
+    <t>0xc000500780</t>
+  </si>
+  <si>
+    <t>0xc0005066c0</t>
+  </si>
+  <si>
+    <t>0xc0005066d0</t>
   </si>
   <si>
     <t>07-22-05</t>
   </si>
   <si>
-    <t>0xc000063d80</t>
-  </si>
-  <si>
-    <t>0xc000063d70</t>
-  </si>
-  <si>
-    <t>0xc000063d90</t>
-  </si>
-  <si>
-    <t>0xc000063da0</t>
-  </si>
-  <si>
-    <t>0xc000063db0</t>
-  </si>
-  <si>
-    <t>0xc0000249c0</t>
-  </si>
-  <si>
-    <t>0xc0000249d0</t>
+    <t>0xc0005007a0</t>
+  </si>
+  <si>
+    <t>0xc000500790</t>
+  </si>
+  <si>
+    <t>0xc0005007b0</t>
+  </si>
+  <si>
+    <t>0xc0005007c0</t>
+  </si>
+  <si>
+    <t>0xc0005007d0</t>
+  </si>
+  <si>
+    <t>0xc0005066e0</t>
+  </si>
+  <si>
+    <t>0xc0005066f0</t>
   </si>
   <si>
     <t>07-22-06</t>
   </si>
   <si>
-    <t>0xc000063dd0</t>
-  </si>
-  <si>
-    <t>0xc000063dc0</t>
-  </si>
-  <si>
-    <t>0xc000063de0</t>
-  </si>
-  <si>
-    <t>0xc000063df0</t>
-  </si>
-  <si>
-    <t>0xc000063e00</t>
-  </si>
-  <si>
-    <t>0xc0000249f0</t>
-  </si>
-  <si>
-    <t>0xc000024a00</t>
+    <t>0xc0005007f0</t>
+  </si>
+  <si>
+    <t>0xc0005007e0</t>
+  </si>
+  <si>
+    <t>0xc000500800</t>
+  </si>
+  <si>
+    <t>0xc000500810</t>
+  </si>
+  <si>
+    <t>0xc000500820</t>
+  </si>
+  <si>
+    <t>0xc000506710</t>
+  </si>
+  <si>
+    <t>0xc000506720</t>
   </si>
   <si>
     <t>07-22-07</t>
   </si>
   <si>
-    <t>0xc000063e20</t>
-  </si>
-  <si>
-    <t>0xc000063e10</t>
-  </si>
-  <si>
-    <t>0xc000063e30</t>
-  </si>
-  <si>
-    <t>0xc000063e40</t>
-  </si>
-  <si>
-    <t>0xc000063e50</t>
-  </si>
-  <si>
-    <t>0xc000024a20</t>
-  </si>
-  <si>
-    <t>0xc000024a30</t>
+    <t>0xc000500840</t>
+  </si>
+  <si>
+    <t>0xc000500830</t>
+  </si>
+  <si>
+    <t>0xc000500850</t>
+  </si>
+  <si>
+    <t>0xc000500860</t>
+  </si>
+  <si>
+    <t>0xc000500870</t>
+  </si>
+  <si>
+    <t>0xc000506740</t>
+  </si>
+  <si>
+    <t>0xc000506750</t>
   </si>
   <si>
     <t>07-22-08</t>
   </si>
   <si>
-    <t>0xc000063e70</t>
-  </si>
-  <si>
-    <t>0xc000063e60</t>
-  </si>
-  <si>
-    <t>0xc000063e80</t>
-  </si>
-  <si>
-    <t>0xc000063e90</t>
-  </si>
-  <si>
-    <t>0xc000063ea0</t>
-  </si>
-  <si>
-    <t>0xc000024a60</t>
-  </si>
-  <si>
-    <t>0xc000024a70</t>
+    <t>0xc000500890</t>
+  </si>
+  <si>
+    <t>0xc000500880</t>
+  </si>
+  <si>
+    <t>0xc0005008a0</t>
+  </si>
+  <si>
+    <t>0xc0005008b0</t>
+  </si>
+  <si>
+    <t>0xc0005008c0</t>
+  </si>
+  <si>
+    <t>0xc000506780</t>
+  </si>
+  <si>
+    <t>0xc000506790</t>
   </si>
   <si>
     <t>07-22-09</t>
   </si>
   <si>
-    <t>0xc000063ec0</t>
-  </si>
-  <si>
-    <t>0xc000063eb0</t>
-  </si>
-  <si>
-    <t>0xc000063ed0</t>
-  </si>
-  <si>
-    <t>0xc000063ee0</t>
-  </si>
-  <si>
-    <t>0xc000063ef0</t>
-  </si>
-  <si>
-    <t>0xc000024a90</t>
-  </si>
-  <si>
-    <t>0xc000024aa0</t>
+    <t>0xc0005008e0</t>
+  </si>
+  <si>
+    <t>0xc0005008d0</t>
+  </si>
+  <si>
+    <t>0xc0005008f0</t>
+  </si>
+  <si>
+    <t>0xc000500900</t>
+  </si>
+  <si>
+    <t>0xc000500910</t>
+  </si>
+  <si>
+    <t>0xc0005067b0</t>
+  </si>
+  <si>
+    <t>0xc0005067c0</t>
   </si>
   <si>
     <t>07-22-10</t>
   </si>
   <si>
-    <t>0xc000063f10</t>
-  </si>
-  <si>
-    <t>0xc000063f00</t>
-  </si>
-  <si>
-    <t>0xc000063f20</t>
-  </si>
-  <si>
-    <t>0xc000063f30</t>
-  </si>
-  <si>
-    <t>0xc000063f40</t>
-  </si>
-  <si>
-    <t>0xc000024ad0</t>
-  </si>
-  <si>
-    <t>0xc000024ae0</t>
+    <t>0xc000500930</t>
+  </si>
+  <si>
+    <t>0xc000500920</t>
+  </si>
+  <si>
+    <t>0xc000500940</t>
+  </si>
+  <si>
+    <t>0xc000500950</t>
+  </si>
+  <si>
+    <t>0xc000500960</t>
+  </si>
+  <si>
+    <t>0xc0005067f0</t>
+  </si>
+  <si>
+    <t>0xc000506800</t>
   </si>
   <si>
     <t>07-22-11</t>
   </si>
   <si>
-    <t>0xc000063f60</t>
-  </si>
-  <si>
-    <t>0xc000063f50</t>
-  </si>
-  <si>
-    <t>0xc000063f70</t>
-  </si>
-  <si>
-    <t>0xc000063f80</t>
-  </si>
-  <si>
-    <t>0xc000063f90</t>
-  </si>
-  <si>
-    <t>0xc000024b10</t>
-  </si>
-  <si>
-    <t>0xc000024b40</t>
+    <t>0xc000500980</t>
+  </si>
+  <si>
+    <t>0xc000500970</t>
+  </si>
+  <si>
+    <t>0xc000500990</t>
+  </si>
+  <si>
+    <t>0xc0005009a0</t>
+  </si>
+  <si>
+    <t>0xc0005009b0</t>
+  </si>
+  <si>
+    <t>0xc000506830</t>
+  </si>
+  <si>
+    <t>0xc000506840</t>
   </si>
   <si>
     <t>07-22-12</t>
   </si>
   <si>
-    <t>0xc000063fb0</t>
-  </si>
-  <si>
-    <t>0xc000063fa0</t>
-  </si>
-  <si>
-    <t>0xc000063fc0</t>
-  </si>
-  <si>
-    <t>0xc000063fd0</t>
-  </si>
-  <si>
-    <t>0xc000063fe0</t>
-  </si>
-  <si>
-    <t>0xc000024bd0</t>
-  </si>
-  <si>
-    <t>0xc000024be0</t>
+    <t>0xc0005009d0</t>
+  </si>
+  <si>
+    <t>0xc0005009c0</t>
+  </si>
+  <si>
+    <t>0xc0005009e0</t>
+  </si>
+  <si>
+    <t>0xc0005009f0</t>
+  </si>
+  <si>
+    <t>0xc000500a00</t>
+  </si>
+  <si>
+    <t>0xc000506870</t>
+  </si>
+  <si>
+    <t>0xc000506880</t>
   </si>
   <si>
     <t>07-22-13</t>
   </si>
   <si>
-    <t>0xc00039e000</t>
-  </si>
-  <si>
-    <t>0xc000063ff0</t>
-  </si>
-  <si>
-    <t>0xc00039e010</t>
-  </si>
-  <si>
-    <t>0xc00039e020</t>
-  </si>
-  <si>
-    <t>0xc00039e030</t>
-  </si>
-  <si>
-    <t>0xc000024c00</t>
-  </si>
-  <si>
-    <t>0xc000024c10</t>
+    <t>0xc000500a20</t>
+  </si>
+  <si>
+    <t>0xc000500a10</t>
+  </si>
+  <si>
+    <t>0xc000500a30</t>
+  </si>
+  <si>
+    <t>0xc000500a40</t>
+  </si>
+  <si>
+    <t>0xc000500a50</t>
+  </si>
+  <si>
+    <t>0xc0005068a0</t>
+  </si>
+  <si>
+    <t>0xc0005068b0</t>
   </si>
   <si>
     <t>07-22-14</t>
   </si>
   <si>
-    <t>0xc00039e050</t>
-  </si>
-  <si>
-    <t>0xc00039e040</t>
-  </si>
-  <si>
-    <t>0xc00039e060</t>
-  </si>
-  <si>
-    <t>0xc00039e070</t>
-  </si>
-  <si>
-    <t>0xc00039e080</t>
-  </si>
-  <si>
-    <t>0xc000024c40</t>
-  </si>
-  <si>
-    <t>0xc000024c50</t>
+    <t>0xc000500a70</t>
+  </si>
+  <si>
+    <t>0xc000500a60</t>
+  </si>
+  <si>
+    <t>0xc000500a80</t>
+  </si>
+  <si>
+    <t>0xc000500a90</t>
+  </si>
+  <si>
+    <t>0xc000500aa0</t>
+  </si>
+  <si>
+    <t>0xc0005068e0</t>
+  </si>
+  <si>
+    <t>0xc0005068f0</t>
   </si>
   <si>
     <t>07-22-15</t>
   </si>
   <si>
-    <t>0xc00039e0a0</t>
-  </si>
-  <si>
-    <t>0xc00039e090</t>
-  </si>
-  <si>
-    <t>0xc00039e0b0</t>
-  </si>
-  <si>
-    <t>0xc00039e0c0</t>
-  </si>
-  <si>
-    <t>0xc00039e0d0</t>
-  </si>
-  <si>
-    <t>0xc000024c70</t>
-  </si>
-  <si>
-    <t>0xc000024c80</t>
+    <t>0xc000500ac0</t>
+  </si>
+  <si>
+    <t>0xc000500ab0</t>
+  </si>
+  <si>
+    <t>0xc000500ad0</t>
+  </si>
+  <si>
+    <t>0xc000500ae0</t>
+  </si>
+  <si>
+    <t>0xc000500af0</t>
+  </si>
+  <si>
+    <t>0xc000506910</t>
+  </si>
+  <si>
+    <t>0xc000506920</t>
   </si>
   <si>
     <t>07-22-16</t>
   </si>
   <si>
-    <t>0xc00039e0f0</t>
-  </si>
-  <si>
-    <t>0xc00039e0e0</t>
-  </si>
-  <si>
-    <t>0xc00039e100</t>
-  </si>
-  <si>
-    <t>0xc00039e110</t>
-  </si>
-  <si>
-    <t>0xc00039e120</t>
-  </si>
-  <si>
-    <t>0xc000024ca0</t>
-  </si>
-  <si>
-    <t>0xc000024cb0</t>
+    <t>0xc000500b10</t>
+  </si>
+  <si>
+    <t>0xc000500b00</t>
+  </si>
+  <si>
+    <t>0xc000500b20</t>
+  </si>
+  <si>
+    <t>0xc000500b30</t>
+  </si>
+  <si>
+    <t>0xc000500b40</t>
+  </si>
+  <si>
+    <t>0xc000506940</t>
+  </si>
+  <si>
+    <t>0xc000506950</t>
   </si>
   <si>
     <t>07-22-17</t>
   </si>
   <si>
-    <t>0xc00039e140</t>
-  </si>
-  <si>
-    <t>0xc00039e130</t>
-  </si>
-  <si>
-    <t>0xc00039e150</t>
-  </si>
-  <si>
-    <t>0xc00039e160</t>
-  </si>
-  <si>
-    <t>0xc00039e170</t>
-  </si>
-  <si>
-    <t>0xc000024ce0</t>
-  </si>
-  <si>
-    <t>0xc000024cf0</t>
+    <t>0xc000500b60</t>
+  </si>
+  <si>
+    <t>0xc000500b50</t>
+  </si>
+  <si>
+    <t>0xc000500ba0</t>
+  </si>
+  <si>
+    <t>0xc000500c00</t>
+  </si>
+  <si>
+    <t>0xc000500c10</t>
+  </si>
+  <si>
+    <t>0xc000506980</t>
+  </si>
+  <si>
+    <t>0xc000506990</t>
   </si>
   <si>
     <t>07-22-18</t>
   </si>
   <si>
-    <t>0xc00039e190</t>
-  </si>
-  <si>
-    <t>0xc00039e180</t>
-  </si>
-  <si>
-    <t>0xc00039e1a0</t>
-  </si>
-  <si>
-    <t>0xc00039e1b0</t>
-  </si>
-  <si>
-    <t>0xc00039e1c0</t>
-  </si>
-  <si>
-    <t>0xc000024d20</t>
-  </si>
-  <si>
-    <t>0xc000024d30</t>
+    <t>0xc000500c40</t>
+  </si>
+  <si>
+    <t>0xc000500c30</t>
+  </si>
+  <si>
+    <t>0xc000500c50</t>
+  </si>
+  <si>
+    <t>0xc000500c60</t>
+  </si>
+  <si>
+    <t>0xc000500c70</t>
+  </si>
+  <si>
+    <t>0xc0005069c0</t>
+  </si>
+  <si>
+    <t>0xc0005069d0</t>
   </si>
   <si>
     <t>07-22-19</t>
   </si>
   <si>
-    <t>0xc00039e1e0</t>
-  </si>
-  <si>
-    <t>0xc00039e1d0</t>
-  </si>
-  <si>
-    <t>0xc00039e1f0</t>
-  </si>
-  <si>
-    <t>0xc00039e200</t>
-  </si>
-  <si>
-    <t>0xc00039e210</t>
-  </si>
-  <si>
-    <t>0xc000024d50</t>
-  </si>
-  <si>
-    <t>0xc000024d60</t>
+    <t>0xc000500c90</t>
+  </si>
+  <si>
+    <t>0xc000500c80</t>
+  </si>
+  <si>
+    <t>0xc000500ca0</t>
+  </si>
+  <si>
+    <t>0xc000500cb0</t>
+  </si>
+  <si>
+    <t>0xc000500cc0</t>
+  </si>
+  <si>
+    <t>0xc0005069f0</t>
+  </si>
+  <si>
+    <t>0xc000506a00</t>
   </si>
   <si>
     <t>07-22-20</t>
   </si>
   <si>
-    <t>0xc00039e230</t>
-  </si>
-  <si>
-    <t>0xc00039e220</t>
-  </si>
-  <si>
-    <t>0xc00039e240</t>
-  </si>
-  <si>
-    <t>0xc00039e250</t>
-  </si>
-  <si>
-    <t>0xc00039e260</t>
-  </si>
-  <si>
-    <t>0xc000024d90</t>
-  </si>
-  <si>
-    <t>0xc000024da0</t>
+    <t>0xc000500ce0</t>
+  </si>
+  <si>
+    <t>0xc000500cd0</t>
+  </si>
+  <si>
+    <t>0xc000500cf0</t>
+  </si>
+  <si>
+    <t>0xc000500d00</t>
+  </si>
+  <si>
+    <t>0xc000500d10</t>
+  </si>
+  <si>
+    <t>0xc000506a30</t>
+  </si>
+  <si>
+    <t>0xc000506a40</t>
   </si>
   <si>
     <t>07-22-21</t>
   </si>
   <si>
-    <t>0xc00039e280</t>
-  </si>
-  <si>
-    <t>0xc00039e270</t>
-  </si>
-  <si>
-    <t>0xc00039e290</t>
-  </si>
-  <si>
-    <t>0xc00039e2a0</t>
-  </si>
-  <si>
-    <t>0xc00039e2b0</t>
-  </si>
-  <si>
-    <t>0xc000024dd0</t>
-  </si>
-  <si>
-    <t>0xc000024de0</t>
+    <t>0xc000500d30</t>
+  </si>
+  <si>
+    <t>0xc000500d20</t>
+  </si>
+  <si>
+    <t>0xc000500d40</t>
+  </si>
+  <si>
+    <t>0xc000500d50</t>
+  </si>
+  <si>
+    <t>0xc000500d60</t>
+  </si>
+  <si>
+    <t>0xc000506a70</t>
+  </si>
+  <si>
+    <t>0xc000506a80</t>
   </si>
   <si>
     <t>08-22-01</t>
   </si>
   <si>
-    <t>0xc00039e2d0</t>
-  </si>
-  <si>
-    <t>0xc00039e2c0</t>
-  </si>
-  <si>
-    <t>0xc00039e2e0</t>
-  </si>
-  <si>
-    <t>0xc00039e2f0</t>
-  </si>
-  <si>
-    <t>0xc00039e300</t>
-  </si>
-  <si>
-    <t>0xc000024e00</t>
-  </si>
-  <si>
-    <t>0xc000024e10</t>
+    <t>0xc000500d80</t>
+  </si>
+  <si>
+    <t>0xc000500d70</t>
+  </si>
+  <si>
+    <t>0xc000500d90</t>
+  </si>
+  <si>
+    <t>0xc000500da0</t>
+  </si>
+  <si>
+    <t>0xc000500db0</t>
+  </si>
+  <si>
+    <t>0xc000506aa0</t>
+  </si>
+  <si>
+    <t>0xc000506ab0</t>
   </si>
   <si>
     <t>08-22-02</t>
   </si>
   <si>
-    <t>0xc00039e320</t>
-  </si>
-  <si>
-    <t>0xc00039e310</t>
-  </si>
-  <si>
-    <t>0xc00039e330</t>
-  </si>
-  <si>
-    <t>0xc00039e340</t>
-  </si>
-  <si>
-    <t>0xc00039e350</t>
-  </si>
-  <si>
-    <t>0xc000024e30</t>
-  </si>
-  <si>
-    <t>0xc000024e40</t>
+    <t>0xc000500dd0</t>
+  </si>
+  <si>
+    <t>0xc000500dc0</t>
+  </si>
+  <si>
+    <t>0xc000500de0</t>
+  </si>
+  <si>
+    <t>0xc000500df0</t>
+  </si>
+  <si>
+    <t>0xc000500e00</t>
+  </si>
+  <si>
+    <t>0xc000506ad0</t>
+  </si>
+  <si>
+    <t>0xc000506ae0</t>
   </si>
   <si>
     <t>08-22-03</t>
   </si>
   <si>
-    <t>0xc00039e370</t>
-  </si>
-  <si>
-    <t>0xc00039e360</t>
-  </si>
-  <si>
-    <t>0xc00039e380</t>
-  </si>
-  <si>
-    <t>0xc00039e390</t>
-  </si>
-  <si>
-    <t>0xc00039e3a0</t>
-  </si>
-  <si>
-    <t>0xc000024e58</t>
-  </si>
-  <si>
-    <t>0xc000024e68</t>
+    <t>0xc000500e20</t>
+  </si>
+  <si>
+    <t>0xc000500e10</t>
+  </si>
+  <si>
+    <t>0xc000500e30</t>
+  </si>
+  <si>
+    <t>0xc000500e40</t>
+  </si>
+  <si>
+    <t>0xc000500e50</t>
+  </si>
+  <si>
+    <t>0xc000506af8</t>
+  </si>
+  <si>
+    <t>0xc000506b08</t>
   </si>
   <si>
     <t>08-22-04</t>
   </si>
   <si>
-    <t>0xc00039e3c0</t>
-  </si>
-  <si>
-    <t>0xc00039e3b0</t>
-  </si>
-  <si>
-    <t>0xc00039e3d0</t>
-  </si>
-  <si>
-    <t>0xc00039e3e0</t>
-  </si>
-  <si>
-    <t>0xc00039e3f0</t>
-  </si>
-  <si>
-    <t>0xc000024ea0</t>
-  </si>
-  <si>
-    <t>0xc000024ec0</t>
+    <t>0xc000500e70</t>
+  </si>
+  <si>
+    <t>0xc000500e60</t>
+  </si>
+  <si>
+    <t>0xc000500e80</t>
+  </si>
+  <si>
+    <t>0xc000500e90</t>
+  </si>
+  <si>
+    <t>0xc000500ea0</t>
+  </si>
+  <si>
+    <t>0xc000506b30</t>
+  </si>
+  <si>
+    <t>0xc000506b40</t>
   </si>
   <si>
     <t>08-22-05</t>
   </si>
   <si>
-    <t>0xc00039e410</t>
-  </si>
-  <si>
-    <t>0xc00039e400</t>
-  </si>
-  <si>
-    <t>0xc00039e420</t>
-  </si>
-  <si>
-    <t>0xc00039e430</t>
-  </si>
-  <si>
-    <t>0xc00039e440</t>
-  </si>
-  <si>
-    <t>0xc000024ed8</t>
-  </si>
-  <si>
-    <t>0xc000024ef8</t>
+    <t>0xc000500ec0</t>
+  </si>
+  <si>
+    <t>0xc000500eb0</t>
+  </si>
+  <si>
+    <t>0xc000500ed0</t>
+  </si>
+  <si>
+    <t>0xc000500ee0</t>
+  </si>
+  <si>
+    <t>0xc000500ef0</t>
+  </si>
+  <si>
+    <t>0xc000506b58</t>
+  </si>
+  <si>
+    <t>0xc000506b68</t>
   </si>
   <si>
     <t>08-22-06</t>
   </si>
   <si>
-    <t>0xc00039e460</t>
-  </si>
-  <si>
-    <t>0xc00039e450</t>
-  </si>
-  <si>
-    <t>0xc00039e470</t>
-  </si>
-  <si>
-    <t>0xc00039e480</t>
-  </si>
-  <si>
-    <t>0xc00039e490</t>
-  </si>
-  <si>
-    <t>0xc000024f30</t>
-  </si>
-  <si>
-    <t>0xc000024f60</t>
+    <t>0xc000500f10</t>
+  </si>
+  <si>
+    <t>0xc000500f00</t>
+  </si>
+  <si>
+    <t>0xc000500f20</t>
+  </si>
+  <si>
+    <t>0xc000500f30</t>
+  </si>
+  <si>
+    <t>0xc000500f40</t>
+  </si>
+  <si>
+    <t>0xc000506b80</t>
+  </si>
+  <si>
+    <t>0xc000506b90</t>
   </si>
   <si>
     <t>08-22-07</t>
   </si>
   <si>
-    <t>0xc00039e4b0</t>
-  </si>
-  <si>
-    <t>0xc00039e4a0</t>
-  </si>
-  <si>
-    <t>0xc00039e4c0</t>
-  </si>
-  <si>
-    <t>0xc00039e4d0</t>
-  </si>
-  <si>
-    <t>0xc00039e4e0</t>
-  </si>
-  <si>
-    <t>0xc000024fa0</t>
-  </si>
-  <si>
-    <t>0xc000024fc0</t>
+    <t>0xc000500f60</t>
+  </si>
+  <si>
+    <t>0xc000500f50</t>
+  </si>
+  <si>
+    <t>0xc000500f70</t>
+  </si>
+  <si>
+    <t>0xc000500f80</t>
+  </si>
+  <si>
+    <t>0xc000500f90</t>
+  </si>
+  <si>
+    <t>0xc000506bb0</t>
+  </si>
+  <si>
+    <t>0xc000506bc0</t>
   </si>
   <si>
     <t>08-22-08</t>
   </si>
   <si>
-    <t>0xc00039e500</t>
-  </si>
-  <si>
-    <t>0xc00039e4f0</t>
-  </si>
-  <si>
-    <t>0xc00039e510</t>
-  </si>
-  <si>
-    <t>0xc00039e520</t>
-  </si>
-  <si>
-    <t>0xc00039e530</t>
-  </si>
-  <si>
-    <t>0xc000024ff0</t>
-  </si>
-  <si>
-    <t>0xc000025000</t>
+    <t>0xc000500fb0</t>
+  </si>
+  <si>
+    <t>0xc000500fa0</t>
+  </si>
+  <si>
+    <t>0xc000500fc0</t>
+  </si>
+  <si>
+    <t>0xc000500fd0</t>
+  </si>
+  <si>
+    <t>0xc000500fe0</t>
+  </si>
+  <si>
+    <t>0xc000506be0</t>
+  </si>
+  <si>
+    <t>0xc000506bf0</t>
   </si>
   <si>
     <t>08-22-09</t>
   </si>
   <si>
-    <t>0xc00039e550</t>
-  </si>
-  <si>
-    <t>0xc00039e540</t>
-  </si>
-  <si>
-    <t>0xc00039e560</t>
-  </si>
-  <si>
-    <t>0xc00039e570</t>
-  </si>
-  <si>
-    <t>0xc00039e580</t>
-  </si>
-  <si>
-    <t>0xc000025030</t>
-  </si>
-  <si>
-    <t>0xc000025050</t>
+    <t>0xc000501000</t>
+  </si>
+  <si>
+    <t>0xc000500ff0</t>
+  </si>
+  <si>
+    <t>0xc000501010</t>
+  </si>
+  <si>
+    <t>0xc000501020</t>
+  </si>
+  <si>
+    <t>0xc000501030</t>
+  </si>
+  <si>
+    <t>0xc000506c10</t>
+  </si>
+  <si>
+    <t>0xc000506c20</t>
   </si>
   <si>
     <t>08-22-10</t>
   </si>
   <si>
-    <t>0xc00039e5a0</t>
-  </si>
-  <si>
-    <t>0xc00039e590</t>
-  </si>
-  <si>
-    <t>0xc00039e5b0</t>
-  </si>
-  <si>
-    <t>0xc00039e5c0</t>
-  </si>
-  <si>
-    <t>0xc00039e5d0</t>
-  </si>
-  <si>
-    <t>0xc000025080</t>
-  </si>
-  <si>
-    <t>0xc000025090</t>
+    <t>0xc000501050</t>
+  </si>
+  <si>
+    <t>0xc000501040</t>
+  </si>
+  <si>
+    <t>0xc000501060</t>
+  </si>
+  <si>
+    <t>0xc000501070</t>
+  </si>
+  <si>
+    <t>0xc000501080</t>
+  </si>
+  <si>
+    <t>0xc000506c40</t>
+  </si>
+  <si>
+    <t>0xc000506c50</t>
   </si>
   <si>
     <t>08-22-11</t>
   </si>
   <si>
-    <t>0xc00039e5f0</t>
-  </si>
-  <si>
-    <t>0xc00039e5e0</t>
-  </si>
-  <si>
-    <t>0xc00039e600</t>
-  </si>
-  <si>
-    <t>0xc00039e610</t>
-  </si>
-  <si>
-    <t>0xc00039e620</t>
-  </si>
-  <si>
-    <t>0xc0000250b0</t>
-  </si>
-  <si>
-    <t>0xc0000250c0</t>
+    <t>0xc0005010a0</t>
+  </si>
+  <si>
+    <t>0xc000501090</t>
+  </si>
+  <si>
+    <t>0xc0005010b0</t>
+  </si>
+  <si>
+    <t>0xc0005010c0</t>
+  </si>
+  <si>
+    <t>0xc0005010d0</t>
+  </si>
+  <si>
+    <t>0xc000506c70</t>
+  </si>
+  <si>
+    <t>0xc000506c80</t>
   </si>
   <si>
     <t>08-22-12</t>
   </si>
   <si>
-    <t>0xc00039e640</t>
-  </si>
-  <si>
-    <t>0xc00039e630</t>
-  </si>
-  <si>
-    <t>0xc00039e650</t>
-  </si>
-  <si>
-    <t>0xc00039e660</t>
-  </si>
-  <si>
-    <t>0xc00039e670</t>
-  </si>
-  <si>
-    <t>0xc0000250e0</t>
-  </si>
-  <si>
-    <t>0xc0000250f0</t>
+    <t>0xc0005010f0</t>
+  </si>
+  <si>
+    <t>0xc0005010e0</t>
+  </si>
+  <si>
+    <t>0xc000501100</t>
+  </si>
+  <si>
+    <t>0xc000501110</t>
+  </si>
+  <si>
+    <t>0xc000501120</t>
+  </si>
+  <si>
+    <t>0xc000506ca0</t>
+  </si>
+  <si>
+    <t>0xc000506cb0</t>
   </si>
   <si>
     <t>08-22-13</t>
   </si>
   <si>
-    <t>0xc00039e690</t>
-  </si>
-  <si>
-    <t>0xc00039e680</t>
-  </si>
-  <si>
-    <t>0xc00039e6a0</t>
-  </si>
-  <si>
-    <t>0xc00039e6b0</t>
-  </si>
-  <si>
-    <t>0xc00039e6c0</t>
-  </si>
-  <si>
-    <t>0xc000025110</t>
-  </si>
-  <si>
-    <t>0xc000025120</t>
+    <t>0xc000501140</t>
+  </si>
+  <si>
+    <t>0xc000501130</t>
+  </si>
+  <si>
+    <t>0xc000501150</t>
+  </si>
+  <si>
+    <t>0xc000501160</t>
+  </si>
+  <si>
+    <t>0xc000501170</t>
+  </si>
+  <si>
+    <t>0xc000506cd0</t>
+  </si>
+  <si>
+    <t>0xc000506ce0</t>
   </si>
   <si>
     <t>08-22-14</t>
   </si>
   <si>
-    <t>0xc00039e6e0</t>
-  </si>
-  <si>
-    <t>0xc00039e6d0</t>
-  </si>
-  <si>
-    <t>0xc00039e6f0</t>
-  </si>
-  <si>
-    <t>0xc00039e700</t>
-  </si>
-  <si>
-    <t>0xc00039e710</t>
-  </si>
-  <si>
-    <t>0xc000025140</t>
-  </si>
-  <si>
-    <t>0xc000025150</t>
+    <t>0xc000501190</t>
+  </si>
+  <si>
+    <t>0xc000501180</t>
+  </si>
+  <si>
+    <t>0xc0005011a0</t>
+  </si>
+  <si>
+    <t>0xc0005011b0</t>
+  </si>
+  <si>
+    <t>0xc0005011c0</t>
+  </si>
+  <si>
+    <t>0xc000506d00</t>
+  </si>
+  <si>
+    <t>0xc000506d10</t>
   </si>
   <si>
     <t>08-22-15</t>
   </si>
   <si>
-    <t>0xc00039e730</t>
-  </si>
-  <si>
-    <t>0xc00039e720</t>
-  </si>
-  <si>
-    <t>0xc00039e740</t>
-  </si>
-  <si>
-    <t>0xc00039e750</t>
-  </si>
-  <si>
-    <t>0xc00039e760</t>
-  </si>
-  <si>
-    <t>0xc000025170</t>
-  </si>
-  <si>
-    <t>0xc000025180</t>
+    <t>0xc0005011e0</t>
+  </si>
+  <si>
+    <t>0xc0005011d0</t>
+  </si>
+  <si>
+    <t>0xc0005011f0</t>
+  </si>
+  <si>
+    <t>0xc000501200</t>
+  </si>
+  <si>
+    <t>0xc000501210</t>
+  </si>
+  <si>
+    <t>0xc000506d30</t>
+  </si>
+  <si>
+    <t>0xc000506d40</t>
   </si>
   <si>
     <t>08-22-16</t>
   </si>
   <si>
-    <t>0xc00039e780</t>
-  </si>
-  <si>
-    <t>0xc00039e770</t>
-  </si>
-  <si>
-    <t>0xc00039e790</t>
-  </si>
-  <si>
-    <t>0xc00039e7a0</t>
-  </si>
-  <si>
-    <t>0xc00039e7b0</t>
-  </si>
-  <si>
-    <t>0xc0000251a0</t>
-  </si>
-  <si>
-    <t>0xc0000251b0</t>
+    <t>0xc000501230</t>
+  </si>
+  <si>
+    <t>0xc000501220</t>
+  </si>
+  <si>
+    <t>0xc000501240</t>
+  </si>
+  <si>
+    <t>0xc000501250</t>
+  </si>
+  <si>
+    <t>0xc000501260</t>
+  </si>
+  <si>
+    <t>0xc000506d60</t>
+  </si>
+  <si>
+    <t>0xc000506d70</t>
   </si>
   <si>
     <t>08-22-17</t>
   </si>
   <si>
-    <t>0xc00039e7d0</t>
-  </si>
-  <si>
-    <t>0xc00039e7c0</t>
-  </si>
-  <si>
-    <t>0xc00039e7e0</t>
-  </si>
-  <si>
-    <t>0xc00039e7f0</t>
-  </si>
-  <si>
-    <t>0xc00039e800</t>
-  </si>
-  <si>
-    <t>0xc0000251d0</t>
-  </si>
-  <si>
-    <t>0xc0000251e0</t>
+    <t>0xc000501280</t>
+  </si>
+  <si>
+    <t>0xc000501270</t>
+  </si>
+  <si>
+    <t>0xc000501290</t>
+  </si>
+  <si>
+    <t>0xc0005012a0</t>
+  </si>
+  <si>
+    <t>0xc0005012b0</t>
+  </si>
+  <si>
+    <t>0xc000506d90</t>
+  </si>
+  <si>
+    <t>0xc000506da0</t>
   </si>
   <si>
     <t>08-22-18</t>
   </si>
   <si>
-    <t>0xc00039e820</t>
-  </si>
-  <si>
-    <t>0xc00039e810</t>
-  </si>
-  <si>
-    <t>0xc00039e830</t>
-  </si>
-  <si>
-    <t>0xc00039e840</t>
-  </si>
-  <si>
-    <t>0xc00039e850</t>
-  </si>
-  <si>
-    <t>0xc0000251f8</t>
-  </si>
-  <si>
-    <t>0xc000025218</t>
+    <t>0xc0005012d0</t>
+  </si>
+  <si>
+    <t>0xc0005012c0</t>
+  </si>
+  <si>
+    <t>0xc0005012e0</t>
+  </si>
+  <si>
+    <t>0xc0005012f0</t>
+  </si>
+  <si>
+    <t>0xc000501300</t>
+  </si>
+  <si>
+    <t>0xc000506db8</t>
+  </si>
+  <si>
+    <t>0xc000506dd8</t>
   </si>
   <si>
     <t>08-22-19</t>
   </si>
   <si>
-    <t>0xc00039e870</t>
-  </si>
-  <si>
-    <t>0xc00039e860</t>
-  </si>
-  <si>
-    <t>0xc00039e880</t>
-  </si>
-  <si>
-    <t>0xc00039e890</t>
-  </si>
-  <si>
-    <t>0xc00039e8a0</t>
-  </si>
-  <si>
-    <t>0xc000025240</t>
-  </si>
-  <si>
-    <t>0xc000025250</t>
+    <t>0xc000501320</t>
+  </si>
+  <si>
+    <t>0xc000501310</t>
+  </si>
+  <si>
+    <t>0xc000501330</t>
+  </si>
+  <si>
+    <t>0xc000501340</t>
+  </si>
+  <si>
+    <t>0xc000501350</t>
+  </si>
+  <si>
+    <t>0xc000506e00</t>
+  </si>
+  <si>
+    <t>0xc000506e10</t>
   </si>
   <si>
     <t>08-22-20</t>
   </si>
   <si>
-    <t>0xc00039e8c0</t>
-  </si>
-  <si>
-    <t>0xc00039e8b0</t>
-  </si>
-  <si>
-    <t>0xc00039e8d0</t>
-  </si>
-  <si>
-    <t>0xc00039e8e0</t>
-  </si>
-  <si>
-    <t>0xc00039e8f0</t>
-  </si>
-  <si>
-    <t>0xc000025270</t>
-  </si>
-  <si>
-    <t>0xc000025280</t>
+    <t>0xc000501370</t>
+  </si>
+  <si>
+    <t>0xc000501360</t>
+  </si>
+  <si>
+    <t>0xc000501380</t>
+  </si>
+  <si>
+    <t>0xc000501390</t>
+  </si>
+  <si>
+    <t>0xc0005013a0</t>
+  </si>
+  <si>
+    <t>0xc000506e30</t>
+  </si>
+  <si>
+    <t>0xc000506e40</t>
   </si>
   <si>
     <t>08-22-21</t>
   </si>
   <si>
-    <t>0xc00039e910</t>
-  </si>
-  <si>
-    <t>0xc00039e900</t>
-  </si>
-  <si>
-    <t>0xc00039e920</t>
-  </si>
-  <si>
-    <t>0xc00039e930</t>
-  </si>
-  <si>
-    <t>0xc00039e940</t>
-  </si>
-  <si>
-    <t>0xc000025298</t>
-  </si>
-  <si>
-    <t>0xc0000252a8</t>
+    <t>0xc0005013c0</t>
+  </si>
+  <si>
+    <t>0xc0005013b0</t>
+  </si>
+  <si>
+    <t>0xc0005013d0</t>
+  </si>
+  <si>
+    <t>0xc0005013e0</t>
+  </si>
+  <si>
+    <t>0xc0005013f0</t>
+  </si>
+  <si>
+    <t>0xc000506e58</t>
+  </si>
+  <si>
+    <t>0xc000506e68</t>
   </si>
   <si>
     <t>08-22-22</t>
   </si>
   <si>
-    <t>0xc00039e960</t>
-  </si>
-  <si>
-    <t>0xc00039e950</t>
-  </si>
-  <si>
-    <t>0xc00039e970</t>
-  </si>
-  <si>
-    <t>0xc00039e980</t>
-  </si>
-  <si>
-    <t>0xc00039e990</t>
-  </si>
-  <si>
-    <t>0xc0000252d0</t>
-  </si>
-  <si>
-    <t>0xc0000252e0</t>
+    <t>0xc000501410</t>
+  </si>
+  <si>
+    <t>0xc000501400</t>
+  </si>
+  <si>
+    <t>0xc000501420</t>
+  </si>
+  <si>
+    <t>0xc000501430</t>
+  </si>
+  <si>
+    <t>0xc000501440</t>
+  </si>
+  <si>
+    <t>0xc000506e90</t>
+  </si>
+  <si>
+    <t>0xc000506ea0</t>
   </si>
   <si>
     <t>09-22-02</t>
   </si>
   <si>
-    <t>0xc00039e9b0</t>
-  </si>
-  <si>
-    <t>0xc00039e9a0</t>
-  </si>
-  <si>
-    <t>0xc00039e9c0</t>
-  </si>
-  <si>
-    <t>0xc00039e9d0</t>
-  </si>
-  <si>
-    <t>0xc00039e9e0</t>
-  </si>
-  <si>
-    <t>0xc000025310</t>
-  </si>
-  <si>
-    <t>0xc000025320</t>
+    <t>0xc000501460</t>
+  </si>
+  <si>
+    <t>0xc000501450</t>
+  </si>
+  <si>
+    <t>0xc000501470</t>
+  </si>
+  <si>
+    <t>0xc000501480</t>
+  </si>
+  <si>
+    <t>0xc000501490</t>
+  </si>
+  <si>
+    <t>0xc000506ed0</t>
+  </si>
+  <si>
+    <t>0xc000506ee0</t>
   </si>
   <si>
     <t>10-22-01</t>
   </si>
   <si>
-    <t>0xc00039ea10</t>
-  </si>
-  <si>
-    <t>0xc00039ea00</t>
-  </si>
-  <si>
-    <t>0xc00039ea20</t>
-  </si>
-  <si>
-    <t>0xc00039ea30</t>
-  </si>
-  <si>
-    <t>0xc00039ea40</t>
-  </si>
-  <si>
-    <t>0xc000025340</t>
-  </si>
-  <si>
-    <t>0xc000025350</t>
+    <t>0xc0005014b0</t>
+  </si>
+  <si>
+    <t>0xc0005014a0</t>
+  </si>
+  <si>
+    <t>0xc0005014c0</t>
+  </si>
+  <si>
+    <t>0xc0005014d0</t>
+  </si>
+  <si>
+    <t>0xc0005014e0</t>
+  </si>
+  <si>
+    <t>0xc000506f00</t>
+  </si>
+  <si>
+    <t>0xc000506f10</t>
   </si>
   <si>
     <t>10-22-02</t>
   </si>
   <si>
-    <t>0xc00039ea80</t>
-  </si>
-  <si>
-    <t>0xc00039ea60</t>
-  </si>
-  <si>
-    <t>0xc00039eaa0</t>
-  </si>
-  <si>
-    <t>0xc00039eac0</t>
-  </si>
-  <si>
-    <t>0xc00039ead0</t>
-  </si>
-  <si>
-    <t>0xc000025370</t>
-  </si>
-  <si>
-    <t>0xc000025380</t>
+    <t>0xc000501500</t>
+  </si>
+  <si>
+    <t>0xc0005014f0</t>
+  </si>
+  <si>
+    <t>0xc000501510</t>
+  </si>
+  <si>
+    <t>0xc000501520</t>
+  </si>
+  <si>
+    <t>0xc000501530</t>
+  </si>
+  <si>
+    <t>0xc000506f30</t>
+  </si>
+  <si>
+    <t>0xc000506f40</t>
   </si>
   <si>
     <t>10-22-03</t>
   </si>
   <si>
-    <t>0xc00039eb00</t>
-  </si>
-  <si>
-    <t>0xc00039eaf0</t>
-  </si>
-  <si>
-    <t>0xc00039eb10</t>
-  </si>
-  <si>
-    <t>0xc00039eb20</t>
-  </si>
-  <si>
-    <t>0xc00039eb30</t>
-  </si>
-  <si>
-    <t>0xc0000253b8</t>
-  </si>
-  <si>
-    <t>0xc0000253f8</t>
+    <t>0xc000501550</t>
+  </si>
+  <si>
+    <t>0xc000501540</t>
+  </si>
+  <si>
+    <t>0xc000501560</t>
+  </si>
+  <si>
+    <t>0xc000501570</t>
+  </si>
+  <si>
+    <t>0xc000501580</t>
+  </si>
+  <si>
+    <t>0xc000506f58</t>
+  </si>
+  <si>
+    <t>0xc000506f78</t>
   </si>
   <si>
     <t>10-22-04</t>
   </si>
   <si>
-    <t>0xc00039eb50</t>
-  </si>
-  <si>
-    <t>0xc00039eb40</t>
-  </si>
-  <si>
-    <t>0xc00039eb60</t>
-  </si>
-  <si>
-    <t>0xc00039eb70</t>
-  </si>
-  <si>
-    <t>0xc00039eb80</t>
-  </si>
-  <si>
-    <t>0xc000025410</t>
-  </si>
-  <si>
-    <t>0xc000025420</t>
+    <t>0xc0005015a0</t>
+  </si>
+  <si>
+    <t>0xc000501590</t>
+  </si>
+  <si>
+    <t>0xc0005015b0</t>
+  </si>
+  <si>
+    <t>0xc0005015c0</t>
+  </si>
+  <si>
+    <t>0xc0005015d0</t>
+  </si>
+  <si>
+    <t>0xc000506f90</t>
+  </si>
+  <si>
+    <t>0xc000506fa0</t>
   </si>
   <si>
     <t>10-22-05</t>
   </si>
   <si>
-    <t>0xc00039eba0</t>
-  </si>
-  <si>
-    <t>0xc00039eb90</t>
-  </si>
-  <si>
-    <t>0xc00039ebb0</t>
-  </si>
-  <si>
-    <t>0xc00039ebc0</t>
-  </si>
-  <si>
-    <t>0xc00039ebd0</t>
-  </si>
-  <si>
-    <t>0xc000025440</t>
-  </si>
-  <si>
-    <t>0xc000025450</t>
+    <t>0xc0005015f0</t>
+  </si>
+  <si>
+    <t>0xc0005015e0</t>
+  </si>
+  <si>
+    <t>0xc000501600</t>
+  </si>
+  <si>
+    <t>0xc000501610</t>
+  </si>
+  <si>
+    <t>0xc000501620</t>
+  </si>
+  <si>
+    <t>0xc000506fc0</t>
+  </si>
+  <si>
+    <t>0xc000506fd0</t>
   </si>
   <si>
     <t>10-22-06</t>
   </si>
   <si>
-    <t>0xc00039ebf0</t>
-  </si>
-  <si>
-    <t>0xc00039ebe0</t>
-  </si>
-  <si>
-    <t>0xc00039ec00</t>
-  </si>
-  <si>
-    <t>0xc00039ec10</t>
-  </si>
-  <si>
-    <t>0xc00039ec20</t>
-  </si>
-  <si>
-    <t>0xc000025470</t>
-  </si>
-  <si>
-    <t>0xc000025480</t>
+    <t>0xc000501640</t>
+  </si>
+  <si>
+    <t>0xc000501630</t>
+  </si>
+  <si>
+    <t>0xc000501650</t>
+  </si>
+  <si>
+    <t>0xc000501660</t>
+  </si>
+  <si>
+    <t>0xc000501670</t>
+  </si>
+  <si>
+    <t>0xc000506ff0</t>
+  </si>
+  <si>
+    <t>0xc000507000</t>
   </si>
   <si>
     <t>10-22-07</t>
   </si>
   <si>
-    <t>0xc00039ec40</t>
-  </si>
-  <si>
-    <t>0xc00039ec30</t>
-  </si>
-  <si>
-    <t>0xc00039ec50</t>
-  </si>
-  <si>
-    <t>0xc00039ec60</t>
-  </si>
-  <si>
-    <t>0xc00039ec70</t>
-  </si>
-  <si>
-    <t>0xc0000254b0</t>
-  </si>
-  <si>
-    <t>0xc0000254d0</t>
+    <t>0xc000501690</t>
+  </si>
+  <si>
+    <t>0xc000501680</t>
+  </si>
+  <si>
+    <t>0xc0005016a0</t>
+  </si>
+  <si>
+    <t>0xc0005016b0</t>
+  </si>
+  <si>
+    <t>0xc0005016c0</t>
+  </si>
+  <si>
+    <t>0xc000507020</t>
+  </si>
+  <si>
+    <t>0xc000507030</t>
   </si>
   <si>
     <t>10-22-08</t>
   </si>
   <si>
-    <t>0xc00039eca0</t>
-  </si>
-  <si>
-    <t>0xc00039ec90</t>
-  </si>
-  <si>
-    <t>0xc00039ecb0</t>
-  </si>
-  <si>
-    <t>0xc00039ecd0</t>
-  </si>
-  <si>
-    <t>0xc00039ecf0</t>
-  </si>
-  <si>
-    <t>0xc000025500</t>
-  </si>
-  <si>
-    <t>0xc000025510</t>
+    <t>0xc0005016e0</t>
+  </si>
+  <si>
+    <t>0xc0005016d0</t>
+  </si>
+  <si>
+    <t>0xc0005016f0</t>
+  </si>
+  <si>
+    <t>0xc000501700</t>
+  </si>
+  <si>
+    <t>0xc000501710</t>
+  </si>
+  <si>
+    <t>0xc000507050</t>
+  </si>
+  <si>
+    <t>0xc000507060</t>
   </si>
   <si>
     <t>10-22-09</t>
   </si>
   <si>
-    <t>0xc00039ed10</t>
-  </si>
-  <si>
-    <t>0xc00039ed00</t>
-  </si>
-  <si>
-    <t>0xc00039ed20</t>
-  </si>
-  <si>
-    <t>0xc00039ed30</t>
-  </si>
-  <si>
-    <t>0xc00039ed40</t>
-  </si>
-  <si>
-    <t>0xc000025570</t>
-  </si>
-  <si>
-    <t>0xc0000255a0</t>
+    <t>0xc000501730</t>
+  </si>
+  <si>
+    <t>0xc000501720</t>
+  </si>
+  <si>
+    <t>0xc000501740</t>
+  </si>
+  <si>
+    <t>0xc000501750</t>
+  </si>
+  <si>
+    <t>0xc000501760</t>
+  </si>
+  <si>
+    <t>0xc000507080</t>
+  </si>
+  <si>
+    <t>0xc000507090</t>
   </si>
   <si>
     <t>10-22-10</t>
   </si>
   <si>
-    <t>0xc00039ed60</t>
-  </si>
-  <si>
-    <t>0xc00039ed50</t>
-  </si>
-  <si>
-    <t>0xc00039ed70</t>
-  </si>
-  <si>
-    <t>0xc00039ed80</t>
-  </si>
-  <si>
-    <t>0xc00039ed90</t>
-  </si>
-  <si>
-    <t>0xc0000255b8</t>
-  </si>
-  <si>
-    <t>0xc0000255e8</t>
+    <t>0xc000501780</t>
+  </si>
+  <si>
+    <t>0xc000501770</t>
+  </si>
+  <si>
+    <t>0xc000501790</t>
+  </si>
+  <si>
+    <t>0xc0005017a0</t>
+  </si>
+  <si>
+    <t>0xc0005017b0</t>
+  </si>
+  <si>
+    <t>0xc0005070a8</t>
+  </si>
+  <si>
+    <t>0xc0005070c8</t>
   </si>
   <si>
     <t>10-22-11</t>
   </si>
   <si>
-    <t>0xc00039edb0</t>
-  </si>
-  <si>
-    <t>0xc00039eda0</t>
-  </si>
-  <si>
-    <t>0xc00039edc0</t>
-  </si>
-  <si>
-    <t>0xc00039edd0</t>
-  </si>
-  <si>
-    <t>0xc00039ede0</t>
-  </si>
-  <si>
-    <t>0xc000025630</t>
-  </si>
-  <si>
-    <t>0xc000025640</t>
+    <t>0xc0005017d0</t>
+  </si>
+  <si>
+    <t>0xc0005017c0</t>
+  </si>
+  <si>
+    <t>0xc0005017e0</t>
+  </si>
+  <si>
+    <t>0xc0005017f0</t>
+  </si>
+  <si>
+    <t>0xc000501800</t>
+  </si>
+  <si>
+    <t>0xc0005070f0</t>
+  </si>
+  <si>
+    <t>0xc000507100</t>
   </si>
   <si>
     <t>10-22-12</t>
   </si>
   <si>
-    <t>0xc00039ee00</t>
-  </si>
-  <si>
-    <t>0xc00039edf0</t>
-  </si>
-  <si>
-    <t>0xc00039ee10</t>
-  </si>
-  <si>
-    <t>0xc00039ee20</t>
-  </si>
-  <si>
-    <t>0xc00039ee30</t>
-  </si>
-  <si>
-    <t>0xc000025670</t>
-  </si>
-  <si>
-    <t>0xc000025690</t>
+    <t>0xc000501820</t>
+  </si>
+  <si>
+    <t>0xc000501810</t>
+  </si>
+  <si>
+    <t>0xc000501830</t>
+  </si>
+  <si>
+    <t>0xc000501840</t>
+  </si>
+  <si>
+    <t>0xc000501850</t>
+  </si>
+  <si>
+    <t>0xc000507120</t>
+  </si>
+  <si>
+    <t>0xc000507150</t>
   </si>
   <si>
     <t>10-22-13</t>
   </si>
   <si>
-    <t>0xc00039ee50</t>
-  </si>
-  <si>
-    <t>0xc00039ee40</t>
-  </si>
-  <si>
-    <t>0xc00039ee60</t>
-  </si>
-  <si>
-    <t>0xc00039ee70</t>
-  </si>
-  <si>
-    <t>0xc00039ee80</t>
-  </si>
-  <si>
-    <t>0xc0000256a8</t>
-  </si>
-  <si>
-    <t>0xc0000256b8</t>
+    <t>0xc000501870</t>
+  </si>
+  <si>
+    <t>0xc000501860</t>
+  </si>
+  <si>
+    <t>0xc000501880</t>
+  </si>
+  <si>
+    <t>0xc000501890</t>
+  </si>
+  <si>
+    <t>0xc0005018a0</t>
+  </si>
+  <si>
+    <t>0xc000507188</t>
+  </si>
+  <si>
+    <t>0xc000507198</t>
   </si>
   <si>
     <t>10-22-14</t>
   </si>
   <si>
-    <t>0xc00039eea0</t>
-  </si>
-  <si>
-    <t>0xc00039ee90</t>
-  </si>
-  <si>
-    <t>0xc00039eec0</t>
-  </si>
-  <si>
-    <t>0xc00039eee0</t>
-  </si>
-  <si>
-    <t>0xc00039eef0</t>
-  </si>
-  <si>
-    <t>0xc0000256e0</t>
-  </si>
-  <si>
-    <t>0xc0000256f0</t>
+    <t>0xc0005018c0</t>
+  </si>
+  <si>
+    <t>0xc0005018b0</t>
+  </si>
+  <si>
+    <t>0xc0005018d0</t>
+  </si>
+  <si>
+    <t>0xc0005018e0</t>
+  </si>
+  <si>
+    <t>0xc0005018f0</t>
+  </si>
+  <si>
+    <t>0xc0005071c0</t>
+  </si>
+  <si>
+    <t>0xc0005071d0</t>
   </si>
   <si>
     <t>10-22-15</t>
   </si>
   <si>
-    <t>0xc00039ef10</t>
-  </si>
-  <si>
-    <t>0xc00039ef00</t>
-  </si>
-  <si>
-    <t>0xc00039ef20</t>
-  </si>
-  <si>
-    <t>0xc00039ef40</t>
-  </si>
-  <si>
-    <t>0xc00039ef60</t>
-  </si>
-  <si>
-    <t>0xc000025710</t>
-  </si>
-  <si>
-    <t>0xc000025720</t>
+    <t>0xc000501910</t>
+  </si>
+  <si>
+    <t>0xc000501900</t>
+  </si>
+  <si>
+    <t>0xc000501920</t>
+  </si>
+  <si>
+    <t>0xc000501930</t>
+  </si>
+  <si>
+    <t>0xc000501940</t>
+  </si>
+  <si>
+    <t>0xc0005071f0</t>
+  </si>
+  <si>
+    <t>0xc000507200</t>
   </si>
   <si>
     <t>10-22-16</t>
   </si>
   <si>
-    <t>0xc00039ef90</t>
-  </si>
-  <si>
-    <t>0xc00039ef70</t>
-  </si>
-  <si>
-    <t>0xc00039efa0</t>
-  </si>
-  <si>
-    <t>0xc00039efb0</t>
-  </si>
-  <si>
-    <t>0xc00039efe0</t>
-  </si>
-  <si>
-    <t>0xc000025740</t>
-  </si>
-  <si>
-    <t>0xc000025750</t>
+    <t>0xc000501960</t>
+  </si>
+  <si>
+    <t>0xc000501950</t>
+  </si>
+  <si>
+    <t>0xc000501970</t>
+  </si>
+  <si>
+    <t>0xc000501980</t>
+  </si>
+  <si>
+    <t>0xc000501990</t>
+  </si>
+  <si>
+    <t>0xc000507220</t>
+  </si>
+  <si>
+    <t>0xc000507230</t>
   </si>
   <si>
     <t>10-22-17</t>
   </si>
   <si>
-    <t>0xc00039f000</t>
-  </si>
-  <si>
-    <t>0xc00039eff0</t>
-  </si>
-  <si>
-    <t>0xc00039f010</t>
-  </si>
-  <si>
-    <t>0xc00039f020</t>
-  </si>
-  <si>
-    <t>0xc00039f040</t>
-  </si>
-  <si>
-    <t>0xc000025770</t>
-  </si>
-  <si>
-    <t>0xc000025780</t>
+    <t>0xc0005019b0</t>
+  </si>
+  <si>
+    <t>0xc0005019a0</t>
+  </si>
+  <si>
+    <t>0xc0005019c0</t>
+  </si>
+  <si>
+    <t>0xc0005019d0</t>
+  </si>
+  <si>
+    <t>0xc0005019e0</t>
+  </si>
+  <si>
+    <t>0xc000507250</t>
+  </si>
+  <si>
+    <t>0xc000507260</t>
   </si>
   <si>
     <t>10-22-18</t>
   </si>
   <si>
-    <t>0xc00039f060</t>
-  </si>
-  <si>
-    <t>0xc00039f050</t>
-  </si>
-  <si>
-    <t>0xc00039f070</t>
-  </si>
-  <si>
-    <t>0xc00039f080</t>
-  </si>
-  <si>
-    <t>0xc00039f0a0</t>
-  </si>
-  <si>
-    <t>0xc000025798</t>
-  </si>
-  <si>
-    <t>0xc0000257a8</t>
+    <t>0xc000501a00</t>
+  </si>
+  <si>
+    <t>0xc0005019f0</t>
+  </si>
+  <si>
+    <t>0xc000501a10</t>
+  </si>
+  <si>
+    <t>0xc000501a20</t>
+  </si>
+  <si>
+    <t>0xc000501a30</t>
+  </si>
+  <si>
+    <t>0xc000507278</t>
+  </si>
+  <si>
+    <t>0xc000507288</t>
   </si>
   <si>
     <t>123456</t>
@@ -1954,484 +1954,484 @@
     <t>&lt;nil&gt;</t>
   </si>
   <si>
-    <t>0xc00039f0b0</t>
-  </si>
-  <si>
-    <t>0xc00039f0c0</t>
-  </si>
-  <si>
-    <t>0xc00039f0d0</t>
-  </si>
-  <si>
-    <t>0xc00039f0e0</t>
-  </si>
-  <si>
-    <t>0xc0000257b8</t>
-  </si>
-  <si>
-    <t>0xc0000257c8</t>
+    <t>0xc000501a40</t>
+  </si>
+  <si>
+    <t>0xc000501a50</t>
+  </si>
+  <si>
+    <t>0xc000501a60</t>
+  </si>
+  <si>
+    <t>0xc000501a70</t>
+  </si>
+  <si>
+    <t>0xc000507298</t>
+  </si>
+  <si>
+    <t>0xc0005072a8</t>
   </si>
   <si>
     <t>CAP-112</t>
   </si>
   <si>
-    <t>0xc00039f100</t>
+    <t>0xc000501a90</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>0xc00039f0f0</t>
-  </si>
-  <si>
-    <t>0xc00039f110</t>
-  </si>
-  <si>
-    <t>0xc00039f130</t>
-  </si>
-  <si>
-    <t>0xc00039f150</t>
-  </si>
-  <si>
-    <t>0xc0000257d8</t>
-  </si>
-  <si>
-    <t>0xc0000257e8</t>
+    <t>0xc000501a80</t>
+  </si>
+  <si>
+    <t>0xc000501aa0</t>
+  </si>
+  <si>
+    <t>0xc000501ab0</t>
+  </si>
+  <si>
+    <t>0xc000501ac0</t>
+  </si>
+  <si>
+    <t>0xc0005072b8</t>
+  </si>
+  <si>
+    <t>0xc0005072c8</t>
   </si>
   <si>
     <t>CAP-144</t>
   </si>
   <si>
-    <t>0xc00039f170</t>
+    <t>0xc000501ae0</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>0xc00039f160</t>
-  </si>
-  <si>
-    <t>0xc00039f180</t>
-  </si>
-  <si>
-    <t>0xc00039f190</t>
-  </si>
-  <si>
-    <t>0xc00039f1a0</t>
-  </si>
-  <si>
-    <t>0xc0000257f8</t>
-  </si>
-  <si>
-    <t>0xc000025818</t>
+    <t>0xc000501ad0</t>
+  </si>
+  <si>
+    <t>0xc000501af0</t>
+  </si>
+  <si>
+    <t>0xc000501b00</t>
+  </si>
+  <si>
+    <t>0xc000501b10</t>
+  </si>
+  <si>
+    <t>0xc0005072d8</t>
+  </si>
+  <si>
+    <t>0xc0005072f8</t>
   </si>
   <si>
     <t>CAP-198</t>
   </si>
   <si>
-    <t>0xc00039f1c0</t>
-  </si>
-  <si>
-    <t>0xc00039f1b0</t>
-  </si>
-  <si>
-    <t>0xc00039f1e0</t>
-  </si>
-  <si>
-    <t>0xc00039f1f0</t>
-  </si>
-  <si>
-    <t>0xc00039f200</t>
-  </si>
-  <si>
-    <t>0xc000025828</t>
-  </si>
-  <si>
-    <t>0xc000025848</t>
+    <t>0xc000501b30</t>
+  </si>
+  <si>
+    <t>0xc000501b20</t>
+  </si>
+  <si>
+    <t>0xc000501b40</t>
+  </si>
+  <si>
+    <t>0xc000501b50</t>
+  </si>
+  <si>
+    <t>0xc000501b60</t>
+  </si>
+  <si>
+    <t>0xc000507308</t>
+  </si>
+  <si>
+    <t>0xc000507328</t>
   </si>
   <si>
     <t>CAP-205</t>
   </si>
   <si>
-    <t>0xc00039f230</t>
-  </si>
-  <si>
-    <t>0xc00039f220</t>
-  </si>
-  <si>
-    <t>0xc00039f260</t>
-  </si>
-  <si>
-    <t>0xc00039f270</t>
-  </si>
-  <si>
-    <t>0xc00039f280</t>
-  </si>
-  <si>
-    <t>0xc000025858</t>
-  </si>
-  <si>
-    <t>0xc000025878</t>
+    <t>0xc000501b80</t>
+  </si>
+  <si>
+    <t>0xc000501b70</t>
+  </si>
+  <si>
+    <t>0xc000501b90</t>
+  </si>
+  <si>
+    <t>0xc000501ba0</t>
+  </si>
+  <si>
+    <t>0xc000501bb0</t>
+  </si>
+  <si>
+    <t>0xc000507338</t>
+  </si>
+  <si>
+    <t>0xc000507358</t>
   </si>
   <si>
     <t>CAP-225</t>
   </si>
   <si>
-    <t>0xc00039f2a0</t>
-  </si>
-  <si>
-    <t>0xc00039f290</t>
-  </si>
-  <si>
-    <t>0xc00039f2b0</t>
-  </si>
-  <si>
-    <t>0xc00039f2c0</t>
-  </si>
-  <si>
-    <t>0xc00039f2d0</t>
-  </si>
-  <si>
-    <t>0xc000025888</t>
-  </si>
-  <si>
-    <t>0xc000025898</t>
+    <t>0xc000501bd0</t>
+  </si>
+  <si>
+    <t>0xc000501bc0</t>
+  </si>
+  <si>
+    <t>0xc000501be0</t>
+  </si>
+  <si>
+    <t>0xc000501bf0</t>
+  </si>
+  <si>
+    <t>0xc000501c00</t>
+  </si>
+  <si>
+    <t>0xc000507368</t>
+  </si>
+  <si>
+    <t>0xc000507378</t>
   </si>
   <si>
     <t>CAP-230</t>
   </si>
   <si>
-    <t>0xc00039f2f0</t>
-  </si>
-  <si>
-    <t>0xc00039f2e0</t>
-  </si>
-  <si>
-    <t>0xc00039f300</t>
-  </si>
-  <si>
-    <t>0xc00039f310</t>
-  </si>
-  <si>
-    <t>0xc00039f320</t>
-  </si>
-  <si>
-    <t>0xc0000258a8</t>
-  </si>
-  <si>
-    <t>0xc0000258d8</t>
+    <t>0xc000501c20</t>
+  </si>
+  <si>
+    <t>0xc000501c10</t>
+  </si>
+  <si>
+    <t>0xc000501c30</t>
+  </si>
+  <si>
+    <t>0xc000501c40</t>
+  </si>
+  <si>
+    <t>0xc000501c50</t>
+  </si>
+  <si>
+    <t>0xc000507388</t>
+  </si>
+  <si>
+    <t>0xc0005073a8</t>
   </si>
   <si>
     <t>CAP-251</t>
   </si>
   <si>
-    <t>0xc00039f340</t>
-  </si>
-  <si>
-    <t>0xc00039f330</t>
-  </si>
-  <si>
-    <t>0xc00039f350</t>
-  </si>
-  <si>
-    <t>0xc00039f360</t>
-  </si>
-  <si>
-    <t>0xc00039f380</t>
-  </si>
-  <si>
-    <t>0xc0000258f8</t>
-  </si>
-  <si>
-    <t>0xc000025928</t>
+    <t>0xc000501c70</t>
+  </si>
+  <si>
+    <t>0xc000501c60</t>
+  </si>
+  <si>
+    <t>0xc000501c80</t>
+  </si>
+  <si>
+    <t>0xc000501c90</t>
+  </si>
+  <si>
+    <t>0xc000501ca0</t>
+  </si>
+  <si>
+    <t>0xc0005073b8</t>
+  </si>
+  <si>
+    <t>0xc0005073d8</t>
   </si>
   <si>
     <t>CAP-260</t>
   </si>
   <si>
-    <t>0xc00039f3b0</t>
-  </si>
-  <si>
-    <t>0xc00039f390</t>
-  </si>
-  <si>
-    <t>0xc00039f3c0</t>
-  </si>
-  <si>
-    <t>0xc00039f3d0</t>
-  </si>
-  <si>
-    <t>0xc00039f3e0</t>
-  </si>
-  <si>
-    <t>0xc000025938</t>
-  </si>
-  <si>
-    <t>0xc000025998</t>
+    <t>0xc000501cc0</t>
+  </si>
+  <si>
+    <t>0xc000501cb0</t>
+  </si>
+  <si>
+    <t>0xc000501cd0</t>
+  </si>
+  <si>
+    <t>0xc000501ce0</t>
+  </si>
+  <si>
+    <t>0xc000501cf0</t>
+  </si>
+  <si>
+    <t>0xc0005073e8</t>
+  </si>
+  <si>
+    <t>0xc000507408</t>
   </si>
   <si>
     <t>CAP-263</t>
   </si>
   <si>
-    <t>0xc00039f410</t>
-  </si>
-  <si>
-    <t>0xc00039f400</t>
-  </si>
-  <si>
-    <t>0xc00039f430</t>
-  </si>
-  <si>
-    <t>0xc00039f440</t>
-  </si>
-  <si>
-    <t>0xc00039f450</t>
-  </si>
-  <si>
-    <t>0xc0000259f0</t>
-  </si>
-  <si>
-    <t>0xc000025a00</t>
+    <t>0xc000501d10</t>
+  </si>
+  <si>
+    <t>0xc000501d00</t>
+  </si>
+  <si>
+    <t>0xc000501d20</t>
+  </si>
+  <si>
+    <t>0xc000501d30</t>
+  </si>
+  <si>
+    <t>0xc000501d40</t>
+  </si>
+  <si>
+    <t>0xc000507430</t>
+  </si>
+  <si>
+    <t>0xc000507440</t>
   </si>
   <si>
     <t>CAP-272</t>
   </si>
   <si>
-    <t>0xc00039f470</t>
-  </si>
-  <si>
-    <t>0xc00039f460</t>
-  </si>
-  <si>
-    <t>0xc00039f480</t>
-  </si>
-  <si>
-    <t>0xc00039f490</t>
-  </si>
-  <si>
-    <t>0xc00039f4b0</t>
-  </si>
-  <si>
-    <t>0xc000025a30</t>
-  </si>
-  <si>
-    <t>0xc000025a50</t>
+    <t>0xc000501d60</t>
+  </si>
+  <si>
+    <t>0xc000501d50</t>
+  </si>
+  <si>
+    <t>0xc000501d70</t>
+  </si>
+  <si>
+    <t>0xc000501d80</t>
+  </si>
+  <si>
+    <t>0xc000501d90</t>
+  </si>
+  <si>
+    <t>0xc000507460</t>
+  </si>
+  <si>
+    <t>0xc000507470</t>
   </si>
   <si>
     <t>CAP-312</t>
   </si>
   <si>
-    <t>0xc00039f4d0</t>
-  </si>
-  <si>
-    <t>0xc00039f4c0</t>
-  </si>
-  <si>
-    <t>0xc00039f4f0</t>
-  </si>
-  <si>
-    <t>0xc00039f500</t>
-  </si>
-  <si>
-    <t>0xc00039f510</t>
-  </si>
-  <si>
-    <t>0xc000025a88</t>
-  </si>
-  <si>
-    <t>0xc000025ab0</t>
+    <t>0xc000501db0</t>
+  </si>
+  <si>
+    <t>0xc000501da0</t>
+  </si>
+  <si>
+    <t>0xc000501dc0</t>
+  </si>
+  <si>
+    <t>0xc000501dd0</t>
+  </si>
+  <si>
+    <t>0xc000501de0</t>
+  </si>
+  <si>
+    <t>0xc000507498</t>
+  </si>
+  <si>
+    <t>0xc0005074b0</t>
   </si>
   <si>
     <t>CAP-313</t>
   </si>
   <si>
-    <t>0xc00039f530</t>
-  </si>
-  <si>
-    <t>0xc00039f520</t>
-  </si>
-  <si>
-    <t>0xc00039f550</t>
-  </si>
-  <si>
-    <t>0xc00039f560</t>
-  </si>
-  <si>
-    <t>0xc00039f570</t>
-  </si>
-  <si>
-    <t>0xc000025ac8</t>
-  </si>
-  <si>
-    <t>0xc000025af0</t>
+    <t>0xc000501e00</t>
+  </si>
+  <si>
+    <t>0xc000501df0</t>
+  </si>
+  <si>
+    <t>0xc000501e10</t>
+  </si>
+  <si>
+    <t>0xc000501e20</t>
+  </si>
+  <si>
+    <t>0xc000501e30</t>
+  </si>
+  <si>
+    <t>0xc0005074c8</t>
+  </si>
+  <si>
+    <t>0xc0005074e0</t>
   </si>
   <si>
     <t>CAP-314</t>
   </si>
   <si>
-    <t>0xc00039f5c0</t>
-  </si>
-  <si>
-    <t>0xc00039f5a0</t>
-  </si>
-  <si>
-    <t>0xc00039f5d0</t>
-  </si>
-  <si>
-    <t>0xc00039f5e0</t>
-  </si>
-  <si>
-    <t>0xc00039f5f0</t>
-  </si>
-  <si>
-    <t>0xc000025b18</t>
-  </si>
-  <si>
-    <t>0xc000025b40</t>
+    <t>0xc000501e50</t>
+  </si>
+  <si>
+    <t>0xc000501e40</t>
+  </si>
+  <si>
+    <t>0xc000501e60</t>
+  </si>
+  <si>
+    <t>0xc000501e70</t>
+  </si>
+  <si>
+    <t>0xc000501e80</t>
+  </si>
+  <si>
+    <t>0xc0005074f8</t>
+  </si>
+  <si>
+    <t>0xc000507510</t>
   </si>
   <si>
     <t>CAP-316</t>
   </si>
   <si>
-    <t>0xc00039f610</t>
-  </si>
-  <si>
-    <t>0xc00039f600</t>
-  </si>
-  <si>
-    <t>0xc00039f620</t>
-  </si>
-  <si>
-    <t>0xc00039f630</t>
-  </si>
-  <si>
-    <t>0xc00039f640</t>
-  </si>
-  <si>
-    <t>0xc000025b58</t>
-  </si>
-  <si>
-    <t>0xc000025bb0</t>
+    <t>0xc000501ea0</t>
+  </si>
+  <si>
+    <t>0xc000501e90</t>
+  </si>
+  <si>
+    <t>0xc000501eb0</t>
+  </si>
+  <si>
+    <t>0xc000501ec0</t>
+  </si>
+  <si>
+    <t>0xc000501ed0</t>
+  </si>
+  <si>
+    <t>0xc000507528</t>
+  </si>
+  <si>
+    <t>0xc000507540</t>
   </si>
   <si>
     <t>CAP-317</t>
   </si>
   <si>
-    <t>0xc00039f660</t>
-  </si>
-  <si>
-    <t>0xc00039f650</t>
-  </si>
-  <si>
-    <t>0xc00039f670</t>
-  </si>
-  <si>
-    <t>0xc00039f680</t>
-  </si>
-  <si>
-    <t>0xc00039f690</t>
-  </si>
-  <si>
-    <t>0xc000025be8</t>
-  </si>
-  <si>
-    <t>0xc000025c10</t>
+    <t>0xc000501ef0</t>
+  </si>
+  <si>
+    <t>0xc000501ee0</t>
+  </si>
+  <si>
+    <t>0xc000501f00</t>
+  </si>
+  <si>
+    <t>0xc000501f10</t>
+  </si>
+  <si>
+    <t>0xc000501f20</t>
+  </si>
+  <si>
+    <t>0xc000507558</t>
+  </si>
+  <si>
+    <t>0xc000507570</t>
   </si>
   <si>
     <t>CAP-320</t>
   </si>
   <si>
-    <t>0xc00039f6b0</t>
-  </si>
-  <si>
-    <t>0xc00039f6a0</t>
-  </si>
-  <si>
-    <t>0xc00039f6c0</t>
-  </si>
-  <si>
-    <t>0xc00039f6d0</t>
-  </si>
-  <si>
-    <t>0xc00039f6e0</t>
-  </si>
-  <si>
-    <t>0xc000025c40</t>
-  </si>
-  <si>
-    <t>0xc000025c50</t>
+    <t>0xc000501f40</t>
+  </si>
+  <si>
+    <t>0xc000501f30</t>
+  </si>
+  <si>
+    <t>0xc000501f50</t>
+  </si>
+  <si>
+    <t>0xc000501f60</t>
+  </si>
+  <si>
+    <t>0xc000501f70</t>
+  </si>
+  <si>
+    <t>0xc000507590</t>
+  </si>
+  <si>
+    <t>0xc0005075a0</t>
   </si>
   <si>
     <t>CAP-321</t>
   </si>
   <si>
-    <t>0xc00039f700</t>
-  </si>
-  <si>
-    <t>0xc00039f6f0</t>
-  </si>
-  <si>
-    <t>0xc00039f710</t>
-  </si>
-  <si>
-    <t>0xc00039f720</t>
-  </si>
-  <si>
-    <t>0xc00039f730</t>
-  </si>
-  <si>
-    <t>0xc000025c80</t>
-  </si>
-  <si>
-    <t>0xc000025ca0</t>
+    <t>0xc000501f90</t>
+  </si>
+  <si>
+    <t>0xc000501f80</t>
+  </si>
+  <si>
+    <t>0xc000501fa0</t>
+  </si>
+  <si>
+    <t>0xc000501fb0</t>
+  </si>
+  <si>
+    <t>0xc000501fc0</t>
+  </si>
+  <si>
+    <t>0xc0005075c0</t>
+  </si>
+  <si>
+    <t>0xc0005075d0</t>
   </si>
   <si>
     <t>CAP-322</t>
   </si>
   <si>
-    <t>0xc00039f750</t>
-  </si>
-  <si>
-    <t>0xc00039f740</t>
-  </si>
-  <si>
-    <t>0xc00039f760</t>
-  </si>
-  <si>
-    <t>0xc00039f770</t>
-  </si>
-  <si>
-    <t>0xc00039f780</t>
-  </si>
-  <si>
-    <t>0xc000025cd8</t>
-  </si>
-  <si>
-    <t>0xc000025ce8</t>
+    <t>0xc000501fe0</t>
+  </si>
+  <si>
+    <t>0xc000501fd0</t>
+  </si>
+  <si>
+    <t>0xc000501ff0</t>
+  </si>
+  <si>
+    <t>0xc00009c000</t>
+  </si>
+  <si>
+    <t>0xc00009c010</t>
+  </si>
+  <si>
+    <t>0xc0005075f8</t>
+  </si>
+  <si>
+    <t>0xc000507608</t>
   </si>
   <si>
     <t>CAP-323</t>
   </si>
   <si>
-    <t>0xc00039f7a0</t>
-  </si>
-  <si>
-    <t>0xc00039f790</t>
-  </si>
-  <si>
-    <t>0xc00039f7b0</t>
-  </si>
-  <si>
-    <t>0xc00039f7c0</t>
-  </si>
-  <si>
-    <t>0xc00039f7d0</t>
-  </si>
-  <si>
-    <t>0xc000025d10</t>
-  </si>
-  <si>
-    <t>0xc000025d28</t>
+    <t>0xc00009c030</t>
+  </si>
+  <si>
+    <t>0xc00009c020</t>
+  </si>
+  <si>
+    <t>0xc00009c040</t>
+  </si>
+  <si>
+    <t>0xc00009c050</t>
+  </si>
+  <si>
+    <t>0xc00009c060</t>
+  </si>
+  <si>
+    <t>0xc000507630</t>
+  </si>
+  <si>
+    <t>0xc000507648</t>
   </si>
 </sst>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -19,1933 +19,1933 @@
     <t>"09-22-01</t>
   </si>
   <si>
-    <t>0xc0005000c0</t>
+    <t>0xc0000ba5a0</t>
   </si>
   <si>
     <t>PW</t>
   </si>
   <si>
-    <t>0xc0005000b0</t>
-  </si>
-  <si>
-    <t>0xc0005000d0</t>
-  </si>
-  <si>
-    <t>0xc0005000e0</t>
-  </si>
-  <si>
-    <t>0xc0005000f0</t>
-  </si>
-  <si>
-    <t>0xc0005060e8</t>
+    <t>0xc0000ba590</t>
+  </si>
+  <si>
+    <t>0xc0000ba5b0</t>
+  </si>
+  <si>
+    <t>0xc0000ba5c0</t>
+  </si>
+  <si>
+    <t>0xc0000ba5d0</t>
+  </si>
+  <si>
+    <t>0xc00042e2d8</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>0xc0005060f8</t>
+    <t>0xc00042e2f8</t>
   </si>
   <si>
     <t>"09-22-03</t>
   </si>
   <si>
-    <t>0xc000500110</t>
-  </si>
-  <si>
-    <t>0xc000500100</t>
-  </si>
-  <si>
-    <t>0xc000500120</t>
-  </si>
-  <si>
-    <t>0xc000500130</t>
-  </si>
-  <si>
-    <t>0xc000500140</t>
-  </si>
-  <si>
-    <t>0xc000506130</t>
-  </si>
-  <si>
-    <t>0xc000506140</t>
+    <t>0xc0000ba600</t>
+  </si>
+  <si>
+    <t>0xc0000ba5f0</t>
+  </si>
+  <si>
+    <t>0xc0000ba610</t>
+  </si>
+  <si>
+    <t>0xc0000ba620</t>
+  </si>
+  <si>
+    <t>0xc0000ba630</t>
+  </si>
+  <si>
+    <t>0xc00042e340</t>
+  </si>
+  <si>
+    <t>0xc00042e350</t>
   </si>
   <si>
     <t>"09-22-04</t>
   </si>
   <si>
-    <t>0xc000500160</t>
-  </si>
-  <si>
-    <t>0xc000500150</t>
-  </si>
-  <si>
-    <t>0xc000500170</t>
-  </si>
-  <si>
-    <t>0xc000500180</t>
-  </si>
-  <si>
-    <t>0xc000500190</t>
-  </si>
-  <si>
-    <t>0xc000506178</t>
-  </si>
-  <si>
-    <t>0xc000506188</t>
+    <t>0xc0000ba660</t>
+  </si>
+  <si>
+    <t>0xc0000ba650</t>
+  </si>
+  <si>
+    <t>0xc0000ba670</t>
+  </si>
+  <si>
+    <t>0xc0000ba680</t>
+  </si>
+  <si>
+    <t>0xc0000ba690</t>
+  </si>
+  <si>
+    <t>0xc00042e3b8</t>
+  </si>
+  <si>
+    <t>0xc00042e3c8</t>
   </si>
   <si>
     <t>"09-22-05</t>
   </si>
   <si>
-    <t>0xc0005001b0</t>
-  </si>
-  <si>
-    <t>0xc0005001a0</t>
-  </si>
-  <si>
-    <t>0xc0005001c0</t>
-  </si>
-  <si>
-    <t>0xc0005001d0</t>
-  </si>
-  <si>
-    <t>0xc0005001e0</t>
-  </si>
-  <si>
-    <t>0xc0005061b8</t>
-  </si>
-  <si>
-    <t>0xc0005061c8</t>
+    <t>0xc0000ba6c0</t>
+  </si>
+  <si>
+    <t>0xc0000ba6b0</t>
+  </si>
+  <si>
+    <t>0xc0000ba6d0</t>
+  </si>
+  <si>
+    <t>0xc0000ba6e0</t>
+  </si>
+  <si>
+    <t>0xc0000ba6f0</t>
+  </si>
+  <si>
+    <t>0xc00042e3f8</t>
+  </si>
+  <si>
+    <t>0xc00042e408</t>
   </si>
   <si>
     <t>"09-22-06</t>
   </si>
   <si>
-    <t>0xc000500200</t>
-  </si>
-  <si>
-    <t>0xc0005001f0</t>
-  </si>
-  <si>
-    <t>0xc000500210</t>
-  </si>
-  <si>
-    <t>0xc000500220</t>
-  </si>
-  <si>
-    <t>0xc000500230</t>
-  </si>
-  <si>
-    <t>0xc000506200</t>
-  </si>
-  <si>
-    <t>0xc000506210</t>
+    <t>0xc0000ba730</t>
+  </si>
+  <si>
+    <t>0xc0000ba710</t>
+  </si>
+  <si>
+    <t>0xc0000ba740</t>
+  </si>
+  <si>
+    <t>0xc0000ba750</t>
+  </si>
+  <si>
+    <t>0xc0000ba760</t>
+  </si>
+  <si>
+    <t>0xc00042e440</t>
+  </si>
+  <si>
+    <t>0xc00042e450</t>
   </si>
   <si>
     <t>"09-22-07</t>
   </si>
   <si>
-    <t>0xc000500250</t>
-  </si>
-  <si>
-    <t>0xc000500240</t>
-  </si>
-  <si>
-    <t>0xc000500260</t>
-  </si>
-  <si>
-    <t>0xc000500270</t>
-  </si>
-  <si>
-    <t>0xc000500280</t>
-  </si>
-  <si>
-    <t>0xc000506240</t>
-  </si>
-  <si>
-    <t>0xc000506258</t>
+    <t>0xc0000ba7b0</t>
+  </si>
+  <si>
+    <t>0xc0000ba790</t>
+  </si>
+  <si>
+    <t>0xc0000ba7d0</t>
+  </si>
+  <si>
+    <t>0xc0000ba7f0</t>
+  </si>
+  <si>
+    <t>0xc0000ba800</t>
+  </si>
+  <si>
+    <t>0xc00042e480</t>
+  </si>
+  <si>
+    <t>0xc00042e498</t>
   </si>
   <si>
     <t>"09-22-08</t>
   </si>
   <si>
-    <t>0xc0005002a0</t>
-  </si>
-  <si>
-    <t>0xc000500290</t>
-  </si>
-  <si>
-    <t>0xc0005002b0</t>
-  </si>
-  <si>
-    <t>0xc0005002c0</t>
-  </si>
-  <si>
-    <t>0xc0005002d0</t>
-  </si>
-  <si>
-    <t>0xc000506280</t>
-  </si>
-  <si>
-    <t>0xc000506298</t>
+    <t>0xc0000ba840</t>
+  </si>
+  <si>
+    <t>0xc0000ba830</t>
+  </si>
+  <si>
+    <t>0xc0000ba850</t>
+  </si>
+  <si>
+    <t>0xc0000ba860</t>
+  </si>
+  <si>
+    <t>0xc0000ba870</t>
+  </si>
+  <si>
+    <t>0xc00042e4c0</t>
+  </si>
+  <si>
+    <t>0xc00042e4d8</t>
   </si>
   <si>
     <t>"09-22-09</t>
   </si>
   <si>
-    <t>0xc0005002f0</t>
-  </si>
-  <si>
-    <t>0xc0005002e0</t>
-  </si>
-  <si>
-    <t>0xc000500300</t>
-  </si>
-  <si>
-    <t>0xc000500310</t>
-  </si>
-  <si>
-    <t>0xc000500320</t>
-  </si>
-  <si>
-    <t>0xc0005062d8</t>
-  </si>
-  <si>
-    <t>0xc0005062f0</t>
+    <t>0xc0000ba8a0</t>
+  </si>
+  <si>
+    <t>0xc0000ba890</t>
+  </si>
+  <si>
+    <t>0xc0000ba8b0</t>
+  </si>
+  <si>
+    <t>0xc0000ba8c0</t>
+  </si>
+  <si>
+    <t>0xc0000ba8d0</t>
+  </si>
+  <si>
+    <t>0xc00042e518</t>
+  </si>
+  <si>
+    <t>0xc00042e530</t>
   </si>
   <si>
     <t>"09-22-10</t>
   </si>
   <si>
-    <t>0xc000500340</t>
-  </si>
-  <si>
-    <t>0xc000500330</t>
-  </si>
-  <si>
-    <t>0xc000500350</t>
-  </si>
-  <si>
-    <t>0xc000500360</t>
-  </si>
-  <si>
-    <t>0xc000500370</t>
-  </si>
-  <si>
-    <t>0xc000506330</t>
-  </si>
-  <si>
-    <t>0xc000506348</t>
+    <t>0xc0000ba900</t>
+  </si>
+  <si>
+    <t>0xc0000ba8f0</t>
+  </si>
+  <si>
+    <t>0xc0000ba910</t>
+  </si>
+  <si>
+    <t>0xc0000ba920</t>
+  </si>
+  <si>
+    <t>0xc0000ba930</t>
+  </si>
+  <si>
+    <t>0xc00042e570</t>
+  </si>
+  <si>
+    <t>0xc00042e588</t>
   </si>
   <si>
     <t>"09-22-11</t>
   </si>
   <si>
-    <t>0xc000500390</t>
-  </si>
-  <si>
-    <t>0xc000500380</t>
-  </si>
-  <si>
-    <t>0xc0005003a0</t>
-  </si>
-  <si>
-    <t>0xc0005003b0</t>
-  </si>
-  <si>
-    <t>0xc0005003c0</t>
-  </si>
-  <si>
-    <t>0xc000506380</t>
-  </si>
-  <si>
-    <t>0xc000506398</t>
+    <t>0xc0000ba960</t>
+  </si>
+  <si>
+    <t>0xc0000ba950</t>
+  </si>
+  <si>
+    <t>0xc0000ba970</t>
+  </si>
+  <si>
+    <t>0xc0000ba980</t>
+  </si>
+  <si>
+    <t>0xc0000ba990</t>
+  </si>
+  <si>
+    <t>0xc00042e5c0</t>
+  </si>
+  <si>
+    <t>0xc00042e5d8</t>
   </si>
   <si>
     <t>"09-22-12</t>
   </si>
   <si>
-    <t>0xc0005003e0</t>
-  </si>
-  <si>
-    <t>0xc0005003d0</t>
-  </si>
-  <si>
-    <t>0xc0005003f0</t>
-  </si>
-  <si>
-    <t>0xc000500400</t>
-  </si>
-  <si>
-    <t>0xc000500410</t>
-  </si>
-  <si>
-    <t>0xc0005063e0</t>
-  </si>
-  <si>
-    <t>0xc0005063f8</t>
+    <t>0xc0000ba9d0</t>
+  </si>
+  <si>
+    <t>0xc0000ba9c0</t>
+  </si>
+  <si>
+    <t>0xc0000ba9e0</t>
+  </si>
+  <si>
+    <t>0xc0000baa00</t>
+  </si>
+  <si>
+    <t>0xc0000baa20</t>
+  </si>
+  <si>
+    <t>0xc00042e670</t>
+  </si>
+  <si>
+    <t>0xc00042e698</t>
   </si>
   <si>
     <t>"09-22-13</t>
   </si>
   <si>
-    <t>0xc000500430</t>
-  </si>
-  <si>
-    <t>0xc000500420</t>
-  </si>
-  <si>
-    <t>0xc000500440</t>
-  </si>
-  <si>
-    <t>0xc000500450</t>
-  </si>
-  <si>
-    <t>0xc000500460</t>
-  </si>
-  <si>
-    <t>0xc000506430</t>
-  </si>
-  <si>
-    <t>0xc000506440</t>
+    <t>0xc0000baa50</t>
+  </si>
+  <si>
+    <t>0xc0000baa40</t>
+  </si>
+  <si>
+    <t>0xc0000baa60</t>
+  </si>
+  <si>
+    <t>0xc0000baa70</t>
+  </si>
+  <si>
+    <t>0xc0000baa80</t>
+  </si>
+  <si>
+    <t>0xc00042e6d0</t>
+  </si>
+  <si>
+    <t>0xc00042e6e0</t>
   </si>
   <si>
     <t>"09-22-14</t>
   </si>
   <si>
-    <t>0xc000500480</t>
-  </si>
-  <si>
-    <t>0xc000500470</t>
-  </si>
-  <si>
-    <t>0xc000500490</t>
-  </si>
-  <si>
-    <t>0xc0005004a0</t>
-  </si>
-  <si>
-    <t>0xc0005004b0</t>
-  </si>
-  <si>
-    <t>0xc000506490</t>
-  </si>
-  <si>
-    <t>0xc0005064a0</t>
+    <t>0xc0000baab0</t>
+  </si>
+  <si>
+    <t>0xc0000baaa0</t>
+  </si>
+  <si>
+    <t>0xc0000baac0</t>
+  </si>
+  <si>
+    <t>0xc0000baad0</t>
+  </si>
+  <si>
+    <t>0xc0000baae0</t>
+  </si>
+  <si>
+    <t>0xc00042e730</t>
+  </si>
+  <si>
+    <t>0xc00042e740</t>
   </si>
   <si>
     <t>"09-22-15</t>
   </si>
   <si>
-    <t>0xc0005004d0</t>
-  </si>
-  <si>
-    <t>0xc0005004c0</t>
-  </si>
-  <si>
-    <t>0xc0005004e0</t>
-  </si>
-  <si>
-    <t>0xc0005004f0</t>
-  </si>
-  <si>
-    <t>0xc000500500</t>
-  </si>
-  <si>
-    <t>0xc0005064d0</t>
-  </si>
-  <si>
-    <t>0xc0005064e8</t>
+    <t>0xc0000bab10</t>
+  </si>
+  <si>
+    <t>0xc0000bab00</t>
+  </si>
+  <si>
+    <t>0xc0000bab20</t>
+  </si>
+  <si>
+    <t>0xc0000bab30</t>
+  </si>
+  <si>
+    <t>0xc0000bab40</t>
+  </si>
+  <si>
+    <t>0xc00042e770</t>
+  </si>
+  <si>
+    <t>0xc00042e788</t>
   </si>
   <si>
     <t>"09-22-16</t>
   </si>
   <si>
-    <t>0xc000500520</t>
-  </si>
-  <si>
-    <t>0xc000500510</t>
-  </si>
-  <si>
-    <t>0xc000500530</t>
-  </si>
-  <si>
-    <t>0xc000500540</t>
-  </si>
-  <si>
-    <t>0xc000500550</t>
-  </si>
-  <si>
-    <t>0xc000506520</t>
-  </si>
-  <si>
-    <t>0xc000506530</t>
+    <t>0xc0000bab70</t>
+  </si>
+  <si>
+    <t>0xc0000bab60</t>
+  </si>
+  <si>
+    <t>0xc0000bab80</t>
+  </si>
+  <si>
+    <t>0xc0000bab90</t>
+  </si>
+  <si>
+    <t>0xc0000baba0</t>
+  </si>
+  <si>
+    <t>0xc00042e7c0</t>
+  </si>
+  <si>
+    <t>0xc00042e7d0</t>
   </si>
   <si>
     <t>"09-22-17</t>
   </si>
   <si>
-    <t>0xc000500570</t>
-  </si>
-  <si>
-    <t>0xc000500560</t>
-  </si>
-  <si>
-    <t>0xc000500580</t>
-  </si>
-  <si>
-    <t>0xc000500590</t>
-  </si>
-  <si>
-    <t>0xc0005005a0</t>
-  </si>
-  <si>
-    <t>0xc000506580</t>
-  </si>
-  <si>
-    <t>0xc000506598</t>
+    <t>0xc0000babd0</t>
+  </si>
+  <si>
+    <t>0xc0000babc0</t>
+  </si>
+  <si>
+    <t>0xc0000babf0</t>
+  </si>
+  <si>
+    <t>0xc0000bac10</t>
+  </si>
+  <si>
+    <t>0xc0000bac20</t>
+  </si>
+  <si>
+    <t>0xc00042e820</t>
+  </si>
+  <si>
+    <t>0xc00042e838</t>
   </si>
   <si>
     <t>"09-22-18</t>
   </si>
   <si>
-    <t>0xc0005005c0</t>
-  </si>
-  <si>
-    <t>0xc0005005b0</t>
-  </si>
-  <si>
-    <t>0xc0005005d0</t>
-  </si>
-  <si>
-    <t>0xc0005005e0</t>
-  </si>
-  <si>
-    <t>0xc0005005f0</t>
-  </si>
-  <si>
-    <t>0xc0005065d0</t>
-  </si>
-  <si>
-    <t>0xc0005065e0</t>
+    <t>0xc0000bac50</t>
+  </si>
+  <si>
+    <t>0xc0000bac40</t>
+  </si>
+  <si>
+    <t>0xc0000bac70</t>
+  </si>
+  <si>
+    <t>0xc0000bac90</t>
+  </si>
+  <si>
+    <t>0xc0000baca0</t>
+  </si>
+  <si>
+    <t>0xc00042e870</t>
+  </si>
+  <si>
+    <t>0xc00042e880</t>
   </si>
   <si>
     <t>"09-22-19</t>
   </si>
   <si>
-    <t>0xc000500610</t>
-  </si>
-  <si>
-    <t>0xc000500600</t>
-  </si>
-  <si>
-    <t>0xc000500620</t>
-  </si>
-  <si>
-    <t>0xc000500630</t>
-  </si>
-  <si>
-    <t>0xc000500640</t>
-  </si>
-  <si>
-    <t>0xc000506620</t>
-  </si>
-  <si>
-    <t>0xc000506630</t>
+    <t>0xc0000bace0</t>
+  </si>
+  <si>
+    <t>0xc0000bacd0</t>
+  </si>
+  <si>
+    <t>0xc0000bad10</t>
+  </si>
+  <si>
+    <t>0xc0000bad20</t>
+  </si>
+  <si>
+    <t>0xc0000bad30</t>
+  </si>
+  <si>
+    <t>0xc00042e8c0</t>
+  </si>
+  <si>
+    <t>0xc00042e8d0</t>
   </si>
   <si>
     <t>07-22-01</t>
   </si>
   <si>
-    <t>0xc000500660</t>
+    <t>0xc0000bad70</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>0xc000500650</t>
-  </si>
-  <si>
-    <t>0xc000500670</t>
-  </si>
-  <si>
-    <t>0xc000500680</t>
-  </si>
-  <si>
-    <t>0xc000500690</t>
-  </si>
-  <si>
-    <t>0xc000506650</t>
+    <t>0xc0000bad50</t>
+  </si>
+  <si>
+    <t>0xc0000bad80</t>
+  </si>
+  <si>
+    <t>0xc0000bad90</t>
+  </si>
+  <si>
+    <t>0xc0000bada0</t>
+  </si>
+  <si>
+    <t>0xc00042e8f0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0xc000506660</t>
+    <t>0xc00042e900</t>
   </si>
   <si>
     <t>07-22-02</t>
   </si>
   <si>
-    <t>0xc0005006b0</t>
-  </si>
-  <si>
-    <t>0xc0005006a0</t>
-  </si>
-  <si>
-    <t>0xc0005006c0</t>
-  </si>
-  <si>
-    <t>0xc0005006d0</t>
-  </si>
-  <si>
-    <t>0xc0005006e0</t>
-  </si>
-  <si>
-    <t>0xc000506670</t>
-  </si>
-  <si>
-    <t>0xc000506680</t>
+    <t>0xc0000bade0</t>
+  </si>
+  <si>
+    <t>0xc0000badd0</t>
+  </si>
+  <si>
+    <t>0xc0000badf0</t>
+  </si>
+  <si>
+    <t>0xc0000bae00</t>
+  </si>
+  <si>
+    <t>0xc0000bae10</t>
+  </si>
+  <si>
+    <t>0xc00042e910</t>
+  </si>
+  <si>
+    <t>0xc00042e920</t>
   </si>
   <si>
     <t>07-22-03</t>
   </si>
   <si>
-    <t>0xc000500700</t>
-  </si>
-  <si>
-    <t>0xc0005006f0</t>
-  </si>
-  <si>
-    <t>0xc000500710</t>
-  </si>
-  <si>
-    <t>0xc000500720</t>
-  </si>
-  <si>
-    <t>0xc000500730</t>
-  </si>
-  <si>
-    <t>0xc000506690</t>
-  </si>
-  <si>
-    <t>0xc0005066a0</t>
+    <t>0xc0000bae40</t>
+  </si>
+  <si>
+    <t>0xc0000bae30</t>
+  </si>
+  <si>
+    <t>0xc0000bae60</t>
+  </si>
+  <si>
+    <t>0xc0000bae80</t>
+  </si>
+  <si>
+    <t>0xc0000bae90</t>
+  </si>
+  <si>
+    <t>0xc00042e930</t>
+  </si>
+  <si>
+    <t>0xc00042e940</t>
   </si>
   <si>
     <t>07-22-04</t>
   </si>
   <si>
-    <t>0xc000500750</t>
-  </si>
-  <si>
-    <t>0xc000500740</t>
-  </si>
-  <si>
-    <t>0xc000500760</t>
-  </si>
-  <si>
-    <t>0xc000500770</t>
-  </si>
-  <si>
-    <t>0xc000500780</t>
-  </si>
-  <si>
-    <t>0xc0005066c0</t>
-  </si>
-  <si>
-    <t>0xc0005066d0</t>
+    <t>0xc0000baec0</t>
+  </si>
+  <si>
+    <t>0xc0000baeb0</t>
+  </si>
+  <si>
+    <t>0xc0000baed0</t>
+  </si>
+  <si>
+    <t>0xc0000baee0</t>
+  </si>
+  <si>
+    <t>0xc0000baef0</t>
+  </si>
+  <si>
+    <t>0xc00042e960</t>
+  </si>
+  <si>
+    <t>0xc00042e970</t>
   </si>
   <si>
     <t>07-22-05</t>
   </si>
   <si>
-    <t>0xc0005007a0</t>
-  </si>
-  <si>
-    <t>0xc000500790</t>
-  </si>
-  <si>
-    <t>0xc0005007b0</t>
-  </si>
-  <si>
-    <t>0xc0005007c0</t>
-  </si>
-  <si>
-    <t>0xc0005007d0</t>
-  </si>
-  <si>
-    <t>0xc0005066e0</t>
-  </si>
-  <si>
-    <t>0xc0005066f0</t>
+    <t>0xc0000baf30</t>
+  </si>
+  <si>
+    <t>0xc0000baf20</t>
+  </si>
+  <si>
+    <t>0xc0000baf50</t>
+  </si>
+  <si>
+    <t>0xc0000baf60</t>
+  </si>
+  <si>
+    <t>0xc0000baf90</t>
+  </si>
+  <si>
+    <t>0xc00042e980</t>
+  </si>
+  <si>
+    <t>0xc00042e990</t>
   </si>
   <si>
     <t>07-22-06</t>
   </si>
   <si>
-    <t>0xc0005007f0</t>
-  </si>
-  <si>
-    <t>0xc0005007e0</t>
-  </si>
-  <si>
-    <t>0xc000500800</t>
-  </si>
-  <si>
-    <t>0xc000500810</t>
-  </si>
-  <si>
-    <t>0xc000500820</t>
-  </si>
-  <si>
-    <t>0xc000506710</t>
-  </si>
-  <si>
-    <t>0xc000506720</t>
+    <t>0xc0000bb070</t>
+  </si>
+  <si>
+    <t>0xc0000bb060</t>
+  </si>
+  <si>
+    <t>0xc0000bb080</t>
+  </si>
+  <si>
+    <t>0xc0000bb090</t>
+  </si>
+  <si>
+    <t>0xc0000bb0b0</t>
+  </si>
+  <si>
+    <t>0xc00042e9b0</t>
+  </si>
+  <si>
+    <t>0xc00042e9c0</t>
   </si>
   <si>
     <t>07-22-07</t>
   </si>
   <si>
-    <t>0xc000500840</t>
-  </si>
-  <si>
-    <t>0xc000500830</t>
-  </si>
-  <si>
-    <t>0xc000500850</t>
-  </si>
-  <si>
-    <t>0xc000500860</t>
-  </si>
-  <si>
-    <t>0xc000500870</t>
-  </si>
-  <si>
-    <t>0xc000506740</t>
-  </si>
-  <si>
-    <t>0xc000506750</t>
+    <t>0xc0000bb0f0</t>
+  </si>
+  <si>
+    <t>0xc0000bb0e0</t>
+  </si>
+  <si>
+    <t>0xc0000bb100</t>
+  </si>
+  <si>
+    <t>0xc0000bb110</t>
+  </si>
+  <si>
+    <t>0xc0000bb130</t>
+  </si>
+  <si>
+    <t>0xc00042e9e0</t>
+  </si>
+  <si>
+    <t>0xc00042e9f0</t>
   </si>
   <si>
     <t>07-22-08</t>
   </si>
   <si>
-    <t>0xc000500890</t>
-  </si>
-  <si>
-    <t>0xc000500880</t>
-  </si>
-  <si>
-    <t>0xc0005008a0</t>
-  </si>
-  <si>
-    <t>0xc0005008b0</t>
-  </si>
-  <si>
-    <t>0xc0005008c0</t>
-  </si>
-  <si>
-    <t>0xc000506780</t>
-  </si>
-  <si>
-    <t>0xc000506790</t>
+    <t>0xc0000bb170</t>
+  </si>
+  <si>
+    <t>0xc0000bb160</t>
+  </si>
+  <si>
+    <t>0xc0000bb180</t>
+  </si>
+  <si>
+    <t>0xc0000bb190</t>
+  </si>
+  <si>
+    <t>0xc0000bb1a0</t>
+  </si>
+  <si>
+    <t>0xc00042ea20</t>
+  </si>
+  <si>
+    <t>0xc00042ea30</t>
   </si>
   <si>
     <t>07-22-09</t>
   </si>
   <si>
-    <t>0xc0005008e0</t>
-  </si>
-  <si>
-    <t>0xc0005008d0</t>
-  </si>
-  <si>
-    <t>0xc0005008f0</t>
-  </si>
-  <si>
-    <t>0xc000500900</t>
-  </si>
-  <si>
-    <t>0xc000500910</t>
-  </si>
-  <si>
-    <t>0xc0005067b0</t>
-  </si>
-  <si>
-    <t>0xc0005067c0</t>
+    <t>0xc0000bb1e0</t>
+  </si>
+  <si>
+    <t>0xc0000bb1c0</t>
+  </si>
+  <si>
+    <t>0xc0000bb1f0</t>
+  </si>
+  <si>
+    <t>0xc0000bb200</t>
+  </si>
+  <si>
+    <t>0xc0000bb220</t>
+  </si>
+  <si>
+    <t>0xc00042ea60</t>
+  </si>
+  <si>
+    <t>0xc00042ea70</t>
   </si>
   <si>
     <t>07-22-10</t>
   </si>
   <si>
-    <t>0xc000500930</t>
-  </si>
-  <si>
-    <t>0xc000500920</t>
-  </si>
-  <si>
-    <t>0xc000500940</t>
-  </si>
-  <si>
-    <t>0xc000500950</t>
-  </si>
-  <si>
-    <t>0xc000500960</t>
-  </si>
-  <si>
-    <t>0xc0005067f0</t>
-  </si>
-  <si>
-    <t>0xc000506800</t>
+    <t>0xc0000bb250</t>
+  </si>
+  <si>
+    <t>0xc0000bb240</t>
+  </si>
+  <si>
+    <t>0xc0000bb260</t>
+  </si>
+  <si>
+    <t>0xc0000bb280</t>
+  </si>
+  <si>
+    <t>0xc0000bb290</t>
+  </si>
+  <si>
+    <t>0xc00042eaa0</t>
+  </si>
+  <si>
+    <t>0xc00042eab0</t>
   </si>
   <si>
     <t>07-22-11</t>
   </si>
   <si>
-    <t>0xc000500980</t>
-  </si>
-  <si>
-    <t>0xc000500970</t>
-  </si>
-  <si>
-    <t>0xc000500990</t>
-  </si>
-  <si>
-    <t>0xc0005009a0</t>
-  </si>
-  <si>
-    <t>0xc0005009b0</t>
-  </si>
-  <si>
-    <t>0xc000506830</t>
-  </si>
-  <si>
-    <t>0xc000506840</t>
+    <t>0xc0000bb2f0</t>
+  </si>
+  <si>
+    <t>0xc0000bb2d0</t>
+  </si>
+  <si>
+    <t>0xc0000bb300</t>
+  </si>
+  <si>
+    <t>0xc0000bb310</t>
+  </si>
+  <si>
+    <t>0xc0000bb320</t>
+  </si>
+  <si>
+    <t>0xc00042eae0</t>
+  </si>
+  <si>
+    <t>0xc00042eaf0</t>
   </si>
   <si>
     <t>07-22-12</t>
   </si>
   <si>
-    <t>0xc0005009d0</t>
-  </si>
-  <si>
-    <t>0xc0005009c0</t>
-  </si>
-  <si>
-    <t>0xc0005009e0</t>
-  </si>
-  <si>
-    <t>0xc0005009f0</t>
-  </si>
-  <si>
-    <t>0xc000500a00</t>
-  </si>
-  <si>
-    <t>0xc000506870</t>
-  </si>
-  <si>
-    <t>0xc000506880</t>
+    <t>0xc0000bb350</t>
+  </si>
+  <si>
+    <t>0xc0000bb340</t>
+  </si>
+  <si>
+    <t>0xc0000bb360</t>
+  </si>
+  <si>
+    <t>0xc0000bb370</t>
+  </si>
+  <si>
+    <t>0xc0000bb380</t>
+  </si>
+  <si>
+    <t>0xc00042eb20</t>
+  </si>
+  <si>
+    <t>0xc00042eb30</t>
   </si>
   <si>
     <t>07-22-13</t>
   </si>
   <si>
-    <t>0xc000500a20</t>
-  </si>
-  <si>
-    <t>0xc000500a10</t>
-  </si>
-  <si>
-    <t>0xc000500a30</t>
-  </si>
-  <si>
-    <t>0xc000500a40</t>
-  </si>
-  <si>
-    <t>0xc000500a50</t>
-  </si>
-  <si>
-    <t>0xc0005068a0</t>
-  </si>
-  <si>
-    <t>0xc0005068b0</t>
+    <t>0xc0000bb3b0</t>
+  </si>
+  <si>
+    <t>0xc0000bb3a0</t>
+  </si>
+  <si>
+    <t>0xc0000bb3c0</t>
+  </si>
+  <si>
+    <t>0xc0000bb3d0</t>
+  </si>
+  <si>
+    <t>0xc0000bb3e0</t>
+  </si>
+  <si>
+    <t>0xc00042eb50</t>
+  </si>
+  <si>
+    <t>0xc00042eb60</t>
   </si>
   <si>
     <t>07-22-14</t>
   </si>
   <si>
-    <t>0xc000500a70</t>
-  </si>
-  <si>
-    <t>0xc000500a60</t>
-  </si>
-  <si>
-    <t>0xc000500a80</t>
-  </si>
-  <si>
-    <t>0xc000500a90</t>
-  </si>
-  <si>
-    <t>0xc000500aa0</t>
-  </si>
-  <si>
-    <t>0xc0005068e0</t>
-  </si>
-  <si>
-    <t>0xc0005068f0</t>
+    <t>0xc0000bb410</t>
+  </si>
+  <si>
+    <t>0xc0000bb400</t>
+  </si>
+  <si>
+    <t>0xc0000bb420</t>
+  </si>
+  <si>
+    <t>0xc0000bb430</t>
+  </si>
+  <si>
+    <t>0xc0000bb440</t>
+  </si>
+  <si>
+    <t>0xc00042eb90</t>
+  </si>
+  <si>
+    <t>0xc00042eba0</t>
   </si>
   <si>
     <t>07-22-15</t>
   </si>
   <si>
-    <t>0xc000500ac0</t>
-  </si>
-  <si>
-    <t>0xc000500ab0</t>
-  </si>
-  <si>
-    <t>0xc000500ad0</t>
-  </si>
-  <si>
-    <t>0xc000500ae0</t>
-  </si>
-  <si>
-    <t>0xc000500af0</t>
-  </si>
-  <si>
-    <t>0xc000506910</t>
-  </si>
-  <si>
-    <t>0xc000506920</t>
+    <t>0xc0000bb470</t>
+  </si>
+  <si>
+    <t>0xc0000bb460</t>
+  </si>
+  <si>
+    <t>0xc0000bb480</t>
+  </si>
+  <si>
+    <t>0xc0000bb490</t>
+  </si>
+  <si>
+    <t>0xc0000bb4a0</t>
+  </si>
+  <si>
+    <t>0xc00042ebc0</t>
+  </si>
+  <si>
+    <t>0xc00042ebd0</t>
   </si>
   <si>
     <t>07-22-16</t>
   </si>
   <si>
-    <t>0xc000500b10</t>
-  </si>
-  <si>
-    <t>0xc000500b00</t>
-  </si>
-  <si>
-    <t>0xc000500b20</t>
-  </si>
-  <si>
-    <t>0xc000500b30</t>
-  </si>
-  <si>
-    <t>0xc000500b40</t>
-  </si>
-  <si>
-    <t>0xc000506940</t>
-  </si>
-  <si>
-    <t>0xc000506950</t>
+    <t>0xc0000bb4d0</t>
+  </si>
+  <si>
+    <t>0xc0000bb4c0</t>
+  </si>
+  <si>
+    <t>0xc0000bb4e0</t>
+  </si>
+  <si>
+    <t>0xc0000bb4f0</t>
+  </si>
+  <si>
+    <t>0xc0000bb500</t>
+  </si>
+  <si>
+    <t>0xc00042ec00</t>
+  </si>
+  <si>
+    <t>0xc00042ec10</t>
   </si>
   <si>
     <t>07-22-17</t>
   </si>
   <si>
-    <t>0xc000500b60</t>
-  </si>
-  <si>
-    <t>0xc000500b50</t>
-  </si>
-  <si>
-    <t>0xc000500ba0</t>
-  </si>
-  <si>
-    <t>0xc000500c00</t>
-  </si>
-  <si>
-    <t>0xc000500c10</t>
-  </si>
-  <si>
-    <t>0xc000506980</t>
-  </si>
-  <si>
-    <t>0xc000506990</t>
+    <t>0xc0000bb530</t>
+  </si>
+  <si>
+    <t>0xc0000bb520</t>
+  </si>
+  <si>
+    <t>0xc0000bb540</t>
+  </si>
+  <si>
+    <t>0xc0000bb550</t>
+  </si>
+  <si>
+    <t>0xc0000bb560</t>
+  </si>
+  <si>
+    <t>0xc00042ec40</t>
+  </si>
+  <si>
+    <t>0xc00042ec50</t>
   </si>
   <si>
     <t>07-22-18</t>
   </si>
   <si>
-    <t>0xc000500c40</t>
-  </si>
-  <si>
-    <t>0xc000500c30</t>
-  </si>
-  <si>
-    <t>0xc000500c50</t>
-  </si>
-  <si>
-    <t>0xc000500c60</t>
-  </si>
-  <si>
-    <t>0xc000500c70</t>
-  </si>
-  <si>
-    <t>0xc0005069c0</t>
-  </si>
-  <si>
-    <t>0xc0005069d0</t>
+    <t>0xc0000bb590</t>
+  </si>
+  <si>
+    <t>0xc0000bb580</t>
+  </si>
+  <si>
+    <t>0xc0000bb5a0</t>
+  </si>
+  <si>
+    <t>0xc0000bb5b0</t>
+  </si>
+  <si>
+    <t>0xc0000bb5c0</t>
+  </si>
+  <si>
+    <t>0xc00042ec80</t>
+  </si>
+  <si>
+    <t>0xc00042ec90</t>
   </si>
   <si>
     <t>07-22-19</t>
   </si>
   <si>
-    <t>0xc000500c90</t>
-  </si>
-  <si>
-    <t>0xc000500c80</t>
-  </si>
-  <si>
-    <t>0xc000500ca0</t>
-  </si>
-  <si>
-    <t>0xc000500cb0</t>
-  </si>
-  <si>
-    <t>0xc000500cc0</t>
-  </si>
-  <si>
-    <t>0xc0005069f0</t>
-  </si>
-  <si>
-    <t>0xc000506a00</t>
+    <t>0xc0000bb5f0</t>
+  </si>
+  <si>
+    <t>0xc0000bb5e0</t>
+  </si>
+  <si>
+    <t>0xc0000bb610</t>
+  </si>
+  <si>
+    <t>0xc0000bb620</t>
+  </si>
+  <si>
+    <t>0xc0000bb630</t>
+  </si>
+  <si>
+    <t>0xc00042ecb0</t>
+  </si>
+  <si>
+    <t>0xc00042ecc0</t>
   </si>
   <si>
     <t>07-22-20</t>
   </si>
   <si>
-    <t>0xc000500ce0</t>
-  </si>
-  <si>
-    <t>0xc000500cd0</t>
-  </si>
-  <si>
-    <t>0xc000500cf0</t>
-  </si>
-  <si>
-    <t>0xc000500d00</t>
-  </si>
-  <si>
-    <t>0xc000500d10</t>
-  </si>
-  <si>
-    <t>0xc000506a30</t>
-  </si>
-  <si>
-    <t>0xc000506a40</t>
+    <t>0xc0000bb670</t>
+  </si>
+  <si>
+    <t>0xc0000bb650</t>
+  </si>
+  <si>
+    <t>0xc0000bb680</t>
+  </si>
+  <si>
+    <t>0xc0000bb690</t>
+  </si>
+  <si>
+    <t>0xc0000bb6a0</t>
+  </si>
+  <si>
+    <t>0xc00042ecf0</t>
+  </si>
+  <si>
+    <t>0xc00042ed00</t>
   </si>
   <si>
     <t>07-22-21</t>
   </si>
   <si>
-    <t>0xc000500d30</t>
-  </si>
-  <si>
-    <t>0xc000500d20</t>
-  </si>
-  <si>
-    <t>0xc000500d40</t>
-  </si>
-  <si>
-    <t>0xc000500d50</t>
-  </si>
-  <si>
-    <t>0xc000500d60</t>
-  </si>
-  <si>
-    <t>0xc000506a70</t>
-  </si>
-  <si>
-    <t>0xc000506a80</t>
+    <t>0xc0000bb6d0</t>
+  </si>
+  <si>
+    <t>0xc0000bb6c0</t>
+  </si>
+  <si>
+    <t>0xc0000bb6e0</t>
+  </si>
+  <si>
+    <t>0xc0000bb6f0</t>
+  </si>
+  <si>
+    <t>0xc0000bb700</t>
+  </si>
+  <si>
+    <t>0xc00042ed30</t>
+  </si>
+  <si>
+    <t>0xc00042ed40</t>
   </si>
   <si>
     <t>08-22-01</t>
   </si>
   <si>
-    <t>0xc000500d80</t>
-  </si>
-  <si>
-    <t>0xc000500d70</t>
-  </si>
-  <si>
-    <t>0xc000500d90</t>
-  </si>
-  <si>
-    <t>0xc000500da0</t>
-  </si>
-  <si>
-    <t>0xc000500db0</t>
-  </si>
-  <si>
-    <t>0xc000506aa0</t>
-  </si>
-  <si>
-    <t>0xc000506ab0</t>
+    <t>0xc0000bb730</t>
+  </si>
+  <si>
+    <t>0xc0000bb720</t>
+  </si>
+  <si>
+    <t>0xc0000bb740</t>
+  </si>
+  <si>
+    <t>0xc0000bb750</t>
+  </si>
+  <si>
+    <t>0xc0000bb760</t>
+  </si>
+  <si>
+    <t>0xc00042ed70</t>
+  </si>
+  <si>
+    <t>0xc00042ed80</t>
   </si>
   <si>
     <t>08-22-02</t>
   </si>
   <si>
-    <t>0xc000500dd0</t>
-  </si>
-  <si>
-    <t>0xc000500dc0</t>
-  </si>
-  <si>
-    <t>0xc000500de0</t>
-  </si>
-  <si>
-    <t>0xc000500df0</t>
-  </si>
-  <si>
-    <t>0xc000500e00</t>
-  </si>
-  <si>
-    <t>0xc000506ad0</t>
-  </si>
-  <si>
-    <t>0xc000506ae0</t>
+    <t>0xc0000bb7a0</t>
+  </si>
+  <si>
+    <t>0xc0000bb780</t>
+  </si>
+  <si>
+    <t>0xc0000bb7b0</t>
+  </si>
+  <si>
+    <t>0xc0000bb7d0</t>
+  </si>
+  <si>
+    <t>0xc0000bb7e0</t>
+  </si>
+  <si>
+    <t>0xc00042eda0</t>
+  </si>
+  <si>
+    <t>0xc00042edb0</t>
   </si>
   <si>
     <t>08-22-03</t>
   </si>
   <si>
-    <t>0xc000500e20</t>
-  </si>
-  <si>
-    <t>0xc000500e10</t>
-  </si>
-  <si>
-    <t>0xc000500e30</t>
-  </si>
-  <si>
-    <t>0xc000500e40</t>
-  </si>
-  <si>
-    <t>0xc000500e50</t>
-  </si>
-  <si>
-    <t>0xc000506af8</t>
-  </si>
-  <si>
-    <t>0xc000506b08</t>
+    <t>0xc0000bb820</t>
+  </si>
+  <si>
+    <t>0xc0000bb810</t>
+  </si>
+  <si>
+    <t>0xc0000bb830</t>
+  </si>
+  <si>
+    <t>0xc0000bb840</t>
+  </si>
+  <si>
+    <t>0xc0000bb850</t>
+  </si>
+  <si>
+    <t>0xc00042edc8</t>
+  </si>
+  <si>
+    <t>0xc00042edd8</t>
   </si>
   <si>
     <t>08-22-04</t>
   </si>
   <si>
-    <t>0xc000500e70</t>
-  </si>
-  <si>
-    <t>0xc000500e60</t>
-  </si>
-  <si>
-    <t>0xc000500e80</t>
-  </si>
-  <si>
-    <t>0xc000500e90</t>
-  </si>
-  <si>
-    <t>0xc000500ea0</t>
-  </si>
-  <si>
-    <t>0xc000506b30</t>
-  </si>
-  <si>
-    <t>0xc000506b40</t>
+    <t>0xc0000bb880</t>
+  </si>
+  <si>
+    <t>0xc0000bb870</t>
+  </si>
+  <si>
+    <t>0xc0000bb890</t>
+  </si>
+  <si>
+    <t>0xc0000bb8a0</t>
+  </si>
+  <si>
+    <t>0xc0000bb8b0</t>
+  </si>
+  <si>
+    <t>0xc00042ee00</t>
+  </si>
+  <si>
+    <t>0xc00042ee10</t>
   </si>
   <si>
     <t>08-22-05</t>
   </si>
   <si>
-    <t>0xc000500ec0</t>
-  </si>
-  <si>
-    <t>0xc000500eb0</t>
-  </si>
-  <si>
-    <t>0xc000500ed0</t>
-  </si>
-  <si>
-    <t>0xc000500ee0</t>
-  </si>
-  <si>
-    <t>0xc000500ef0</t>
-  </si>
-  <si>
-    <t>0xc000506b58</t>
-  </si>
-  <si>
-    <t>0xc000506b68</t>
+    <t>0xc0000bb8f0</t>
+  </si>
+  <si>
+    <t>0xc0000bb8e0</t>
+  </si>
+  <si>
+    <t>0xc0000bb920</t>
+  </si>
+  <si>
+    <t>0xc0000bb930</t>
+  </si>
+  <si>
+    <t>0xc0000bb940</t>
+  </si>
+  <si>
+    <t>0xc00042ee28</t>
+  </si>
+  <si>
+    <t>0xc00042ee38</t>
   </si>
   <si>
     <t>08-22-06</t>
   </si>
   <si>
-    <t>0xc000500f10</t>
-  </si>
-  <si>
-    <t>0xc000500f00</t>
-  </si>
-  <si>
-    <t>0xc000500f20</t>
-  </si>
-  <si>
-    <t>0xc000500f30</t>
-  </si>
-  <si>
-    <t>0xc000500f40</t>
-  </si>
-  <si>
-    <t>0xc000506b80</t>
-  </si>
-  <si>
-    <t>0xc000506b90</t>
+    <t>0xc0000bb980</t>
+  </si>
+  <si>
+    <t>0xc0000bb970</t>
+  </si>
+  <si>
+    <t>0xc0000bb990</t>
+  </si>
+  <si>
+    <t>0xc0000bb9a0</t>
+  </si>
+  <si>
+    <t>0xc0000bb9b0</t>
+  </si>
+  <si>
+    <t>0xc00042ee50</t>
+  </si>
+  <si>
+    <t>0xc00042ee60</t>
   </si>
   <si>
     <t>08-22-07</t>
   </si>
   <si>
-    <t>0xc000500f60</t>
-  </si>
-  <si>
-    <t>0xc000500f50</t>
-  </si>
-  <si>
-    <t>0xc000500f70</t>
-  </si>
-  <si>
-    <t>0xc000500f80</t>
-  </si>
-  <si>
-    <t>0xc000500f90</t>
-  </si>
-  <si>
-    <t>0xc000506bb0</t>
-  </si>
-  <si>
-    <t>0xc000506bc0</t>
+    <t>0xc0000bb9e0</t>
+  </si>
+  <si>
+    <t>0xc0000bb9d0</t>
+  </si>
+  <si>
+    <t>0xc0000bb9f0</t>
+  </si>
+  <si>
+    <t>0xc0000bba00</t>
+  </si>
+  <si>
+    <t>0xc0000bba10</t>
+  </si>
+  <si>
+    <t>0xc00042ee80</t>
+  </si>
+  <si>
+    <t>0xc00042ee90</t>
   </si>
   <si>
     <t>08-22-08</t>
   </si>
   <si>
-    <t>0xc000500fb0</t>
-  </si>
-  <si>
-    <t>0xc000500fa0</t>
-  </si>
-  <si>
-    <t>0xc000500fc0</t>
-  </si>
-  <si>
-    <t>0xc000500fd0</t>
-  </si>
-  <si>
-    <t>0xc000500fe0</t>
-  </si>
-  <si>
-    <t>0xc000506be0</t>
-  </si>
-  <si>
-    <t>0xc000506bf0</t>
+    <t>0xc0000bba50</t>
+  </si>
+  <si>
+    <t>0xc0000bba30</t>
+  </si>
+  <si>
+    <t>0xc0000bba60</t>
+  </si>
+  <si>
+    <t>0xc0000bba70</t>
+  </si>
+  <si>
+    <t>0xc0000bba80</t>
+  </si>
+  <si>
+    <t>0xc00042eeb0</t>
+  </si>
+  <si>
+    <t>0xc00042eec0</t>
   </si>
   <si>
     <t>08-22-09</t>
   </si>
   <si>
-    <t>0xc000501000</t>
-  </si>
-  <si>
-    <t>0xc000500ff0</t>
-  </si>
-  <si>
-    <t>0xc000501010</t>
-  </si>
-  <si>
-    <t>0xc000501020</t>
-  </si>
-  <si>
-    <t>0xc000501030</t>
-  </si>
-  <si>
-    <t>0xc000506c10</t>
-  </si>
-  <si>
-    <t>0xc000506c20</t>
+    <t>0xc0000bbab0</t>
+  </si>
+  <si>
+    <t>0xc0000bbaa0</t>
+  </si>
+  <si>
+    <t>0xc0000bbac0</t>
+  </si>
+  <si>
+    <t>0xc0000bbad0</t>
+  </si>
+  <si>
+    <t>0xc0000bbae0</t>
+  </si>
+  <si>
+    <t>0xc00042eee0</t>
+  </si>
+  <si>
+    <t>0xc00042eef0</t>
   </si>
   <si>
     <t>08-22-10</t>
   </si>
   <si>
-    <t>0xc000501050</t>
-  </si>
-  <si>
-    <t>0xc000501040</t>
-  </si>
-  <si>
-    <t>0xc000501060</t>
-  </si>
-  <si>
-    <t>0xc000501070</t>
-  </si>
-  <si>
-    <t>0xc000501080</t>
-  </si>
-  <si>
-    <t>0xc000506c40</t>
-  </si>
-  <si>
-    <t>0xc000506c50</t>
+    <t>0xc0000bbb10</t>
+  </si>
+  <si>
+    <t>0xc0000bbb00</t>
+  </si>
+  <si>
+    <t>0xc0000bbb20</t>
+  </si>
+  <si>
+    <t>0xc0000bbb30</t>
+  </si>
+  <si>
+    <t>0xc0000bbb40</t>
+  </si>
+  <si>
+    <t>0xc00042ef10</t>
+  </si>
+  <si>
+    <t>0xc00042ef20</t>
   </si>
   <si>
     <t>08-22-11</t>
   </si>
   <si>
-    <t>0xc0005010a0</t>
-  </si>
-  <si>
-    <t>0xc000501090</t>
-  </si>
-  <si>
-    <t>0xc0005010b0</t>
-  </si>
-  <si>
-    <t>0xc0005010c0</t>
-  </si>
-  <si>
-    <t>0xc0005010d0</t>
-  </si>
-  <si>
-    <t>0xc000506c70</t>
-  </si>
-  <si>
-    <t>0xc000506c80</t>
+    <t>0xc0000bbb70</t>
+  </si>
+  <si>
+    <t>0xc0000bbb60</t>
+  </si>
+  <si>
+    <t>0xc0000bbb80</t>
+  </si>
+  <si>
+    <t>0xc0000bbb90</t>
+  </si>
+  <si>
+    <t>0xc0000bbba0</t>
+  </si>
+  <si>
+    <t>0xc00042ef40</t>
+  </si>
+  <si>
+    <t>0xc00042ef50</t>
   </si>
   <si>
     <t>08-22-12</t>
   </si>
   <si>
-    <t>0xc0005010f0</t>
-  </si>
-  <si>
-    <t>0xc0005010e0</t>
-  </si>
-  <si>
-    <t>0xc000501100</t>
-  </si>
-  <si>
-    <t>0xc000501110</t>
-  </si>
-  <si>
-    <t>0xc000501120</t>
-  </si>
-  <si>
-    <t>0xc000506ca0</t>
-  </si>
-  <si>
-    <t>0xc000506cb0</t>
+    <t>0xc0000bbbd0</t>
+  </si>
+  <si>
+    <t>0xc0000bbbc0</t>
+  </si>
+  <si>
+    <t>0xc0000bbbe0</t>
+  </si>
+  <si>
+    <t>0xc0000bbbf0</t>
+  </si>
+  <si>
+    <t>0xc0000bbc00</t>
+  </si>
+  <si>
+    <t>0xc00042ef70</t>
+  </si>
+  <si>
+    <t>0xc00042ef80</t>
   </si>
   <si>
     <t>08-22-13</t>
   </si>
   <si>
-    <t>0xc000501140</t>
-  </si>
-  <si>
-    <t>0xc000501130</t>
-  </si>
-  <si>
-    <t>0xc000501150</t>
-  </si>
-  <si>
-    <t>0xc000501160</t>
-  </si>
-  <si>
-    <t>0xc000501170</t>
-  </si>
-  <si>
-    <t>0xc000506cd0</t>
-  </si>
-  <si>
-    <t>0xc000506ce0</t>
+    <t>0xc0000bbc30</t>
+  </si>
+  <si>
+    <t>0xc0000bbc20</t>
+  </si>
+  <si>
+    <t>0xc0000bbc40</t>
+  </si>
+  <si>
+    <t>0xc0000bbc50</t>
+  </si>
+  <si>
+    <t>0xc0000bbc60</t>
+  </si>
+  <si>
+    <t>0xc00042efa0</t>
+  </si>
+  <si>
+    <t>0xc00042efb0</t>
   </si>
   <si>
     <t>08-22-14</t>
   </si>
   <si>
-    <t>0xc000501190</t>
-  </si>
-  <si>
-    <t>0xc000501180</t>
-  </si>
-  <si>
-    <t>0xc0005011a0</t>
-  </si>
-  <si>
-    <t>0xc0005011b0</t>
-  </si>
-  <si>
-    <t>0xc0005011c0</t>
-  </si>
-  <si>
-    <t>0xc000506d00</t>
-  </si>
-  <si>
-    <t>0xc000506d10</t>
+    <t>0xc0000bbc90</t>
+  </si>
+  <si>
+    <t>0xc0000bbc80</t>
+  </si>
+  <si>
+    <t>0xc0000bbca0</t>
+  </si>
+  <si>
+    <t>0xc0000bbcb0</t>
+  </si>
+  <si>
+    <t>0xc0000bbcc0</t>
+  </si>
+  <si>
+    <t>0xc00042efd0</t>
+  </si>
+  <si>
+    <t>0xc00042efe0</t>
   </si>
   <si>
     <t>08-22-15</t>
   </si>
   <si>
-    <t>0xc0005011e0</t>
-  </si>
-  <si>
-    <t>0xc0005011d0</t>
-  </si>
-  <si>
-    <t>0xc0005011f0</t>
-  </si>
-  <si>
-    <t>0xc000501200</t>
-  </si>
-  <si>
-    <t>0xc000501210</t>
-  </si>
-  <si>
-    <t>0xc000506d30</t>
-  </si>
-  <si>
-    <t>0xc000506d40</t>
+    <t>0xc0000bbcf0</t>
+  </si>
+  <si>
+    <t>0xc0000bbce0</t>
+  </si>
+  <si>
+    <t>0xc0000bbd00</t>
+  </si>
+  <si>
+    <t>0xc0000bbd10</t>
+  </si>
+  <si>
+    <t>0xc0000bbd20</t>
+  </si>
+  <si>
+    <t>0xc00042f010</t>
+  </si>
+  <si>
+    <t>0xc00042f020</t>
   </si>
   <si>
     <t>08-22-16</t>
   </si>
   <si>
-    <t>0xc000501230</t>
-  </si>
-  <si>
-    <t>0xc000501220</t>
-  </si>
-  <si>
-    <t>0xc000501240</t>
-  </si>
-  <si>
-    <t>0xc000501250</t>
-  </si>
-  <si>
-    <t>0xc000501260</t>
-  </si>
-  <si>
-    <t>0xc000506d60</t>
-  </si>
-  <si>
-    <t>0xc000506d70</t>
+    <t>0xc0000bbd50</t>
+  </si>
+  <si>
+    <t>0xc0000bbd40</t>
+  </si>
+  <si>
+    <t>0xc0000bbd60</t>
+  </si>
+  <si>
+    <t>0xc0000bbd70</t>
+  </si>
+  <si>
+    <t>0xc0000bbd80</t>
+  </si>
+  <si>
+    <t>0xc00042f040</t>
+  </si>
+  <si>
+    <t>0xc00042f050</t>
   </si>
   <si>
     <t>08-22-17</t>
   </si>
   <si>
-    <t>0xc000501280</t>
-  </si>
-  <si>
-    <t>0xc000501270</t>
-  </si>
-  <si>
-    <t>0xc000501290</t>
-  </si>
-  <si>
-    <t>0xc0005012a0</t>
-  </si>
-  <si>
-    <t>0xc0005012b0</t>
-  </si>
-  <si>
-    <t>0xc000506d90</t>
-  </si>
-  <si>
-    <t>0xc000506da0</t>
+    <t>0xc0000bbdb0</t>
+  </si>
+  <si>
+    <t>0xc0000bbda0</t>
+  </si>
+  <si>
+    <t>0xc0000bbdc0</t>
+  </si>
+  <si>
+    <t>0xc0000bbdd0</t>
+  </si>
+  <si>
+    <t>0xc0000bbde0</t>
+  </si>
+  <si>
+    <t>0xc00042f070</t>
+  </si>
+  <si>
+    <t>0xc00042f080</t>
   </si>
   <si>
     <t>08-22-18</t>
   </si>
   <si>
-    <t>0xc0005012d0</t>
-  </si>
-  <si>
-    <t>0xc0005012c0</t>
-  </si>
-  <si>
-    <t>0xc0005012e0</t>
-  </si>
-  <si>
-    <t>0xc0005012f0</t>
-  </si>
-  <si>
-    <t>0xc000501300</t>
-  </si>
-  <si>
-    <t>0xc000506db8</t>
-  </si>
-  <si>
-    <t>0xc000506dd8</t>
+    <t>0xc0000bbe10</t>
+  </si>
+  <si>
+    <t>0xc0000bbe00</t>
+  </si>
+  <si>
+    <t>0xc0000bbe20</t>
+  </si>
+  <si>
+    <t>0xc0000bbe30</t>
+  </si>
+  <si>
+    <t>0xc0000bbe40</t>
+  </si>
+  <si>
+    <t>0xc00042f098</t>
+  </si>
+  <si>
+    <t>0xc00042f0b8</t>
   </si>
   <si>
     <t>08-22-19</t>
   </si>
   <si>
-    <t>0xc000501320</t>
-  </si>
-  <si>
-    <t>0xc000501310</t>
-  </si>
-  <si>
-    <t>0xc000501330</t>
-  </si>
-  <si>
-    <t>0xc000501340</t>
-  </si>
-  <si>
-    <t>0xc000501350</t>
-  </si>
-  <si>
-    <t>0xc000506e00</t>
-  </si>
-  <si>
-    <t>0xc000506e10</t>
+    <t>0xc0000bbe70</t>
+  </si>
+  <si>
+    <t>0xc0000bbe60</t>
+  </si>
+  <si>
+    <t>0xc0000bbe80</t>
+  </si>
+  <si>
+    <t>0xc0000bbe90</t>
+  </si>
+  <si>
+    <t>0xc0000bbea0</t>
+  </si>
+  <si>
+    <t>0xc00042f0e0</t>
+  </si>
+  <si>
+    <t>0xc00042f0f0</t>
   </si>
   <si>
     <t>08-22-20</t>
   </si>
   <si>
-    <t>0xc000501370</t>
-  </si>
-  <si>
-    <t>0xc000501360</t>
-  </si>
-  <si>
-    <t>0xc000501380</t>
-  </si>
-  <si>
-    <t>0xc000501390</t>
-  </si>
-  <si>
-    <t>0xc0005013a0</t>
-  </si>
-  <si>
-    <t>0xc000506e30</t>
-  </si>
-  <si>
-    <t>0xc000506e40</t>
+    <t>0xc0000bbed0</t>
+  </si>
+  <si>
+    <t>0xc0000bbec0</t>
+  </si>
+  <si>
+    <t>0xc0000bbee0</t>
+  </si>
+  <si>
+    <t>0xc0000bbef0</t>
+  </si>
+  <si>
+    <t>0xc0000bbf00</t>
+  </si>
+  <si>
+    <t>0xc00042f110</t>
+  </si>
+  <si>
+    <t>0xc00042f120</t>
   </si>
   <si>
     <t>08-22-21</t>
   </si>
   <si>
-    <t>0xc0005013c0</t>
-  </si>
-  <si>
-    <t>0xc0005013b0</t>
-  </si>
-  <si>
-    <t>0xc0005013d0</t>
-  </si>
-  <si>
-    <t>0xc0005013e0</t>
-  </si>
-  <si>
-    <t>0xc0005013f0</t>
-  </si>
-  <si>
-    <t>0xc000506e58</t>
-  </si>
-  <si>
-    <t>0xc000506e68</t>
+    <t>0xc0000bbf30</t>
+  </si>
+  <si>
+    <t>0xc0000bbf20</t>
+  </si>
+  <si>
+    <t>0xc0000bbf40</t>
+  </si>
+  <si>
+    <t>0xc0000bbf50</t>
+  </si>
+  <si>
+    <t>0xc0000bbf60</t>
+  </si>
+  <si>
+    <t>0xc00042f138</t>
+  </si>
+  <si>
+    <t>0xc00042f148</t>
   </si>
   <si>
     <t>08-22-22</t>
   </si>
   <si>
-    <t>0xc000501410</t>
-  </si>
-  <si>
-    <t>0xc000501400</t>
-  </si>
-  <si>
-    <t>0xc000501420</t>
-  </si>
-  <si>
-    <t>0xc000501430</t>
-  </si>
-  <si>
-    <t>0xc000501440</t>
-  </si>
-  <si>
-    <t>0xc000506e90</t>
-  </si>
-  <si>
-    <t>0xc000506ea0</t>
+    <t>0xc0000bbf90</t>
+  </si>
+  <si>
+    <t>0xc0000bbf80</t>
+  </si>
+  <si>
+    <t>0xc0000bbfa0</t>
+  </si>
+  <si>
+    <t>0xc0000bbfb0</t>
+  </si>
+  <si>
+    <t>0xc0000bbfc0</t>
+  </si>
+  <si>
+    <t>0xc00042f170</t>
+  </si>
+  <si>
+    <t>0xc00042f180</t>
   </si>
   <si>
     <t>09-22-02</t>
   </si>
   <si>
-    <t>0xc000501460</t>
-  </si>
-  <si>
-    <t>0xc000501450</t>
-  </si>
-  <si>
-    <t>0xc000501470</t>
-  </si>
-  <si>
-    <t>0xc000501480</t>
-  </si>
-  <si>
-    <t>0xc000501490</t>
-  </si>
-  <si>
-    <t>0xc000506ed0</t>
-  </si>
-  <si>
-    <t>0xc000506ee0</t>
+    <t>0xc0000bbff0</t>
+  </si>
+  <si>
+    <t>0xc0000bbfe0</t>
+  </si>
+  <si>
+    <t>0xc000200000</t>
+  </si>
+  <si>
+    <t>0xc000200010</t>
+  </si>
+  <si>
+    <t>0xc000200020</t>
+  </si>
+  <si>
+    <t>0xc00042f1b0</t>
+  </si>
+  <si>
+    <t>0xc00042f1c0</t>
   </si>
   <si>
     <t>10-22-01</t>
   </si>
   <si>
-    <t>0xc0005014b0</t>
-  </si>
-  <si>
-    <t>0xc0005014a0</t>
-  </si>
-  <si>
-    <t>0xc0005014c0</t>
-  </si>
-  <si>
-    <t>0xc0005014d0</t>
-  </si>
-  <si>
-    <t>0xc0005014e0</t>
-  </si>
-  <si>
-    <t>0xc000506f00</t>
-  </si>
-  <si>
-    <t>0xc000506f10</t>
+    <t>0xc000200050</t>
+  </si>
+  <si>
+    <t>0xc000200040</t>
+  </si>
+  <si>
+    <t>0xc000200060</t>
+  </si>
+  <si>
+    <t>0xc000200070</t>
+  </si>
+  <si>
+    <t>0xc000200080</t>
+  </si>
+  <si>
+    <t>0xc00042f1e0</t>
+  </si>
+  <si>
+    <t>0xc00042f1f0</t>
   </si>
   <si>
     <t>10-22-02</t>
   </si>
   <si>
-    <t>0xc000501500</t>
-  </si>
-  <si>
-    <t>0xc0005014f0</t>
-  </si>
-  <si>
-    <t>0xc000501510</t>
-  </si>
-  <si>
-    <t>0xc000501520</t>
-  </si>
-  <si>
-    <t>0xc000501530</t>
-  </si>
-  <si>
-    <t>0xc000506f30</t>
-  </si>
-  <si>
-    <t>0xc000506f40</t>
+    <t>0xc0002000b0</t>
+  </si>
+  <si>
+    <t>0xc0002000a0</t>
+  </si>
+  <si>
+    <t>0xc0002000c0</t>
+  </si>
+  <si>
+    <t>0xc0002000d0</t>
+  </si>
+  <si>
+    <t>0xc0002000e0</t>
+  </si>
+  <si>
+    <t>0xc00042f210</t>
+  </si>
+  <si>
+    <t>0xc00042f220</t>
   </si>
   <si>
     <t>10-22-03</t>
   </si>
   <si>
-    <t>0xc000501550</t>
-  </si>
-  <si>
-    <t>0xc000501540</t>
-  </si>
-  <si>
-    <t>0xc000501560</t>
-  </si>
-  <si>
-    <t>0xc000501570</t>
-  </si>
-  <si>
-    <t>0xc000501580</t>
-  </si>
-  <si>
-    <t>0xc000506f58</t>
-  </si>
-  <si>
-    <t>0xc000506f78</t>
+    <t>0xc000200110</t>
+  </si>
+  <si>
+    <t>0xc000200100</t>
+  </si>
+  <si>
+    <t>0xc000200120</t>
+  </si>
+  <si>
+    <t>0xc000200130</t>
+  </si>
+  <si>
+    <t>0xc000200140</t>
+  </si>
+  <si>
+    <t>0xc00042f238</t>
+  </si>
+  <si>
+    <t>0xc00042f258</t>
   </si>
   <si>
     <t>10-22-04</t>
   </si>
   <si>
-    <t>0xc0005015a0</t>
-  </si>
-  <si>
-    <t>0xc000501590</t>
-  </si>
-  <si>
-    <t>0xc0005015b0</t>
-  </si>
-  <si>
-    <t>0xc0005015c0</t>
-  </si>
-  <si>
-    <t>0xc0005015d0</t>
-  </si>
-  <si>
-    <t>0xc000506f90</t>
-  </si>
-  <si>
-    <t>0xc000506fa0</t>
+    <t>0xc000200170</t>
+  </si>
+  <si>
+    <t>0xc000200160</t>
+  </si>
+  <si>
+    <t>0xc000200180</t>
+  </si>
+  <si>
+    <t>0xc000200190</t>
+  </si>
+  <si>
+    <t>0xc0002001a0</t>
+  </si>
+  <si>
+    <t>0xc00042f270</t>
+  </si>
+  <si>
+    <t>0xc00042f280</t>
   </si>
   <si>
     <t>10-22-05</t>
   </si>
   <si>
-    <t>0xc0005015f0</t>
-  </si>
-  <si>
-    <t>0xc0005015e0</t>
-  </si>
-  <si>
-    <t>0xc000501600</t>
-  </si>
-  <si>
-    <t>0xc000501610</t>
-  </si>
-  <si>
-    <t>0xc000501620</t>
-  </si>
-  <si>
-    <t>0xc000506fc0</t>
-  </si>
-  <si>
-    <t>0xc000506fd0</t>
+    <t>0xc0002001d0</t>
+  </si>
+  <si>
+    <t>0xc0002001c0</t>
+  </si>
+  <si>
+    <t>0xc0002001e0</t>
+  </si>
+  <si>
+    <t>0xc0002001f0</t>
+  </si>
+  <si>
+    <t>0xc000200200</t>
+  </si>
+  <si>
+    <t>0xc00042f2a0</t>
+  </si>
+  <si>
+    <t>0xc00042f2b0</t>
   </si>
   <si>
     <t>10-22-06</t>
   </si>
   <si>
-    <t>0xc000501640</t>
-  </si>
-  <si>
-    <t>0xc000501630</t>
-  </si>
-  <si>
-    <t>0xc000501650</t>
-  </si>
-  <si>
-    <t>0xc000501660</t>
-  </si>
-  <si>
-    <t>0xc000501670</t>
-  </si>
-  <si>
-    <t>0xc000506ff0</t>
-  </si>
-  <si>
-    <t>0xc000507000</t>
+    <t>0xc000200230</t>
+  </si>
+  <si>
+    <t>0xc000200220</t>
+  </si>
+  <si>
+    <t>0xc000200240</t>
+  </si>
+  <si>
+    <t>0xc000200250</t>
+  </si>
+  <si>
+    <t>0xc000200260</t>
+  </si>
+  <si>
+    <t>0xc00042f2d0</t>
+  </si>
+  <si>
+    <t>0xc00042f2e0</t>
   </si>
   <si>
     <t>10-22-07</t>
   </si>
   <si>
-    <t>0xc000501690</t>
-  </si>
-  <si>
-    <t>0xc000501680</t>
-  </si>
-  <si>
-    <t>0xc0005016a0</t>
-  </si>
-  <si>
-    <t>0xc0005016b0</t>
-  </si>
-  <si>
-    <t>0xc0005016c0</t>
-  </si>
-  <si>
-    <t>0xc000507020</t>
-  </si>
-  <si>
-    <t>0xc000507030</t>
+    <t>0xc000200290</t>
+  </si>
+  <si>
+    <t>0xc000200280</t>
+  </si>
+  <si>
+    <t>0xc0002002a0</t>
+  </si>
+  <si>
+    <t>0xc0002002b0</t>
+  </si>
+  <si>
+    <t>0xc0002002c0</t>
+  </si>
+  <si>
+    <t>0xc00042f300</t>
+  </si>
+  <si>
+    <t>0xc00042f310</t>
   </si>
   <si>
     <t>10-22-08</t>
   </si>
   <si>
-    <t>0xc0005016e0</t>
-  </si>
-  <si>
-    <t>0xc0005016d0</t>
-  </si>
-  <si>
-    <t>0xc0005016f0</t>
-  </si>
-  <si>
-    <t>0xc000501700</t>
-  </si>
-  <si>
-    <t>0xc000501710</t>
-  </si>
-  <si>
-    <t>0xc000507050</t>
-  </si>
-  <si>
-    <t>0xc000507060</t>
+    <t>0xc0002002f0</t>
+  </si>
+  <si>
+    <t>0xc0002002e0</t>
+  </si>
+  <si>
+    <t>0xc000200300</t>
+  </si>
+  <si>
+    <t>0xc000200310</t>
+  </si>
+  <si>
+    <t>0xc000200320</t>
+  </si>
+  <si>
+    <t>0xc00042f330</t>
+  </si>
+  <si>
+    <t>0xc00042f340</t>
   </si>
   <si>
     <t>10-22-09</t>
   </si>
   <si>
-    <t>0xc000501730</t>
-  </si>
-  <si>
-    <t>0xc000501720</t>
-  </si>
-  <si>
-    <t>0xc000501740</t>
-  </si>
-  <si>
-    <t>0xc000501750</t>
-  </si>
-  <si>
-    <t>0xc000501760</t>
-  </si>
-  <si>
-    <t>0xc000507080</t>
-  </si>
-  <si>
-    <t>0xc000507090</t>
+    <t>0xc000200350</t>
+  </si>
+  <si>
+    <t>0xc000200340</t>
+  </si>
+  <si>
+    <t>0xc000200360</t>
+  </si>
+  <si>
+    <t>0xc000200370</t>
+  </si>
+  <si>
+    <t>0xc000200380</t>
+  </si>
+  <si>
+    <t>0xc00042f360</t>
+  </si>
+  <si>
+    <t>0xc00042f370</t>
   </si>
   <si>
     <t>10-22-10</t>
   </si>
   <si>
-    <t>0xc000501780</t>
-  </si>
-  <si>
-    <t>0xc000501770</t>
-  </si>
-  <si>
-    <t>0xc000501790</t>
-  </si>
-  <si>
-    <t>0xc0005017a0</t>
-  </si>
-  <si>
-    <t>0xc0005017b0</t>
-  </si>
-  <si>
-    <t>0xc0005070a8</t>
-  </si>
-  <si>
-    <t>0xc0005070c8</t>
+    <t>0xc0002003b0</t>
+  </si>
+  <si>
+    <t>0xc0002003a0</t>
+  </si>
+  <si>
+    <t>0xc0002003c0</t>
+  </si>
+  <si>
+    <t>0xc0002003d0</t>
+  </si>
+  <si>
+    <t>0xc0002003e0</t>
+  </si>
+  <si>
+    <t>0xc00042f388</t>
+  </si>
+  <si>
+    <t>0xc00042f3a8</t>
   </si>
   <si>
     <t>10-22-11</t>
   </si>
   <si>
-    <t>0xc0005017d0</t>
-  </si>
-  <si>
-    <t>0xc0005017c0</t>
-  </si>
-  <si>
-    <t>0xc0005017e0</t>
-  </si>
-  <si>
-    <t>0xc0005017f0</t>
-  </si>
-  <si>
-    <t>0xc000501800</t>
-  </si>
-  <si>
-    <t>0xc0005070f0</t>
-  </si>
-  <si>
-    <t>0xc000507100</t>
+    <t>0xc000200410</t>
+  </si>
+  <si>
+    <t>0xc000200400</t>
+  </si>
+  <si>
+    <t>0xc000200420</t>
+  </si>
+  <si>
+    <t>0xc000200430</t>
+  </si>
+  <si>
+    <t>0xc000200440</t>
+  </si>
+  <si>
+    <t>0xc00042f3d0</t>
+  </si>
+  <si>
+    <t>0xc00042f3e0</t>
   </si>
   <si>
     <t>10-22-12</t>
   </si>
   <si>
-    <t>0xc000501820</t>
-  </si>
-  <si>
-    <t>0xc000501810</t>
-  </si>
-  <si>
-    <t>0xc000501830</t>
-  </si>
-  <si>
-    <t>0xc000501840</t>
-  </si>
-  <si>
-    <t>0xc000501850</t>
-  </si>
-  <si>
-    <t>0xc000507120</t>
-  </si>
-  <si>
-    <t>0xc000507150</t>
+    <t>0xc000200470</t>
+  </si>
+  <si>
+    <t>0xc000200460</t>
+  </si>
+  <si>
+    <t>0xc000200480</t>
+  </si>
+  <si>
+    <t>0xc000200490</t>
+  </si>
+  <si>
+    <t>0xc0002004a0</t>
+  </si>
+  <si>
+    <t>0xc00042f400</t>
+  </si>
+  <si>
+    <t>0xc00042f410</t>
   </si>
   <si>
     <t>10-22-13</t>
   </si>
   <si>
-    <t>0xc000501870</t>
-  </si>
-  <si>
-    <t>0xc000501860</t>
-  </si>
-  <si>
-    <t>0xc000501880</t>
-  </si>
-  <si>
-    <t>0xc000501890</t>
-  </si>
-  <si>
-    <t>0xc0005018a0</t>
-  </si>
-  <si>
-    <t>0xc000507188</t>
-  </si>
-  <si>
-    <t>0xc000507198</t>
+    <t>0xc0002004d0</t>
+  </si>
+  <si>
+    <t>0xc0002004c0</t>
+  </si>
+  <si>
+    <t>0xc0002004e0</t>
+  </si>
+  <si>
+    <t>0xc0002004f0</t>
+  </si>
+  <si>
+    <t>0xc000200500</t>
+  </si>
+  <si>
+    <t>0xc00042f428</t>
+  </si>
+  <si>
+    <t>0xc00042f438</t>
   </si>
   <si>
     <t>10-22-14</t>
   </si>
   <si>
-    <t>0xc0005018c0</t>
-  </si>
-  <si>
-    <t>0xc0005018b0</t>
-  </si>
-  <si>
-    <t>0xc0005018d0</t>
-  </si>
-  <si>
-    <t>0xc0005018e0</t>
-  </si>
-  <si>
-    <t>0xc0005018f0</t>
-  </si>
-  <si>
-    <t>0xc0005071c0</t>
-  </si>
-  <si>
-    <t>0xc0005071d0</t>
+    <t>0xc000200530</t>
+  </si>
+  <si>
+    <t>0xc000200520</t>
+  </si>
+  <si>
+    <t>0xc000200540</t>
+  </si>
+  <si>
+    <t>0xc000200550</t>
+  </si>
+  <si>
+    <t>0xc000200560</t>
+  </si>
+  <si>
+    <t>0xc00042f460</t>
+  </si>
+  <si>
+    <t>0xc00042f470</t>
   </si>
   <si>
     <t>10-22-15</t>
   </si>
   <si>
-    <t>0xc000501910</t>
-  </si>
-  <si>
-    <t>0xc000501900</t>
-  </si>
-  <si>
-    <t>0xc000501920</t>
-  </si>
-  <si>
-    <t>0xc000501930</t>
-  </si>
-  <si>
-    <t>0xc000501940</t>
-  </si>
-  <si>
-    <t>0xc0005071f0</t>
-  </si>
-  <si>
-    <t>0xc000507200</t>
+    <t>0xc000200590</t>
+  </si>
+  <si>
+    <t>0xc000200580</t>
+  </si>
+  <si>
+    <t>0xc0002005a0</t>
+  </si>
+  <si>
+    <t>0xc0002005b0</t>
+  </si>
+  <si>
+    <t>0xc0002005c0</t>
+  </si>
+  <si>
+    <t>0xc00042f490</t>
+  </si>
+  <si>
+    <t>0xc00042f4a0</t>
   </si>
   <si>
     <t>10-22-16</t>
   </si>
   <si>
-    <t>0xc000501960</t>
-  </si>
-  <si>
-    <t>0xc000501950</t>
-  </si>
-  <si>
-    <t>0xc000501970</t>
-  </si>
-  <si>
-    <t>0xc000501980</t>
-  </si>
-  <si>
-    <t>0xc000501990</t>
-  </si>
-  <si>
-    <t>0xc000507220</t>
-  </si>
-  <si>
-    <t>0xc000507230</t>
+    <t>0xc0002005f0</t>
+  </si>
+  <si>
+    <t>0xc0002005e0</t>
+  </si>
+  <si>
+    <t>0xc000200600</t>
+  </si>
+  <si>
+    <t>0xc000200610</t>
+  </si>
+  <si>
+    <t>0xc000200620</t>
+  </si>
+  <si>
+    <t>0xc00042f4c0</t>
+  </si>
+  <si>
+    <t>0xc00042f4d0</t>
   </si>
   <si>
     <t>10-22-17</t>
   </si>
   <si>
-    <t>0xc0005019b0</t>
-  </si>
-  <si>
-    <t>0xc0005019a0</t>
-  </si>
-  <si>
-    <t>0xc0005019c0</t>
-  </si>
-  <si>
-    <t>0xc0005019d0</t>
-  </si>
-  <si>
-    <t>0xc0005019e0</t>
-  </si>
-  <si>
-    <t>0xc000507250</t>
-  </si>
-  <si>
-    <t>0xc000507260</t>
+    <t>0xc000200650</t>
+  </si>
+  <si>
+    <t>0xc000200640</t>
+  </si>
+  <si>
+    <t>0xc000200660</t>
+  </si>
+  <si>
+    <t>0xc000200670</t>
+  </si>
+  <si>
+    <t>0xc000200680</t>
+  </si>
+  <si>
+    <t>0xc00042f4f0</t>
+  </si>
+  <si>
+    <t>0xc00042f500</t>
   </si>
   <si>
     <t>10-22-18</t>
   </si>
   <si>
-    <t>0xc000501a00</t>
-  </si>
-  <si>
-    <t>0xc0005019f0</t>
-  </si>
-  <si>
-    <t>0xc000501a10</t>
-  </si>
-  <si>
-    <t>0xc000501a20</t>
-  </si>
-  <si>
-    <t>0xc000501a30</t>
-  </si>
-  <si>
-    <t>0xc000507278</t>
-  </si>
-  <si>
-    <t>0xc000507288</t>
+    <t>0xc0002006b0</t>
+  </si>
+  <si>
+    <t>0xc0002006a0</t>
+  </si>
+  <si>
+    <t>0xc0002006c0</t>
+  </si>
+  <si>
+    <t>0xc0002006d0</t>
+  </si>
+  <si>
+    <t>0xc0002006e0</t>
+  </si>
+  <si>
+    <t>0xc00042f518</t>
+  </si>
+  <si>
+    <t>0xc00042f528</t>
   </si>
   <si>
     <t>123456</t>
@@ -1954,484 +1954,484 @@
     <t>&lt;nil&gt;</t>
   </si>
   <si>
-    <t>0xc000501a40</t>
-  </si>
-  <si>
-    <t>0xc000501a50</t>
-  </si>
-  <si>
-    <t>0xc000501a60</t>
-  </si>
-  <si>
-    <t>0xc000501a70</t>
-  </si>
-  <si>
-    <t>0xc000507298</t>
-  </si>
-  <si>
-    <t>0xc0005072a8</t>
+    <t>0xc000200700</t>
+  </si>
+  <si>
+    <t>0xc000200710</t>
+  </si>
+  <si>
+    <t>0xc000200720</t>
+  </si>
+  <si>
+    <t>0xc000200730</t>
+  </si>
+  <si>
+    <t>0xc00042f538</t>
+  </si>
+  <si>
+    <t>0xc00042f548</t>
   </si>
   <si>
     <t>CAP-112</t>
   </si>
   <si>
-    <t>0xc000501a90</t>
+    <t>0xc000200760</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>0xc000501a80</t>
-  </si>
-  <si>
-    <t>0xc000501aa0</t>
-  </si>
-  <si>
-    <t>0xc000501ab0</t>
-  </si>
-  <si>
-    <t>0xc000501ac0</t>
-  </si>
-  <si>
-    <t>0xc0005072b8</t>
-  </si>
-  <si>
-    <t>0xc0005072c8</t>
+    <t>0xc000200750</t>
+  </si>
+  <si>
+    <t>0xc000200770</t>
+  </si>
+  <si>
+    <t>0xc000200780</t>
+  </si>
+  <si>
+    <t>0xc000200790</t>
+  </si>
+  <si>
+    <t>0xc00042f558</t>
+  </si>
+  <si>
+    <t>0xc00042f568</t>
   </si>
   <si>
     <t>CAP-144</t>
   </si>
   <si>
-    <t>0xc000501ae0</t>
+    <t>0xc0002007c0</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>0xc000501ad0</t>
-  </si>
-  <si>
-    <t>0xc000501af0</t>
-  </si>
-  <si>
-    <t>0xc000501b00</t>
-  </si>
-  <si>
-    <t>0xc000501b10</t>
-  </si>
-  <si>
-    <t>0xc0005072d8</t>
-  </si>
-  <si>
-    <t>0xc0005072f8</t>
+    <t>0xc0002007b0</t>
+  </si>
+  <si>
+    <t>0xc0002007d0</t>
+  </si>
+  <si>
+    <t>0xc0002007e0</t>
+  </si>
+  <si>
+    <t>0xc0002007f0</t>
+  </si>
+  <si>
+    <t>0xc00042f578</t>
+  </si>
+  <si>
+    <t>0xc00042f598</t>
   </si>
   <si>
     <t>CAP-198</t>
   </si>
   <si>
-    <t>0xc000501b30</t>
-  </si>
-  <si>
-    <t>0xc000501b20</t>
-  </si>
-  <si>
-    <t>0xc000501b40</t>
-  </si>
-  <si>
-    <t>0xc000501b50</t>
-  </si>
-  <si>
-    <t>0xc000501b60</t>
-  </si>
-  <si>
-    <t>0xc000507308</t>
-  </si>
-  <si>
-    <t>0xc000507328</t>
+    <t>0xc000200820</t>
+  </si>
+  <si>
+    <t>0xc000200810</t>
+  </si>
+  <si>
+    <t>0xc000200830</t>
+  </si>
+  <si>
+    <t>0xc000200840</t>
+  </si>
+  <si>
+    <t>0xc000200850</t>
+  </si>
+  <si>
+    <t>0xc00042f5a8</t>
+  </si>
+  <si>
+    <t>0xc00042f5c8</t>
   </si>
   <si>
     <t>CAP-205</t>
   </si>
   <si>
-    <t>0xc000501b80</t>
-  </si>
-  <si>
-    <t>0xc000501b70</t>
-  </si>
-  <si>
-    <t>0xc000501b90</t>
-  </si>
-  <si>
-    <t>0xc000501ba0</t>
-  </si>
-  <si>
-    <t>0xc000501bb0</t>
-  </si>
-  <si>
-    <t>0xc000507338</t>
-  </si>
-  <si>
-    <t>0xc000507358</t>
+    <t>0xc000200880</t>
+  </si>
+  <si>
+    <t>0xc000200870</t>
+  </si>
+  <si>
+    <t>0xc000200890</t>
+  </si>
+  <si>
+    <t>0xc0002008a0</t>
+  </si>
+  <si>
+    <t>0xc0002008b0</t>
+  </si>
+  <si>
+    <t>0xc00042f5d8</t>
+  </si>
+  <si>
+    <t>0xc00042f5f8</t>
   </si>
   <si>
     <t>CAP-225</t>
   </si>
   <si>
-    <t>0xc000501bd0</t>
-  </si>
-  <si>
-    <t>0xc000501bc0</t>
-  </si>
-  <si>
-    <t>0xc000501be0</t>
-  </si>
-  <si>
-    <t>0xc000501bf0</t>
-  </si>
-  <si>
-    <t>0xc000501c00</t>
-  </si>
-  <si>
-    <t>0xc000507368</t>
-  </si>
-  <si>
-    <t>0xc000507378</t>
+    <t>0xc0002008e0</t>
+  </si>
+  <si>
+    <t>0xc0002008d0</t>
+  </si>
+  <si>
+    <t>0xc0002008f0</t>
+  </si>
+  <si>
+    <t>0xc000200900</t>
+  </si>
+  <si>
+    <t>0xc000200910</t>
+  </si>
+  <si>
+    <t>0xc00042f608</t>
+  </si>
+  <si>
+    <t>0xc00042f618</t>
   </si>
   <si>
     <t>CAP-230</t>
   </si>
   <si>
-    <t>0xc000501c20</t>
-  </si>
-  <si>
-    <t>0xc000501c10</t>
-  </si>
-  <si>
-    <t>0xc000501c30</t>
-  </si>
-  <si>
-    <t>0xc000501c40</t>
-  </si>
-  <si>
-    <t>0xc000501c50</t>
-  </si>
-  <si>
-    <t>0xc000507388</t>
-  </si>
-  <si>
-    <t>0xc0005073a8</t>
+    <t>0xc000200940</t>
+  </si>
+  <si>
+    <t>0xc000200930</t>
+  </si>
+  <si>
+    <t>0xc000200950</t>
+  </si>
+  <si>
+    <t>0xc000200960</t>
+  </si>
+  <si>
+    <t>0xc000200970</t>
+  </si>
+  <si>
+    <t>0xc00042f628</t>
+  </si>
+  <si>
+    <t>0xc00042f648</t>
   </si>
   <si>
     <t>CAP-251</t>
   </si>
   <si>
-    <t>0xc000501c70</t>
-  </si>
-  <si>
-    <t>0xc000501c60</t>
-  </si>
-  <si>
-    <t>0xc000501c80</t>
-  </si>
-  <si>
-    <t>0xc000501c90</t>
-  </si>
-  <si>
-    <t>0xc000501ca0</t>
-  </si>
-  <si>
-    <t>0xc0005073b8</t>
-  </si>
-  <si>
-    <t>0xc0005073d8</t>
+    <t>0xc0002009a0</t>
+  </si>
+  <si>
+    <t>0xc000200990</t>
+  </si>
+  <si>
+    <t>0xc0002009b0</t>
+  </si>
+  <si>
+    <t>0xc0002009c0</t>
+  </si>
+  <si>
+    <t>0xc0002009d0</t>
+  </si>
+  <si>
+    <t>0xc00042f658</t>
+  </si>
+  <si>
+    <t>0xc00042f678</t>
   </si>
   <si>
     <t>CAP-260</t>
   </si>
   <si>
-    <t>0xc000501cc0</t>
-  </si>
-  <si>
-    <t>0xc000501cb0</t>
-  </si>
-  <si>
-    <t>0xc000501cd0</t>
-  </si>
-  <si>
-    <t>0xc000501ce0</t>
-  </si>
-  <si>
-    <t>0xc000501cf0</t>
-  </si>
-  <si>
-    <t>0xc0005073e8</t>
-  </si>
-  <si>
-    <t>0xc000507408</t>
+    <t>0xc000200a00</t>
+  </si>
+  <si>
+    <t>0xc0002009f0</t>
+  </si>
+  <si>
+    <t>0xc000200a10</t>
+  </si>
+  <si>
+    <t>0xc000200a20</t>
+  </si>
+  <si>
+    <t>0xc000200a30</t>
+  </si>
+  <si>
+    <t>0xc00042f688</t>
+  </si>
+  <si>
+    <t>0xc00042f6a8</t>
   </si>
   <si>
     <t>CAP-263</t>
   </si>
   <si>
-    <t>0xc000501d10</t>
-  </si>
-  <si>
-    <t>0xc000501d00</t>
-  </si>
-  <si>
-    <t>0xc000501d20</t>
-  </si>
-  <si>
-    <t>0xc000501d30</t>
-  </si>
-  <si>
-    <t>0xc000501d40</t>
-  </si>
-  <si>
-    <t>0xc000507430</t>
-  </si>
-  <si>
-    <t>0xc000507440</t>
+    <t>0xc000200a60</t>
+  </si>
+  <si>
+    <t>0xc000200a50</t>
+  </si>
+  <si>
+    <t>0xc000200a70</t>
+  </si>
+  <si>
+    <t>0xc000200a80</t>
+  </si>
+  <si>
+    <t>0xc000200a90</t>
+  </si>
+  <si>
+    <t>0xc00042f6d0</t>
+  </si>
+  <si>
+    <t>0xc00042f6e0</t>
   </si>
   <si>
     <t>CAP-272</t>
   </si>
   <si>
-    <t>0xc000501d60</t>
-  </si>
-  <si>
-    <t>0xc000501d50</t>
-  </si>
-  <si>
-    <t>0xc000501d70</t>
-  </si>
-  <si>
-    <t>0xc000501d80</t>
-  </si>
-  <si>
-    <t>0xc000501d90</t>
-  </si>
-  <si>
-    <t>0xc000507460</t>
-  </si>
-  <si>
-    <t>0xc000507470</t>
+    <t>0xc000200ac0</t>
+  </si>
+  <si>
+    <t>0xc000200ab0</t>
+  </si>
+  <si>
+    <t>0xc000200ad0</t>
+  </si>
+  <si>
+    <t>0xc000200ae0</t>
+  </si>
+  <si>
+    <t>0xc000200af0</t>
+  </si>
+  <si>
+    <t>0xc00042f700</t>
+  </si>
+  <si>
+    <t>0xc00042f710</t>
   </si>
   <si>
     <t>CAP-312</t>
   </si>
   <si>
-    <t>0xc000501db0</t>
-  </si>
-  <si>
-    <t>0xc000501da0</t>
-  </si>
-  <si>
-    <t>0xc000501dc0</t>
-  </si>
-  <si>
-    <t>0xc000501dd0</t>
-  </si>
-  <si>
-    <t>0xc000501de0</t>
-  </si>
-  <si>
-    <t>0xc000507498</t>
-  </si>
-  <si>
-    <t>0xc0005074b0</t>
+    <t>0xc000200b20</t>
+  </si>
+  <si>
+    <t>0xc000200b10</t>
+  </si>
+  <si>
+    <t>0xc000200b30</t>
+  </si>
+  <si>
+    <t>0xc000200b40</t>
+  </si>
+  <si>
+    <t>0xc000200b50</t>
+  </si>
+  <si>
+    <t>0xc00042f738</t>
+  </si>
+  <si>
+    <t>0xc00042f750</t>
   </si>
   <si>
     <t>CAP-313</t>
   </si>
   <si>
-    <t>0xc000501e00</t>
-  </si>
-  <si>
-    <t>0xc000501df0</t>
-  </si>
-  <si>
-    <t>0xc000501e10</t>
-  </si>
-  <si>
-    <t>0xc000501e20</t>
-  </si>
-  <si>
-    <t>0xc000501e30</t>
-  </si>
-  <si>
-    <t>0xc0005074c8</t>
-  </si>
-  <si>
-    <t>0xc0005074e0</t>
+    <t>0xc000200b80</t>
+  </si>
+  <si>
+    <t>0xc000200b70</t>
+  </si>
+  <si>
+    <t>0xc000200b90</t>
+  </si>
+  <si>
+    <t>0xc000200ba0</t>
+  </si>
+  <si>
+    <t>0xc000200bb0</t>
+  </si>
+  <si>
+    <t>0xc00042f768</t>
+  </si>
+  <si>
+    <t>0xc00042f780</t>
   </si>
   <si>
     <t>CAP-314</t>
   </si>
   <si>
-    <t>0xc000501e50</t>
-  </si>
-  <si>
-    <t>0xc000501e40</t>
-  </si>
-  <si>
-    <t>0xc000501e60</t>
-  </si>
-  <si>
-    <t>0xc000501e70</t>
-  </si>
-  <si>
-    <t>0xc000501e80</t>
-  </si>
-  <si>
-    <t>0xc0005074f8</t>
-  </si>
-  <si>
-    <t>0xc000507510</t>
+    <t>0xc000200be0</t>
+  </si>
+  <si>
+    <t>0xc000200bd0</t>
+  </si>
+  <si>
+    <t>0xc000200bf0</t>
+  </si>
+  <si>
+    <t>0xc000200c00</t>
+  </si>
+  <si>
+    <t>0xc000200c10</t>
+  </si>
+  <si>
+    <t>0xc00042f798</t>
+  </si>
+  <si>
+    <t>0xc00042f7b0</t>
   </si>
   <si>
     <t>CAP-316</t>
   </si>
   <si>
-    <t>0xc000501ea0</t>
-  </si>
-  <si>
-    <t>0xc000501e90</t>
-  </si>
-  <si>
-    <t>0xc000501eb0</t>
-  </si>
-  <si>
-    <t>0xc000501ec0</t>
-  </si>
-  <si>
-    <t>0xc000501ed0</t>
-  </si>
-  <si>
-    <t>0xc000507528</t>
-  </si>
-  <si>
-    <t>0xc000507540</t>
+    <t>0xc000200c40</t>
+  </si>
+  <si>
+    <t>0xc000200c30</t>
+  </si>
+  <si>
+    <t>0xc000200c50</t>
+  </si>
+  <si>
+    <t>0xc000200c60</t>
+  </si>
+  <si>
+    <t>0xc000200c70</t>
+  </si>
+  <si>
+    <t>0xc00042f7c8</t>
+  </si>
+  <si>
+    <t>0xc00042f7e0</t>
   </si>
   <si>
     <t>CAP-317</t>
   </si>
   <si>
-    <t>0xc000501ef0</t>
-  </si>
-  <si>
-    <t>0xc000501ee0</t>
-  </si>
-  <si>
-    <t>0xc000501f00</t>
-  </si>
-  <si>
-    <t>0xc000501f10</t>
-  </si>
-  <si>
-    <t>0xc000501f20</t>
-  </si>
-  <si>
-    <t>0xc000507558</t>
-  </si>
-  <si>
-    <t>0xc000507570</t>
+    <t>0xc000200ca0</t>
+  </si>
+  <si>
+    <t>0xc000200c90</t>
+  </si>
+  <si>
+    <t>0xc000200cb0</t>
+  </si>
+  <si>
+    <t>0xc000200cc0</t>
+  </si>
+  <si>
+    <t>0xc000200cd0</t>
+  </si>
+  <si>
+    <t>0xc00042f7f8</t>
+  </si>
+  <si>
+    <t>0xc00042f810</t>
   </si>
   <si>
     <t>CAP-320</t>
   </si>
   <si>
-    <t>0xc000501f40</t>
-  </si>
-  <si>
-    <t>0xc000501f30</t>
-  </si>
-  <si>
-    <t>0xc000501f50</t>
-  </si>
-  <si>
-    <t>0xc000501f60</t>
-  </si>
-  <si>
-    <t>0xc000501f70</t>
-  </si>
-  <si>
-    <t>0xc000507590</t>
-  </si>
-  <si>
-    <t>0xc0005075a0</t>
+    <t>0xc000200d00</t>
+  </si>
+  <si>
+    <t>0xc000200cf0</t>
+  </si>
+  <si>
+    <t>0xc000200d10</t>
+  </si>
+  <si>
+    <t>0xc000200d20</t>
+  </si>
+  <si>
+    <t>0xc000200d30</t>
+  </si>
+  <si>
+    <t>0xc00042f830</t>
+  </si>
+  <si>
+    <t>0xc00042f840</t>
   </si>
   <si>
     <t>CAP-321</t>
   </si>
   <si>
-    <t>0xc000501f90</t>
-  </si>
-  <si>
-    <t>0xc000501f80</t>
-  </si>
-  <si>
-    <t>0xc000501fa0</t>
-  </si>
-  <si>
-    <t>0xc000501fb0</t>
-  </si>
-  <si>
-    <t>0xc000501fc0</t>
-  </si>
-  <si>
-    <t>0xc0005075c0</t>
-  </si>
-  <si>
-    <t>0xc0005075d0</t>
+    <t>0xc000200d60</t>
+  </si>
+  <si>
+    <t>0xc000200d50</t>
+  </si>
+  <si>
+    <t>0xc000200d70</t>
+  </si>
+  <si>
+    <t>0xc000200d80</t>
+  </si>
+  <si>
+    <t>0xc000200d90</t>
+  </si>
+  <si>
+    <t>0xc00042f860</t>
+  </si>
+  <si>
+    <t>0xc00042f870</t>
   </si>
   <si>
     <t>CAP-322</t>
   </si>
   <si>
-    <t>0xc000501fe0</t>
-  </si>
-  <si>
-    <t>0xc000501fd0</t>
-  </si>
-  <si>
-    <t>0xc000501ff0</t>
-  </si>
-  <si>
-    <t>0xc00009c000</t>
-  </si>
-  <si>
-    <t>0xc00009c010</t>
-  </si>
-  <si>
-    <t>0xc0005075f8</t>
-  </si>
-  <si>
-    <t>0xc000507608</t>
+    <t>0xc000200dc0</t>
+  </si>
+  <si>
+    <t>0xc000200db0</t>
+  </si>
+  <si>
+    <t>0xc000200dd0</t>
+  </si>
+  <si>
+    <t>0xc000200de0</t>
+  </si>
+  <si>
+    <t>0xc000200df0</t>
+  </si>
+  <si>
+    <t>0xc00042f898</t>
+  </si>
+  <si>
+    <t>0xc00042f8a8</t>
   </si>
   <si>
     <t>CAP-323</t>
   </si>
   <si>
-    <t>0xc00009c030</t>
-  </si>
-  <si>
-    <t>0xc00009c020</t>
-  </si>
-  <si>
-    <t>0xc00009c040</t>
-  </si>
-  <si>
-    <t>0xc00009c050</t>
-  </si>
-  <si>
-    <t>0xc00009c060</t>
-  </si>
-  <si>
-    <t>0xc000507630</t>
-  </si>
-  <si>
-    <t>0xc000507648</t>
+    <t>0xc000200e20</t>
+  </si>
+  <si>
+    <t>0xc000200e10</t>
+  </si>
+  <si>
+    <t>0xc000200e30</t>
+  </si>
+  <si>
+    <t>0xc000200e40</t>
+  </si>
+  <si>
+    <t>0xc000200e50</t>
+  </si>
+  <si>
+    <t>0xc00042f8d0</t>
+  </si>
+  <si>
+    <t>0xc00042f8e8</t>
   </si>
 </sst>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -19,28 +19,28 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>0xc000286500</t>
+    <t>0xc000280480</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0xc0002864f0</t>
-  </si>
-  <si>
-    <t>0xc000286510</t>
-  </si>
-  <si>
-    <t>0xc000286520</t>
-  </si>
-  <si>
-    <t>0xc000286530</t>
-  </si>
-  <si>
-    <t>0xc0004ca258</t>
-  </si>
-  <si>
-    <t>0xc0004ca288</t>
+    <t>0xc000280470</t>
+  </si>
+  <si>
+    <t>0xc000280490</t>
+  </si>
+  <si>
+    <t>0xc0002804a0</t>
+  </si>
+  <si>
+    <t>0xc0002804b0</t>
+  </si>
+  <si>
+    <t>0xc0003161c8</t>
+  </si>
+  <si>
+    <t>0xc0003161d8</t>
   </si>
   <si>
     <t>PNDT-1372</t>
@@ -52,2377 +52,2377 @@
     <t>G</t>
   </si>
   <si>
-    <t>0xc000286550</t>
-  </si>
-  <si>
-    <t>0xc000286560</t>
-  </si>
-  <si>
-    <t>0xc000286570</t>
-  </si>
-  <si>
-    <t>0xc000286580</t>
-  </si>
-  <si>
-    <t>0xc0004ca350</t>
+    <t>0xc0002804d0</t>
+  </si>
+  <si>
+    <t>0xc0002804e0</t>
+  </si>
+  <si>
+    <t>0xc0002804f0</t>
+  </si>
+  <si>
+    <t>0xc000280500</t>
+  </si>
+  <si>
+    <t>0xc0003161f0</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>0xc0004ca370</t>
+    <t>0xc000316200</t>
   </si>
   <si>
     <t>PNDT-1371</t>
   </si>
   <si>
-    <t>0xc0002865a0</t>
-  </si>
-  <si>
-    <t>0xc0002865b0</t>
-  </si>
-  <si>
-    <t>0xc0002865c0</t>
-  </si>
-  <si>
-    <t>0xc0002865d0</t>
-  </si>
-  <si>
-    <t>0xc0004ca3f0</t>
-  </si>
-  <si>
-    <t>0xc0004ca400</t>
+    <t>0xc000280520</t>
+  </si>
+  <si>
+    <t>0xc000280530</t>
+  </si>
+  <si>
+    <t>0xc000280540</t>
+  </si>
+  <si>
+    <t>0xc000280550</t>
+  </si>
+  <si>
+    <t>0xc000316230</t>
+  </si>
+  <si>
+    <t>0xc000316240</t>
   </si>
   <si>
     <t>PNDT-1368</t>
   </si>
   <si>
-    <t>0xc0002865f0</t>
-  </si>
-  <si>
-    <t>0xc000286600</t>
-  </si>
-  <si>
-    <t>0xc000286610</t>
-  </si>
-  <si>
-    <t>0xc000286620</t>
-  </si>
-  <si>
-    <t>0xc0004ca450</t>
-  </si>
-  <si>
-    <t>0xc0004ca460</t>
+    <t>0xc000280570</t>
+  </si>
+  <si>
+    <t>0xc000280580</t>
+  </si>
+  <si>
+    <t>0xc000280590</t>
+  </si>
+  <si>
+    <t>0xc0002805a0</t>
+  </si>
+  <si>
+    <t>0xc000316270</t>
+  </si>
+  <si>
+    <t>0xc000316280</t>
   </si>
   <si>
     <t>PNDT-1367</t>
   </si>
   <si>
-    <t>0xc000286640</t>
-  </si>
-  <si>
-    <t>0xc000286650</t>
-  </si>
-  <si>
-    <t>0xc000286660</t>
-  </si>
-  <si>
-    <t>0xc000286670</t>
-  </si>
-  <si>
-    <t>0xc0004ca480</t>
-  </si>
-  <si>
-    <t>0xc0004ca4b0</t>
+    <t>0xc0002805c0</t>
+  </si>
+  <si>
+    <t>0xc0002805d0</t>
+  </si>
+  <si>
+    <t>0xc0002805e0</t>
+  </si>
+  <si>
+    <t>0xc0002805f0</t>
+  </si>
+  <si>
+    <t>0xc0003162a0</t>
+  </si>
+  <si>
+    <t>0xc0003162b0</t>
   </si>
   <si>
     <t>"09-22-01</t>
   </si>
   <si>
-    <t>0xc0002866a0</t>
+    <t>0xc000280620</t>
   </si>
   <si>
     <t>PW</t>
   </si>
   <si>
-    <t>0xc000286690</t>
-  </si>
-  <si>
-    <t>0xc0002866b0</t>
-  </si>
-  <si>
-    <t>0xc0002866c0</t>
-  </si>
-  <si>
-    <t>0xc0002866d0</t>
-  </si>
-  <si>
-    <t>0xc0004ca538</t>
-  </si>
-  <si>
-    <t>0xc0004ca548</t>
+    <t>0xc000280610</t>
+  </si>
+  <si>
+    <t>0xc000280630</t>
+  </si>
+  <si>
+    <t>0xc000280640</t>
+  </si>
+  <si>
+    <t>0xc000280650</t>
+  </si>
+  <si>
+    <t>0xc0003162f8</t>
+  </si>
+  <si>
+    <t>0xc000316308</t>
   </si>
   <si>
     <t>"09-22-03</t>
   </si>
   <si>
-    <t>0xc000286700</t>
-  </si>
-  <si>
-    <t>0xc0002866f0</t>
-  </si>
-  <si>
-    <t>0xc000286710</t>
-  </si>
-  <si>
-    <t>0xc000286720</t>
-  </si>
-  <si>
-    <t>0xc000286730</t>
-  </si>
-  <si>
-    <t>0xc0004ca5f0</t>
-  </si>
-  <si>
-    <t>0xc0004ca600</t>
+    <t>0xc000280680</t>
+  </si>
+  <si>
+    <t>0xc000280670</t>
+  </si>
+  <si>
+    <t>0xc000280690</t>
+  </si>
+  <si>
+    <t>0xc0002806a0</t>
+  </si>
+  <si>
+    <t>0xc0002806b0</t>
+  </si>
+  <si>
+    <t>0xc000316340</t>
+  </si>
+  <si>
+    <t>0xc000316350</t>
   </si>
   <si>
     <t>"09-22-04</t>
   </si>
   <si>
-    <t>0xc000286760</t>
-  </si>
-  <si>
-    <t>0xc000286750</t>
-  </si>
-  <si>
-    <t>0xc000286770</t>
-  </si>
-  <si>
-    <t>0xc000286780</t>
-  </si>
-  <si>
-    <t>0xc000286790</t>
-  </si>
-  <si>
-    <t>0xc0004ca658</t>
-  </si>
-  <si>
-    <t>0xc0004ca668</t>
+    <t>0xc0002806e0</t>
+  </si>
+  <si>
+    <t>0xc0002806d0</t>
+  </si>
+  <si>
+    <t>0xc0002806f0</t>
+  </si>
+  <si>
+    <t>0xc000280700</t>
+  </si>
+  <si>
+    <t>0xc000280710</t>
+  </si>
+  <si>
+    <t>0xc000316388</t>
+  </si>
+  <si>
+    <t>0xc000316398</t>
   </si>
   <si>
     <t>"09-22-05</t>
   </si>
   <si>
-    <t>0xc0002867c0</t>
-  </si>
-  <si>
-    <t>0xc0002867b0</t>
-  </si>
-  <si>
-    <t>0xc0002867d0</t>
-  </si>
-  <si>
-    <t>0xc0002867e0</t>
-  </si>
-  <si>
-    <t>0xc0002867f0</t>
-  </si>
-  <si>
-    <t>0xc0004ca698</t>
-  </si>
-  <si>
-    <t>0xc0004ca6a8</t>
+    <t>0xc000280740</t>
+  </si>
+  <si>
+    <t>0xc000280730</t>
+  </si>
+  <si>
+    <t>0xc000280750</t>
+  </si>
+  <si>
+    <t>0xc000280760</t>
+  </si>
+  <si>
+    <t>0xc000280770</t>
+  </si>
+  <si>
+    <t>0xc0003163c8</t>
+  </si>
+  <si>
+    <t>0xc0003163d8</t>
   </si>
   <si>
     <t>"09-22-06</t>
   </si>
   <si>
-    <t>0xc000286820</t>
-  </si>
-  <si>
-    <t>0xc000286810</t>
-  </si>
-  <si>
-    <t>0xc000286830</t>
-  </si>
-  <si>
-    <t>0xc000286840</t>
-  </si>
-  <si>
-    <t>0xc000286850</t>
-  </si>
-  <si>
-    <t>0xc0004ca6e0</t>
-  </si>
-  <si>
-    <t>0xc0004ca6f0</t>
+    <t>0xc0002807a0</t>
+  </si>
+  <si>
+    <t>0xc000280790</t>
+  </si>
+  <si>
+    <t>0xc0002807b0</t>
+  </si>
+  <si>
+    <t>0xc0002807c0</t>
+  </si>
+  <si>
+    <t>0xc0002807d0</t>
+  </si>
+  <si>
+    <t>0xc000316410</t>
+  </si>
+  <si>
+    <t>0xc000316420</t>
   </si>
   <si>
     <t>"09-22-07</t>
   </si>
   <si>
-    <t>0xc000286880</t>
-  </si>
-  <si>
-    <t>0xc000286870</t>
-  </si>
-  <si>
-    <t>0xc000286890</t>
-  </si>
-  <si>
-    <t>0xc0002868a0</t>
-  </si>
-  <si>
-    <t>0xc0002868b0</t>
-  </si>
-  <si>
-    <t>0xc0004ca720</t>
-  </si>
-  <si>
-    <t>0xc0004ca738</t>
+    <t>0xc000280800</t>
+  </si>
+  <si>
+    <t>0xc0002807f0</t>
+  </si>
+  <si>
+    <t>0xc000280810</t>
+  </si>
+  <si>
+    <t>0xc000280820</t>
+  </si>
+  <si>
+    <t>0xc000280830</t>
+  </si>
+  <si>
+    <t>0xc000316450</t>
+  </si>
+  <si>
+    <t>0xc000316468</t>
   </si>
   <si>
     <t>"09-22-08</t>
   </si>
   <si>
-    <t>0xc0002868e0</t>
-  </si>
-  <si>
-    <t>0xc0002868d0</t>
-  </si>
-  <si>
-    <t>0xc0002868f0</t>
-  </si>
-  <si>
-    <t>0xc000286900</t>
-  </si>
-  <si>
-    <t>0xc000286910</t>
-  </si>
-  <si>
-    <t>0xc0004ca760</t>
-  </si>
-  <si>
-    <t>0xc0004ca778</t>
+    <t>0xc000280860</t>
+  </si>
+  <si>
+    <t>0xc000280850</t>
+  </si>
+  <si>
+    <t>0xc000280870</t>
+  </si>
+  <si>
+    <t>0xc000280880</t>
+  </si>
+  <si>
+    <t>0xc000280890</t>
+  </si>
+  <si>
+    <t>0xc000316490</t>
+  </si>
+  <si>
+    <t>0xc0003164a8</t>
   </si>
   <si>
     <t>"09-22-09</t>
   </si>
   <si>
-    <t>0xc000286940</t>
-  </si>
-  <si>
-    <t>0xc000286930</t>
-  </si>
-  <si>
-    <t>0xc000286950</t>
-  </si>
-  <si>
-    <t>0xc000286960</t>
-  </si>
-  <si>
-    <t>0xc000286970</t>
-  </si>
-  <si>
-    <t>0xc0004ca7f8</t>
-  </si>
-  <si>
-    <t>0xc0004ca810</t>
+    <t>0xc0002808c0</t>
+  </si>
+  <si>
+    <t>0xc0002808b0</t>
+  </si>
+  <si>
+    <t>0xc0002808d0</t>
+  </si>
+  <si>
+    <t>0xc0002808e0</t>
+  </si>
+  <si>
+    <t>0xc0002808f0</t>
+  </si>
+  <si>
+    <t>0xc0003164e8</t>
+  </si>
+  <si>
+    <t>0xc000316500</t>
   </si>
   <si>
     <t>"09-22-10</t>
   </si>
   <si>
-    <t>0xc0002869a0</t>
-  </si>
-  <si>
-    <t>0xc000286990</t>
-  </si>
-  <si>
-    <t>0xc0002869b0</t>
-  </si>
-  <si>
-    <t>0xc0002869c0</t>
-  </si>
-  <si>
-    <t>0xc0002869d0</t>
-  </si>
-  <si>
-    <t>0xc0004ca850</t>
-  </si>
-  <si>
-    <t>0xc0004ca868</t>
+    <t>0xc000280920</t>
+  </si>
+  <si>
+    <t>0xc000280910</t>
+  </si>
+  <si>
+    <t>0xc000280930</t>
+  </si>
+  <si>
+    <t>0xc000280940</t>
+  </si>
+  <si>
+    <t>0xc000280950</t>
+  </si>
+  <si>
+    <t>0xc000316540</t>
+  </si>
+  <si>
+    <t>0xc000316558</t>
   </si>
   <si>
     <t>"09-22-11</t>
   </si>
   <si>
-    <t>0xc000286a00</t>
-  </si>
-  <si>
-    <t>0xc0002869f0</t>
-  </si>
-  <si>
-    <t>0xc000286a10</t>
-  </si>
-  <si>
-    <t>0xc000286a20</t>
-  </si>
-  <si>
-    <t>0xc000286a30</t>
-  </si>
-  <si>
-    <t>0xc0004ca8d0</t>
-  </si>
-  <si>
-    <t>0xc0004ca8e8</t>
+    <t>0xc000280980</t>
+  </si>
+  <si>
+    <t>0xc000280970</t>
+  </si>
+  <si>
+    <t>0xc000280990</t>
+  </si>
+  <si>
+    <t>0xc0002809a0</t>
+  </si>
+  <si>
+    <t>0xc0002809b0</t>
+  </si>
+  <si>
+    <t>0xc000316590</t>
+  </si>
+  <si>
+    <t>0xc0003165a8</t>
   </si>
   <si>
     <t>"09-22-12</t>
   </si>
   <si>
-    <t>0xc000286a60</t>
-  </si>
-  <si>
-    <t>0xc000286a50</t>
-  </si>
-  <si>
-    <t>0xc000286a70</t>
-  </si>
-  <si>
-    <t>0xc000286a80</t>
-  </si>
-  <si>
-    <t>0xc000286a90</t>
-  </si>
-  <si>
-    <t>0xc0004ca990</t>
-  </si>
-  <si>
-    <t>0xc0004ca9a8</t>
+    <t>0xc0002809e0</t>
+  </si>
+  <si>
+    <t>0xc0002809d0</t>
+  </si>
+  <si>
+    <t>0xc0002809f0</t>
+  </si>
+  <si>
+    <t>0xc000280a00</t>
+  </si>
+  <si>
+    <t>0xc000280a10</t>
+  </si>
+  <si>
+    <t>0xc0003165f0</t>
+  </si>
+  <si>
+    <t>0xc000316608</t>
   </si>
   <si>
     <t>"09-22-13</t>
   </si>
   <si>
-    <t>0xc000286ac0</t>
-  </si>
-  <si>
-    <t>0xc000286ab0</t>
-  </si>
-  <si>
-    <t>0xc000286ad0</t>
-  </si>
-  <si>
-    <t>0xc000286ae0</t>
-  </si>
-  <si>
-    <t>0xc000286af0</t>
-  </si>
-  <si>
-    <t>0xc0004caa70</t>
-  </si>
-  <si>
-    <t>0xc0004caa80</t>
+    <t>0xc000280a40</t>
+  </si>
+  <si>
+    <t>0xc000280a30</t>
+  </si>
+  <si>
+    <t>0xc000280a50</t>
+  </si>
+  <si>
+    <t>0xc000280a60</t>
+  </si>
+  <si>
+    <t>0xc000280a70</t>
+  </si>
+  <si>
+    <t>0xc000316640</t>
+  </si>
+  <si>
+    <t>0xc000316650</t>
   </si>
   <si>
     <t>"09-22-14</t>
   </si>
   <si>
-    <t>0xc000286b20</t>
-  </si>
-  <si>
-    <t>0xc000286b10</t>
-  </si>
-  <si>
-    <t>0xc000286b30</t>
-  </si>
-  <si>
-    <t>0xc000286b40</t>
-  </si>
-  <si>
-    <t>0xc000286b50</t>
-  </si>
-  <si>
-    <t>0xc0004cab00</t>
-  </si>
-  <si>
-    <t>0xc0004cab10</t>
+    <t>0xc000280aa0</t>
+  </si>
+  <si>
+    <t>0xc000280a90</t>
+  </si>
+  <si>
+    <t>0xc000280ab0</t>
+  </si>
+  <si>
+    <t>0xc000280ac0</t>
+  </si>
+  <si>
+    <t>0xc000280ad0</t>
+  </si>
+  <si>
+    <t>0xc0003166a0</t>
+  </si>
+  <si>
+    <t>0xc0003166b0</t>
   </si>
   <si>
     <t>"09-22-15</t>
   </si>
   <si>
-    <t>0xc000286b80</t>
-  </si>
-  <si>
-    <t>0xc000286b70</t>
-  </si>
-  <si>
-    <t>0xc000286b90</t>
-  </si>
-  <si>
-    <t>0xc000286ba0</t>
-  </si>
-  <si>
-    <t>0xc000286bb0</t>
-  </si>
-  <si>
-    <t>0xc0004cabf0</t>
-  </si>
-  <si>
-    <t>0xc0004cac08</t>
+    <t>0xc000280b00</t>
+  </si>
+  <si>
+    <t>0xc000280af0</t>
+  </si>
+  <si>
+    <t>0xc000280b10</t>
+  </si>
+  <si>
+    <t>0xc000280b20</t>
+  </si>
+  <si>
+    <t>0xc000280b30</t>
+  </si>
+  <si>
+    <t>0xc0003166e0</t>
+  </si>
+  <si>
+    <t>0xc0003166f8</t>
   </si>
   <si>
     <t>"09-22-16</t>
   </si>
   <si>
-    <t>0xc000286be0</t>
-  </si>
-  <si>
-    <t>0xc000286bd0</t>
-  </si>
-  <si>
-    <t>0xc000286bf0</t>
-  </si>
-  <si>
-    <t>0xc000286c00</t>
-  </si>
-  <si>
-    <t>0xc000286c10</t>
-  </si>
-  <si>
-    <t>0xc0004cacb0</t>
-  </si>
-  <si>
-    <t>0xc0004cacc0</t>
+    <t>0xc000280b60</t>
+  </si>
+  <si>
+    <t>0xc000280b50</t>
+  </si>
+  <si>
+    <t>0xc000280b70</t>
+  </si>
+  <si>
+    <t>0xc000280b80</t>
+  </si>
+  <si>
+    <t>0xc000280b90</t>
+  </si>
+  <si>
+    <t>0xc000316730</t>
+  </si>
+  <si>
+    <t>0xc000316740</t>
   </si>
   <si>
     <t>"09-22-17</t>
   </si>
   <si>
-    <t>0xc000286c40</t>
-  </si>
-  <si>
-    <t>0xc000286c30</t>
-  </si>
-  <si>
-    <t>0xc000286c50</t>
-  </si>
-  <si>
-    <t>0xc000286c60</t>
-  </si>
-  <si>
-    <t>0xc000286c70</t>
-  </si>
-  <si>
-    <t>0xc0004cad50</t>
-  </si>
-  <si>
-    <t>0xc0004cad68</t>
+    <t>0xc000280bc0</t>
+  </si>
+  <si>
+    <t>0xc000280bb0</t>
+  </si>
+  <si>
+    <t>0xc000280bd0</t>
+  </si>
+  <si>
+    <t>0xc000280be0</t>
+  </si>
+  <si>
+    <t>0xc000280bf0</t>
+  </si>
+  <si>
+    <t>0xc000316790</t>
+  </si>
+  <si>
+    <t>0xc0003167a8</t>
   </si>
   <si>
     <t>"09-22-18</t>
   </si>
   <si>
-    <t>0xc000286ca0</t>
-  </si>
-  <si>
-    <t>0xc000286c90</t>
-  </si>
-  <si>
-    <t>0xc000286cb0</t>
-  </si>
-  <si>
-    <t>0xc000286cc0</t>
-  </si>
-  <si>
-    <t>0xc000286cd0</t>
-  </si>
-  <si>
-    <t>0xc0004cae10</t>
-  </si>
-  <si>
-    <t>0xc0004cae20</t>
+    <t>0xc000280c20</t>
+  </si>
+  <si>
+    <t>0xc000280c10</t>
+  </si>
+  <si>
+    <t>0xc000280c30</t>
+  </si>
+  <si>
+    <t>0xc000280c40</t>
+  </si>
+  <si>
+    <t>0xc000280c50</t>
+  </si>
+  <si>
+    <t>0xc0003167e0</t>
+  </si>
+  <si>
+    <t>0xc0003167f0</t>
   </si>
   <si>
     <t>"09-22-19</t>
   </si>
   <si>
-    <t>0xc000286d00</t>
-  </si>
-  <si>
-    <t>0xc000286cf0</t>
-  </si>
-  <si>
-    <t>0xc000286d10</t>
-  </si>
-  <si>
-    <t>0xc000286d20</t>
-  </si>
-  <si>
-    <t>0xc000286d30</t>
-  </si>
-  <si>
-    <t>0xc0004cae60</t>
-  </si>
-  <si>
-    <t>0xc0004cae70</t>
+    <t>0xc000280c80</t>
+  </si>
+  <si>
+    <t>0xc000280c70</t>
+  </si>
+  <si>
+    <t>0xc000280c90</t>
+  </si>
+  <si>
+    <t>0xc000280ca0</t>
+  </si>
+  <si>
+    <t>0xc000280cb0</t>
+  </si>
+  <si>
+    <t>0xc000316830</t>
+  </si>
+  <si>
+    <t>0xc000316840</t>
   </si>
   <si>
     <t>07-22-01</t>
   </si>
   <si>
-    <t>0xc000286d60</t>
+    <t>0xc000280ce0</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>0xc000286d50</t>
-  </si>
-  <si>
-    <t>0xc000286d70</t>
-  </si>
-  <si>
-    <t>0xc000286d80</t>
-  </si>
-  <si>
-    <t>0xc000286d90</t>
-  </si>
-  <si>
-    <t>0xc0004cae90</t>
-  </si>
-  <si>
-    <t>0xc0004caea0</t>
+    <t>0xc000280cd0</t>
+  </si>
+  <si>
+    <t>0xc000280cf0</t>
+  </si>
+  <si>
+    <t>0xc000280d00</t>
+  </si>
+  <si>
+    <t>0xc000280d10</t>
+  </si>
+  <si>
+    <t>0xc000316860</t>
+  </si>
+  <si>
+    <t>0xc000316870</t>
   </si>
   <si>
     <t>07-22-02</t>
   </si>
   <si>
-    <t>0xc000286dc0</t>
-  </si>
-  <si>
-    <t>0xc000286db0</t>
-  </si>
-  <si>
-    <t>0xc000286dd0</t>
-  </si>
-  <si>
-    <t>0xc000286de0</t>
-  </si>
-  <si>
-    <t>0xc000286df0</t>
-  </si>
-  <si>
-    <t>0xc0004caeb0</t>
-  </si>
-  <si>
-    <t>0xc0004caec0</t>
+    <t>0xc000280d40</t>
+  </si>
+  <si>
+    <t>0xc000280d30</t>
+  </si>
+  <si>
+    <t>0xc000280d50</t>
+  </si>
+  <si>
+    <t>0xc000280d60</t>
+  </si>
+  <si>
+    <t>0xc000280d70</t>
+  </si>
+  <si>
+    <t>0xc000316880</t>
+  </si>
+  <si>
+    <t>0xc000316890</t>
   </si>
   <si>
     <t>07-22-03</t>
   </si>
   <si>
-    <t>0xc000286e20</t>
-  </si>
-  <si>
-    <t>0xc000286e10</t>
-  </si>
-  <si>
-    <t>0xc000286e30</t>
-  </si>
-  <si>
-    <t>0xc000286e40</t>
-  </si>
-  <si>
-    <t>0xc000286e50</t>
-  </si>
-  <si>
-    <t>0xc0004caed0</t>
-  </si>
-  <si>
-    <t>0xc0004caee0</t>
+    <t>0xc000280da0</t>
+  </si>
+  <si>
+    <t>0xc000280d90</t>
+  </si>
+  <si>
+    <t>0xc000280db0</t>
+  </si>
+  <si>
+    <t>0xc000280dc0</t>
+  </si>
+  <si>
+    <t>0xc000280dd0</t>
+  </si>
+  <si>
+    <t>0xc0003168a0</t>
+  </si>
+  <si>
+    <t>0xc0003168b0</t>
   </si>
   <si>
     <t>07-22-04</t>
   </si>
   <si>
-    <t>0xc000286e80</t>
-  </si>
-  <si>
-    <t>0xc000286e70</t>
-  </si>
-  <si>
-    <t>0xc000286e90</t>
-  </si>
-  <si>
-    <t>0xc000286ea0</t>
-  </si>
-  <si>
-    <t>0xc000286eb0</t>
-  </si>
-  <si>
-    <t>0xc0004caf00</t>
-  </si>
-  <si>
-    <t>0xc0004caf10</t>
+    <t>0xc000280e00</t>
+  </si>
+  <si>
+    <t>0xc000280df0</t>
+  </si>
+  <si>
+    <t>0xc000280e10</t>
+  </si>
+  <si>
+    <t>0xc000280e20</t>
+  </si>
+  <si>
+    <t>0xc000280e30</t>
+  </si>
+  <si>
+    <t>0xc0003168d0</t>
+  </si>
+  <si>
+    <t>0xc0003168e0</t>
   </si>
   <si>
     <t>07-22-05</t>
   </si>
   <si>
-    <t>0xc000286ee0</t>
-  </si>
-  <si>
-    <t>0xc000286ed0</t>
-  </si>
-  <si>
-    <t>0xc000286ef0</t>
-  </si>
-  <si>
-    <t>0xc000286f00</t>
-  </si>
-  <si>
-    <t>0xc000286f10</t>
-  </si>
-  <si>
-    <t>0xc0004caf20</t>
-  </si>
-  <si>
-    <t>0xc0004caf30</t>
+    <t>0xc000280e60</t>
+  </si>
+  <si>
+    <t>0xc000280e50</t>
+  </si>
+  <si>
+    <t>0xc000280e70</t>
+  </si>
+  <si>
+    <t>0xc000280e80</t>
+  </si>
+  <si>
+    <t>0xc000280e90</t>
+  </si>
+  <si>
+    <t>0xc0003168f0</t>
+  </si>
+  <si>
+    <t>0xc000316900</t>
   </si>
   <si>
     <t>07-22-06</t>
   </si>
   <si>
-    <t>0xc000286f40</t>
-  </si>
-  <si>
-    <t>0xc000286f30</t>
-  </si>
-  <si>
-    <t>0xc000286f50</t>
-  </si>
-  <si>
-    <t>0xc000286f60</t>
-  </si>
-  <si>
-    <t>0xc000286f70</t>
-  </si>
-  <si>
-    <t>0xc0004cb010</t>
-  </si>
-  <si>
-    <t>0xc0004cb0e0</t>
+    <t>0xc000280ec0</t>
+  </si>
+  <si>
+    <t>0xc000280eb0</t>
+  </si>
+  <si>
+    <t>0xc000280ed0</t>
+  </si>
+  <si>
+    <t>0xc000280ee0</t>
+  </si>
+  <si>
+    <t>0xc000280ef0</t>
+  </si>
+  <si>
+    <t>0xc000316920</t>
+  </si>
+  <si>
+    <t>0xc000316930</t>
   </si>
   <si>
     <t>07-22-07</t>
   </si>
   <si>
-    <t>0xc000286fa0</t>
-  </si>
-  <si>
-    <t>0xc000286f90</t>
-  </si>
-  <si>
-    <t>0xc000286fb0</t>
-  </si>
-  <si>
-    <t>0xc000286fc0</t>
-  </si>
-  <si>
-    <t>0xc000286fd0</t>
-  </si>
-  <si>
-    <t>0xc0004cb210</t>
-  </si>
-  <si>
-    <t>0xc0004cb220</t>
+    <t>0xc000280f20</t>
+  </si>
+  <si>
+    <t>0xc000280f10</t>
+  </si>
+  <si>
+    <t>0xc000280f30</t>
+  </si>
+  <si>
+    <t>0xc000280f40</t>
+  </si>
+  <si>
+    <t>0xc000280f50</t>
+  </si>
+  <si>
+    <t>0xc000316950</t>
+  </si>
+  <si>
+    <t>0xc000316960</t>
   </si>
   <si>
     <t>07-22-08</t>
   </si>
   <si>
-    <t>0xc000287000</t>
-  </si>
-  <si>
-    <t>0xc000286ff0</t>
-  </si>
-  <si>
-    <t>0xc000287010</t>
-  </si>
-  <si>
-    <t>0xc000287020</t>
-  </si>
-  <si>
-    <t>0xc000287030</t>
-  </si>
-  <si>
-    <t>0xc0004cb270</t>
-  </si>
-  <si>
-    <t>0xc0004cb280</t>
+    <t>0xc000280f80</t>
+  </si>
+  <si>
+    <t>0xc000280f70</t>
+  </si>
+  <si>
+    <t>0xc000280f90</t>
+  </si>
+  <si>
+    <t>0xc000280fa0</t>
+  </si>
+  <si>
+    <t>0xc000280fb0</t>
+  </si>
+  <si>
+    <t>0xc000316990</t>
+  </si>
+  <si>
+    <t>0xc0003169a0</t>
   </si>
   <si>
     <t>07-22-09</t>
   </si>
   <si>
-    <t>0xc000287060</t>
-  </si>
-  <si>
-    <t>0xc000287050</t>
-  </si>
-  <si>
-    <t>0xc000287070</t>
-  </si>
-  <si>
-    <t>0xc000287080</t>
-  </si>
-  <si>
-    <t>0xc000287090</t>
-  </si>
-  <si>
-    <t>0xc0004cb340</t>
-  </si>
-  <si>
-    <t>0xc0004cb350</t>
+    <t>0xc000280fe0</t>
+  </si>
+  <si>
+    <t>0xc000280fd0</t>
+  </si>
+  <si>
+    <t>0xc000280ff0</t>
+  </si>
+  <si>
+    <t>0xc000281000</t>
+  </si>
+  <si>
+    <t>0xc000281010</t>
+  </si>
+  <si>
+    <t>0xc0003169c0</t>
+  </si>
+  <si>
+    <t>0xc0003169d0</t>
   </si>
   <si>
     <t>07-22-10</t>
   </si>
   <si>
-    <t>0xc0002870c0</t>
-  </si>
-  <si>
-    <t>0xc0002870b0</t>
-  </si>
-  <si>
-    <t>0xc0002870d0</t>
-  </si>
-  <si>
-    <t>0xc0002870e0</t>
-  </si>
-  <si>
-    <t>0xc0002870f0</t>
-  </si>
-  <si>
-    <t>0xc0004cb390</t>
-  </si>
-  <si>
-    <t>0xc0004cb3a0</t>
+    <t>0xc000281040</t>
+  </si>
+  <si>
+    <t>0xc000281030</t>
+  </si>
+  <si>
+    <t>0xc000281050</t>
+  </si>
+  <si>
+    <t>0xc000281060</t>
+  </si>
+  <si>
+    <t>0xc000281070</t>
+  </si>
+  <si>
+    <t>0xc000316a00</t>
+  </si>
+  <si>
+    <t>0xc000316a10</t>
   </si>
   <si>
     <t>07-22-11</t>
   </si>
   <si>
-    <t>0xc000287120</t>
-  </si>
-  <si>
-    <t>0xc000287110</t>
-  </si>
-  <si>
-    <t>0xc000287130</t>
-  </si>
-  <si>
-    <t>0xc000287140</t>
-  </si>
-  <si>
-    <t>0xc000287150</t>
-  </si>
-  <si>
-    <t>0xc0004cb430</t>
-  </si>
-  <si>
-    <t>0xc0004cb440</t>
+    <t>0xc0002810a0</t>
+  </si>
+  <si>
+    <t>0xc000281090</t>
+  </si>
+  <si>
+    <t>0xc0002810b0</t>
+  </si>
+  <si>
+    <t>0xc0002810c0</t>
+  </si>
+  <si>
+    <t>0xc0002810d0</t>
+  </si>
+  <si>
+    <t>0xc000316a40</t>
+  </si>
+  <si>
+    <t>0xc000316a50</t>
   </si>
   <si>
     <t>07-22-12</t>
   </si>
   <si>
-    <t>0xc000287180</t>
-  </si>
-  <si>
-    <t>0xc000287170</t>
-  </si>
-  <si>
-    <t>0xc000287190</t>
-  </si>
-  <si>
-    <t>0xc0002871a0</t>
-  </si>
-  <si>
-    <t>0xc0002871b0</t>
-  </si>
-  <si>
-    <t>0xc0004cb4b0</t>
-  </si>
-  <si>
-    <t>0xc0004cb4e0</t>
+    <t>0xc000281100</t>
+  </si>
+  <si>
+    <t>0xc0002810f0</t>
+  </si>
+  <si>
+    <t>0xc000281110</t>
+  </si>
+  <si>
+    <t>0xc000281120</t>
+  </si>
+  <si>
+    <t>0xc000281130</t>
+  </si>
+  <si>
+    <t>0xc000316a80</t>
+  </si>
+  <si>
+    <t>0xc000316a90</t>
   </si>
   <si>
     <t>07-22-13</t>
   </si>
   <si>
-    <t>0xc0002871e0</t>
-  </si>
-  <si>
-    <t>0xc0002871d0</t>
-  </si>
-  <si>
-    <t>0xc0002871f0</t>
-  </si>
-  <si>
-    <t>0xc000287200</t>
-  </si>
-  <si>
-    <t>0xc000287210</t>
-  </si>
-  <si>
-    <t>0xc0004cb510</t>
-  </si>
-  <si>
-    <t>0xc0004cb520</t>
+    <t>0xc000281160</t>
+  </si>
+  <si>
+    <t>0xc000281150</t>
+  </si>
+  <si>
+    <t>0xc000281170</t>
+  </si>
+  <si>
+    <t>0xc000281180</t>
+  </si>
+  <si>
+    <t>0xc000281190</t>
+  </si>
+  <si>
+    <t>0xc000316ab0</t>
+  </si>
+  <si>
+    <t>0xc000316ac0</t>
   </si>
   <si>
     <t>07-22-14</t>
   </si>
   <si>
-    <t>0xc000287240</t>
-  </si>
-  <si>
-    <t>0xc000287230</t>
-  </si>
-  <si>
-    <t>0xc000287250</t>
-  </si>
-  <si>
-    <t>0xc000287260</t>
-  </si>
-  <si>
-    <t>0xc000287270</t>
-  </si>
-  <si>
-    <t>0xc0004cb580</t>
-  </si>
-  <si>
-    <t>0xc0004cb5a0</t>
+    <t>0xc0002811c0</t>
+  </si>
+  <si>
+    <t>0xc0002811b0</t>
+  </si>
+  <si>
+    <t>0xc0002811d0</t>
+  </si>
+  <si>
+    <t>0xc0002811e0</t>
+  </si>
+  <si>
+    <t>0xc0002811f0</t>
+  </si>
+  <si>
+    <t>0xc000316af0</t>
+  </si>
+  <si>
+    <t>0xc000316b00</t>
   </si>
   <si>
     <t>07-22-15</t>
   </si>
   <si>
-    <t>0xc0002872a0</t>
-  </si>
-  <si>
-    <t>0xc000287290</t>
-  </si>
-  <si>
-    <t>0xc0002872b0</t>
-  </si>
-  <si>
-    <t>0xc0002872c0</t>
-  </si>
-  <si>
-    <t>0xc0002872d0</t>
-  </si>
-  <si>
-    <t>0xc0004cb5c0</t>
-  </si>
-  <si>
-    <t>0xc0004cb5e0</t>
+    <t>0xc000281220</t>
+  </si>
+  <si>
+    <t>0xc000281210</t>
+  </si>
+  <si>
+    <t>0xc000281230</t>
+  </si>
+  <si>
+    <t>0xc000281240</t>
+  </si>
+  <si>
+    <t>0xc000281250</t>
+  </si>
+  <si>
+    <t>0xc000316b20</t>
+  </si>
+  <si>
+    <t>0xc000316b30</t>
   </si>
   <si>
     <t>07-22-16</t>
   </si>
   <si>
-    <t>0xc000287300</t>
-  </si>
-  <si>
-    <t>0xc0002872f0</t>
-  </si>
-  <si>
-    <t>0xc000287310</t>
-  </si>
-  <si>
-    <t>0xc000287320</t>
-  </si>
-  <si>
-    <t>0xc000287330</t>
-  </si>
-  <si>
-    <t>0xc0004cb600</t>
-  </si>
-  <si>
-    <t>0xc0004cb610</t>
+    <t>0xc000281280</t>
+  </si>
+  <si>
+    <t>0xc000281270</t>
+  </si>
+  <si>
+    <t>0xc000281290</t>
+  </si>
+  <si>
+    <t>0xc0002812a0</t>
+  </si>
+  <si>
+    <t>0xc0002812b0</t>
+  </si>
+  <si>
+    <t>0xc000316b50</t>
+  </si>
+  <si>
+    <t>0xc000316b60</t>
   </si>
   <si>
     <t>07-22-17</t>
   </si>
   <si>
-    <t>0xc000287360</t>
-  </si>
-  <si>
-    <t>0xc000287350</t>
-  </si>
-  <si>
-    <t>0xc000287370</t>
-  </si>
-  <si>
-    <t>0xc000287380</t>
-  </si>
-  <si>
-    <t>0xc000287390</t>
-  </si>
-  <si>
-    <t>0xc0004cb640</t>
-  </si>
-  <si>
-    <t>0xc0004cb650</t>
+    <t>0xc0002812e0</t>
+  </si>
+  <si>
+    <t>0xc0002812d0</t>
+  </si>
+  <si>
+    <t>0xc0002812f0</t>
+  </si>
+  <si>
+    <t>0xc000281300</t>
+  </si>
+  <si>
+    <t>0xc000281310</t>
+  </si>
+  <si>
+    <t>0xc000316b90</t>
+  </si>
+  <si>
+    <t>0xc000316ba0</t>
   </si>
   <si>
     <t>07-22-18</t>
   </si>
   <si>
-    <t>0xc0002873c0</t>
-  </si>
-  <si>
-    <t>0xc0002873b0</t>
-  </si>
-  <si>
-    <t>0xc0002873d0</t>
-  </si>
-  <si>
-    <t>0xc0002873e0</t>
-  </si>
-  <si>
-    <t>0xc0002873f0</t>
-  </si>
-  <si>
-    <t>0xc0004cb680</t>
-  </si>
-  <si>
-    <t>0xc0004cb690</t>
+    <t>0xc000281340</t>
+  </si>
+  <si>
+    <t>0xc000281330</t>
+  </si>
+  <si>
+    <t>0xc000281350</t>
+  </si>
+  <si>
+    <t>0xc000281360</t>
+  </si>
+  <si>
+    <t>0xc000281370</t>
+  </si>
+  <si>
+    <t>0xc000316bd0</t>
+  </si>
+  <si>
+    <t>0xc000316be0</t>
   </si>
   <si>
     <t>07-22-19</t>
   </si>
   <si>
-    <t>0xc000287420</t>
-  </si>
-  <si>
-    <t>0xc000287410</t>
-  </si>
-  <si>
-    <t>0xc000287430</t>
-  </si>
-  <si>
-    <t>0xc000287440</t>
-  </si>
-  <si>
-    <t>0xc000287450</t>
-  </si>
-  <si>
-    <t>0xc0004cb6b0</t>
-  </si>
-  <si>
-    <t>0xc0004cb6c0</t>
+    <t>0xc0002813a0</t>
+  </si>
+  <si>
+    <t>0xc000281390</t>
+  </si>
+  <si>
+    <t>0xc0002813b0</t>
+  </si>
+  <si>
+    <t>0xc0002813c0</t>
+  </si>
+  <si>
+    <t>0xc0002813d0</t>
+  </si>
+  <si>
+    <t>0xc000316c00</t>
+  </si>
+  <si>
+    <t>0xc000316c10</t>
   </si>
   <si>
     <t>07-22-20</t>
   </si>
   <si>
-    <t>0xc000287480</t>
-  </si>
-  <si>
-    <t>0xc000287470</t>
-  </si>
-  <si>
-    <t>0xc000287490</t>
-  </si>
-  <si>
-    <t>0xc0002874a0</t>
-  </si>
-  <si>
-    <t>0xc0002874b0</t>
-  </si>
-  <si>
-    <t>0xc0004cb6f0</t>
-  </si>
-  <si>
-    <t>0xc0004cb700</t>
+    <t>0xc000281400</t>
+  </si>
+  <si>
+    <t>0xc0002813f0</t>
+  </si>
+  <si>
+    <t>0xc000281410</t>
+  </si>
+  <si>
+    <t>0xc000281420</t>
+  </si>
+  <si>
+    <t>0xc000281430</t>
+  </si>
+  <si>
+    <t>0xc000316c40</t>
+  </si>
+  <si>
+    <t>0xc000316c50</t>
   </si>
   <si>
     <t>07-22-21</t>
   </si>
   <si>
-    <t>0xc0002874e0</t>
-  </si>
-  <si>
-    <t>0xc0002874d0</t>
-  </si>
-  <si>
-    <t>0xc0002874f0</t>
-  </si>
-  <si>
-    <t>0xc000287500</t>
-  </si>
-  <si>
-    <t>0xc000287510</t>
-  </si>
-  <si>
-    <t>0xc0004cb730</t>
-  </si>
-  <si>
-    <t>0xc0004cb740</t>
+    <t>0xc000281460</t>
+  </si>
+  <si>
+    <t>0xc000281450</t>
+  </si>
+  <si>
+    <t>0xc000281470</t>
+  </si>
+  <si>
+    <t>0xc000281480</t>
+  </si>
+  <si>
+    <t>0xc000281490</t>
+  </si>
+  <si>
+    <t>0xc000316c80</t>
+  </si>
+  <si>
+    <t>0xc000316c90</t>
   </si>
   <si>
     <t>08-22-01</t>
   </si>
   <si>
-    <t>0xc000287540</t>
-  </si>
-  <si>
-    <t>0xc000287530</t>
-  </si>
-  <si>
-    <t>0xc000287550</t>
-  </si>
-  <si>
-    <t>0xc000287560</t>
-  </si>
-  <si>
-    <t>0xc000287570</t>
-  </si>
-  <si>
-    <t>0xc0004cb760</t>
-  </si>
-  <si>
-    <t>0xc0004cb770</t>
+    <t>0xc0002814c0</t>
+  </si>
+  <si>
+    <t>0xc0002814b0</t>
+  </si>
+  <si>
+    <t>0xc0002814d0</t>
+  </si>
+  <si>
+    <t>0xc0002814e0</t>
+  </si>
+  <si>
+    <t>0xc0002814f0</t>
+  </si>
+  <si>
+    <t>0xc000316cb0</t>
+  </si>
+  <si>
+    <t>0xc000316cc0</t>
   </si>
   <si>
     <t>08-22-02</t>
   </si>
   <si>
-    <t>0xc0002875a0</t>
-  </si>
-  <si>
-    <t>0xc000287590</t>
-  </si>
-  <si>
-    <t>0xc0002875b0</t>
-  </si>
-  <si>
-    <t>0xc0002875c0</t>
-  </si>
-  <si>
-    <t>0xc0002875d0</t>
-  </si>
-  <si>
-    <t>0xc0004cb790</t>
-  </si>
-  <si>
-    <t>0xc0004cb7a0</t>
+    <t>0xc000281520</t>
+  </si>
+  <si>
+    <t>0xc000281510</t>
+  </si>
+  <si>
+    <t>0xc000281530</t>
+  </si>
+  <si>
+    <t>0xc000281540</t>
+  </si>
+  <si>
+    <t>0xc000281550</t>
+  </si>
+  <si>
+    <t>0xc000316ce0</t>
+  </si>
+  <si>
+    <t>0xc000316cf0</t>
   </si>
   <si>
     <t>08-22-03</t>
   </si>
   <si>
-    <t>0xc000287600</t>
-  </si>
-  <si>
-    <t>0xc0002875f0</t>
-  </si>
-  <si>
-    <t>0xc000287610</t>
-  </si>
-  <si>
-    <t>0xc000287620</t>
-  </si>
-  <si>
-    <t>0xc000287630</t>
-  </si>
-  <si>
-    <t>0xc0004cb7b8</t>
-  </si>
-  <si>
-    <t>0xc0004cb7c8</t>
+    <t>0xc000281580</t>
+  </si>
+  <si>
+    <t>0xc000281570</t>
+  </si>
+  <si>
+    <t>0xc000281590</t>
+  </si>
+  <si>
+    <t>0xc0002815a0</t>
+  </si>
+  <si>
+    <t>0xc0002815b0</t>
+  </si>
+  <si>
+    <t>0xc000316d08</t>
+  </si>
+  <si>
+    <t>0xc000316d18</t>
   </si>
   <si>
     <t>08-22-04</t>
   </si>
   <si>
-    <t>0xc000287660</t>
-  </si>
-  <si>
-    <t>0xc000287650</t>
-  </si>
-  <si>
-    <t>0xc000287670</t>
-  </si>
-  <si>
-    <t>0xc000287680</t>
-  </si>
-  <si>
-    <t>0xc000287690</t>
-  </si>
-  <si>
-    <t>0xc0004cb7f0</t>
-  </si>
-  <si>
-    <t>0xc0004cb800</t>
+    <t>0xc0002815e0</t>
+  </si>
+  <si>
+    <t>0xc0002815d0</t>
+  </si>
+  <si>
+    <t>0xc0002815f0</t>
+  </si>
+  <si>
+    <t>0xc000281600</t>
+  </si>
+  <si>
+    <t>0xc000281610</t>
+  </si>
+  <si>
+    <t>0xc000316d40</t>
+  </si>
+  <si>
+    <t>0xc000316d50</t>
   </si>
   <si>
     <t>08-22-05</t>
   </si>
   <si>
-    <t>0xc0002876c0</t>
-  </si>
-  <si>
-    <t>0xc0002876b0</t>
-  </si>
-  <si>
-    <t>0xc0002876d0</t>
-  </si>
-  <si>
-    <t>0xc0002876e0</t>
-  </si>
-  <si>
-    <t>0xc0002876f0</t>
-  </si>
-  <si>
-    <t>0xc0004cb818</t>
-  </si>
-  <si>
-    <t>0xc0004cb828</t>
+    <t>0xc000281640</t>
+  </si>
+  <si>
+    <t>0xc000281630</t>
+  </si>
+  <si>
+    <t>0xc000281650</t>
+  </si>
+  <si>
+    <t>0xc000281660</t>
+  </si>
+  <si>
+    <t>0xc000281670</t>
+  </si>
+  <si>
+    <t>0xc000316d68</t>
+  </si>
+  <si>
+    <t>0xc000316d78</t>
   </si>
   <si>
     <t>08-22-06</t>
   </si>
   <si>
-    <t>0xc000287720</t>
-  </si>
-  <si>
-    <t>0xc000287710</t>
-  </si>
-  <si>
-    <t>0xc000287730</t>
-  </si>
-  <si>
-    <t>0xc000287740</t>
-  </si>
-  <si>
-    <t>0xc000287750</t>
-  </si>
-  <si>
-    <t>0xc0004cb840</t>
-  </si>
-  <si>
-    <t>0xc0004cb850</t>
+    <t>0xc0002816a0</t>
+  </si>
+  <si>
+    <t>0xc000281690</t>
+  </si>
+  <si>
+    <t>0xc0002816b0</t>
+  </si>
+  <si>
+    <t>0xc0002816c0</t>
+  </si>
+  <si>
+    <t>0xc0002816d0</t>
+  </si>
+  <si>
+    <t>0xc000316d90</t>
+  </si>
+  <si>
+    <t>0xc000316da0</t>
   </si>
   <si>
     <t>08-22-07</t>
   </si>
   <si>
-    <t>0xc000287780</t>
-  </si>
-  <si>
-    <t>0xc000287770</t>
-  </si>
-  <si>
-    <t>0xc000287790</t>
-  </si>
-  <si>
-    <t>0xc0002877a0</t>
-  </si>
-  <si>
-    <t>0xc0002877b0</t>
-  </si>
-  <si>
-    <t>0xc0004cb870</t>
-  </si>
-  <si>
-    <t>0xc0004cb880</t>
+    <t>0xc000281700</t>
+  </si>
+  <si>
+    <t>0xc0002816f0</t>
+  </si>
+  <si>
+    <t>0xc000281710</t>
+  </si>
+  <si>
+    <t>0xc000281720</t>
+  </si>
+  <si>
+    <t>0xc000281730</t>
+  </si>
+  <si>
+    <t>0xc000316dc0</t>
+  </si>
+  <si>
+    <t>0xc000316dd0</t>
   </si>
   <si>
     <t>08-22-08</t>
   </si>
   <si>
-    <t>0xc0002877e0</t>
-  </si>
-  <si>
-    <t>0xc0002877d0</t>
-  </si>
-  <si>
-    <t>0xc0002877f0</t>
-  </si>
-  <si>
-    <t>0xc000287800</t>
-  </si>
-  <si>
-    <t>0xc000287810</t>
-  </si>
-  <si>
-    <t>0xc0004cb8a0</t>
-  </si>
-  <si>
-    <t>0xc0004cb8b0</t>
+    <t>0xc000281760</t>
+  </si>
+  <si>
+    <t>0xc000281750</t>
+  </si>
+  <si>
+    <t>0xc000281770</t>
+  </si>
+  <si>
+    <t>0xc000281780</t>
+  </si>
+  <si>
+    <t>0xc000281790</t>
+  </si>
+  <si>
+    <t>0xc000316df0</t>
+  </si>
+  <si>
+    <t>0xc000316e00</t>
   </si>
   <si>
     <t>08-22-09</t>
   </si>
   <si>
-    <t>0xc000287840</t>
-  </si>
-  <si>
-    <t>0xc000287830</t>
-  </si>
-  <si>
-    <t>0xc000287850</t>
-  </si>
-  <si>
-    <t>0xc000287860</t>
-  </si>
-  <si>
-    <t>0xc000287870</t>
-  </si>
-  <si>
-    <t>0xc0004cb8d0</t>
-  </si>
-  <si>
-    <t>0xc0004cb8e0</t>
+    <t>0xc0002817c0</t>
+  </si>
+  <si>
+    <t>0xc0002817b0</t>
+  </si>
+  <si>
+    <t>0xc0002817d0</t>
+  </si>
+  <si>
+    <t>0xc0002817e0</t>
+  </si>
+  <si>
+    <t>0xc0002817f0</t>
+  </si>
+  <si>
+    <t>0xc000316e20</t>
+  </si>
+  <si>
+    <t>0xc000316e30</t>
   </si>
   <si>
     <t>08-22-10</t>
   </si>
   <si>
-    <t>0xc0002878a0</t>
-  </si>
-  <si>
-    <t>0xc000287890</t>
-  </si>
-  <si>
-    <t>0xc0002878b0</t>
-  </si>
-  <si>
-    <t>0xc0002878c0</t>
-  </si>
-  <si>
-    <t>0xc0002878d0</t>
-  </si>
-  <si>
-    <t>0xc0004cb900</t>
-  </si>
-  <si>
-    <t>0xc0004cb910</t>
+    <t>0xc000281820</t>
+  </si>
+  <si>
+    <t>0xc000281810</t>
+  </si>
+  <si>
+    <t>0xc000281830</t>
+  </si>
+  <si>
+    <t>0xc000281840</t>
+  </si>
+  <si>
+    <t>0xc000281850</t>
+  </si>
+  <si>
+    <t>0xc000316e50</t>
+  </si>
+  <si>
+    <t>0xc000316e60</t>
   </si>
   <si>
     <t>08-22-11</t>
   </si>
   <si>
-    <t>0xc000287900</t>
-  </si>
-  <si>
-    <t>0xc0002878f0</t>
-  </si>
-  <si>
-    <t>0xc000287910</t>
-  </si>
-  <si>
-    <t>0xc000287920</t>
-  </si>
-  <si>
-    <t>0xc000287930</t>
-  </si>
-  <si>
-    <t>0xc0004cb930</t>
-  </si>
-  <si>
-    <t>0xc0004cb940</t>
+    <t>0xc000281880</t>
+  </si>
+  <si>
+    <t>0xc000281870</t>
+  </si>
+  <si>
+    <t>0xc000281890</t>
+  </si>
+  <si>
+    <t>0xc0002818a0</t>
+  </si>
+  <si>
+    <t>0xc0002818b0</t>
+  </si>
+  <si>
+    <t>0xc000316e80</t>
+  </si>
+  <si>
+    <t>0xc000316e90</t>
   </si>
   <si>
     <t>08-22-12</t>
   </si>
   <si>
-    <t>0xc000287960</t>
-  </si>
-  <si>
-    <t>0xc000287950</t>
-  </si>
-  <si>
-    <t>0xc000287970</t>
-  </si>
-  <si>
-    <t>0xc000287980</t>
-  </si>
-  <si>
-    <t>0xc000287990</t>
-  </si>
-  <si>
-    <t>0xc0004cb960</t>
-  </si>
-  <si>
-    <t>0xc0004cb970</t>
+    <t>0xc0002818e0</t>
+  </si>
+  <si>
+    <t>0xc0002818d0</t>
+  </si>
+  <si>
+    <t>0xc0002818f0</t>
+  </si>
+  <si>
+    <t>0xc000281900</t>
+  </si>
+  <si>
+    <t>0xc000281910</t>
+  </si>
+  <si>
+    <t>0xc000316eb0</t>
+  </si>
+  <si>
+    <t>0xc000316ec0</t>
   </si>
   <si>
     <t>08-22-13</t>
   </si>
   <si>
-    <t>0xc0002879c0</t>
-  </si>
-  <si>
-    <t>0xc0002879b0</t>
-  </si>
-  <si>
-    <t>0xc0002879d0</t>
-  </si>
-  <si>
-    <t>0xc0002879e0</t>
-  </si>
-  <si>
-    <t>0xc0002879f0</t>
-  </si>
-  <si>
-    <t>0xc0004cb990</t>
-  </si>
-  <si>
-    <t>0xc0004cb9a0</t>
+    <t>0xc000281940</t>
+  </si>
+  <si>
+    <t>0xc000281930</t>
+  </si>
+  <si>
+    <t>0xc000281950</t>
+  </si>
+  <si>
+    <t>0xc000281960</t>
+  </si>
+  <si>
+    <t>0xc000281970</t>
+  </si>
+  <si>
+    <t>0xc000316ee0</t>
+  </si>
+  <si>
+    <t>0xc000316ef0</t>
   </si>
   <si>
     <t>08-22-14</t>
   </si>
   <si>
-    <t>0xc000287a20</t>
-  </si>
-  <si>
-    <t>0xc000287a10</t>
-  </si>
-  <si>
-    <t>0xc000287a30</t>
-  </si>
-  <si>
-    <t>0xc000287a40</t>
-  </si>
-  <si>
-    <t>0xc000287a50</t>
-  </si>
-  <si>
-    <t>0xc0004cb9c0</t>
-  </si>
-  <si>
-    <t>0xc0004cb9d0</t>
+    <t>0xc0002819a0</t>
+  </si>
+  <si>
+    <t>0xc000281990</t>
+  </si>
+  <si>
+    <t>0xc0002819b0</t>
+  </si>
+  <si>
+    <t>0xc0002819c0</t>
+  </si>
+  <si>
+    <t>0xc0002819d0</t>
+  </si>
+  <si>
+    <t>0xc000316f10</t>
+  </si>
+  <si>
+    <t>0xc000316f20</t>
   </si>
   <si>
     <t>08-22-15</t>
   </si>
   <si>
-    <t>0xc000287a80</t>
-  </si>
-  <si>
-    <t>0xc000287a70</t>
-  </si>
-  <si>
-    <t>0xc000287a90</t>
-  </si>
-  <si>
-    <t>0xc000287aa0</t>
-  </si>
-  <si>
-    <t>0xc000287ab0</t>
-  </si>
-  <si>
-    <t>0xc0004cb9f0</t>
-  </si>
-  <si>
-    <t>0xc0004cba00</t>
+    <t>0xc000281a00</t>
+  </si>
+  <si>
+    <t>0xc0002819f0</t>
+  </si>
+  <si>
+    <t>0xc000281a10</t>
+  </si>
+  <si>
+    <t>0xc000281a20</t>
+  </si>
+  <si>
+    <t>0xc000281a30</t>
+  </si>
+  <si>
+    <t>0xc000316f40</t>
+  </si>
+  <si>
+    <t>0xc000316f50</t>
   </si>
   <si>
     <t>08-22-16</t>
   </si>
   <si>
-    <t>0xc000287ae0</t>
-  </si>
-  <si>
-    <t>0xc000287ad0</t>
-  </si>
-  <si>
-    <t>0xc000287af0</t>
-  </si>
-  <si>
-    <t>0xc000287b00</t>
-  </si>
-  <si>
-    <t>0xc000287b10</t>
-  </si>
-  <si>
-    <t>0xc0004cba20</t>
-  </si>
-  <si>
-    <t>0xc0004cba30</t>
+    <t>0xc000281a60</t>
+  </si>
+  <si>
+    <t>0xc000281a50</t>
+  </si>
+  <si>
+    <t>0xc000281a70</t>
+  </si>
+  <si>
+    <t>0xc000281a80</t>
+  </si>
+  <si>
+    <t>0xc000281a90</t>
+  </si>
+  <si>
+    <t>0xc000316f70</t>
+  </si>
+  <si>
+    <t>0xc000316f80</t>
   </si>
   <si>
     <t>08-22-17</t>
   </si>
   <si>
-    <t>0xc000287b40</t>
-  </si>
-  <si>
-    <t>0xc000287b30</t>
-  </si>
-  <si>
-    <t>0xc000287b50</t>
-  </si>
-  <si>
-    <t>0xc000287b60</t>
-  </si>
-  <si>
-    <t>0xc000287b70</t>
-  </si>
-  <si>
-    <t>0xc0004cba50</t>
-  </si>
-  <si>
-    <t>0xc0004cba60</t>
+    <t>0xc000281ac0</t>
+  </si>
+  <si>
+    <t>0xc000281ab0</t>
+  </si>
+  <si>
+    <t>0xc000281ad0</t>
+  </si>
+  <si>
+    <t>0xc000281ae0</t>
+  </si>
+  <si>
+    <t>0xc000281af0</t>
+  </si>
+  <si>
+    <t>0xc000316fa0</t>
+  </si>
+  <si>
+    <t>0xc000316fb0</t>
   </si>
   <si>
     <t>08-22-18</t>
   </si>
   <si>
-    <t>0xc000287ba0</t>
-  </si>
-  <si>
-    <t>0xc000287b90</t>
-  </si>
-  <si>
-    <t>0xc000287bb0</t>
-  </si>
-  <si>
-    <t>0xc000287bc0</t>
-  </si>
-  <si>
-    <t>0xc000287bd0</t>
-  </si>
-  <si>
-    <t>0xc0004cba78</t>
-  </si>
-  <si>
-    <t>0xc0004cba98</t>
+    <t>0xc000281b20</t>
+  </si>
+  <si>
+    <t>0xc000281b10</t>
+  </si>
+  <si>
+    <t>0xc000281b30</t>
+  </si>
+  <si>
+    <t>0xc000281b40</t>
+  </si>
+  <si>
+    <t>0xc000281b50</t>
+  </si>
+  <si>
+    <t>0xc000316fc8</t>
+  </si>
+  <si>
+    <t>0xc000316fe8</t>
   </si>
   <si>
     <t>08-22-19</t>
   </si>
   <si>
-    <t>0xc000287c00</t>
-  </si>
-  <si>
-    <t>0xc000287bf0</t>
-  </si>
-  <si>
-    <t>0xc000287c10</t>
-  </si>
-  <si>
-    <t>0xc000287c20</t>
-  </si>
-  <si>
-    <t>0xc000287c30</t>
-  </si>
-  <si>
-    <t>0xc0004cbac0</t>
-  </si>
-  <si>
-    <t>0xc0004cbad0</t>
+    <t>0xc000281b80</t>
+  </si>
+  <si>
+    <t>0xc000281b70</t>
+  </si>
+  <si>
+    <t>0xc000281b90</t>
+  </si>
+  <si>
+    <t>0xc000281ba0</t>
+  </si>
+  <si>
+    <t>0xc000281bb0</t>
+  </si>
+  <si>
+    <t>0xc000317010</t>
+  </si>
+  <si>
+    <t>0xc000317020</t>
   </si>
   <si>
     <t>08-22-20</t>
   </si>
   <si>
-    <t>0xc000287c60</t>
-  </si>
-  <si>
-    <t>0xc000287c50</t>
-  </si>
-  <si>
-    <t>0xc000287c70</t>
-  </si>
-  <si>
-    <t>0xc000287c80</t>
-  </si>
-  <si>
-    <t>0xc000287c90</t>
-  </si>
-  <si>
-    <t>0xc0004cbaf0</t>
-  </si>
-  <si>
-    <t>0xc0004cbb00</t>
+    <t>0xc000281be0</t>
+  </si>
+  <si>
+    <t>0xc000281bd0</t>
+  </si>
+  <si>
+    <t>0xc000281bf0</t>
+  </si>
+  <si>
+    <t>0xc000281c00</t>
+  </si>
+  <si>
+    <t>0xc000281c10</t>
+  </si>
+  <si>
+    <t>0xc000317040</t>
+  </si>
+  <si>
+    <t>0xc000317050</t>
   </si>
   <si>
     <t>08-22-21</t>
   </si>
   <si>
-    <t>0xc000287cc0</t>
-  </si>
-  <si>
-    <t>0xc000287cb0</t>
-  </si>
-  <si>
-    <t>0xc000287cd0</t>
-  </si>
-  <si>
-    <t>0xc000287ce0</t>
-  </si>
-  <si>
-    <t>0xc000287cf0</t>
-  </si>
-  <si>
-    <t>0xc0004cbb18</t>
-  </si>
-  <si>
-    <t>0xc0004cbb28</t>
+    <t>0xc000281c40</t>
+  </si>
+  <si>
+    <t>0xc000281c30</t>
+  </si>
+  <si>
+    <t>0xc000281c50</t>
+  </si>
+  <si>
+    <t>0xc000281c60</t>
+  </si>
+  <si>
+    <t>0xc000281c70</t>
+  </si>
+  <si>
+    <t>0xc000317068</t>
+  </si>
+  <si>
+    <t>0xc000317078</t>
   </si>
   <si>
     <t>08-22-22</t>
   </si>
   <si>
-    <t>0xc000287d20</t>
-  </si>
-  <si>
-    <t>0xc000287d10</t>
-  </si>
-  <si>
-    <t>0xc000287d30</t>
-  </si>
-  <si>
-    <t>0xc000287d40</t>
-  </si>
-  <si>
-    <t>0xc000287d50</t>
-  </si>
-  <si>
-    <t>0xc0004cbb50</t>
-  </si>
-  <si>
-    <t>0xc0004cbb60</t>
+    <t>0xc000281ca0</t>
+  </si>
+  <si>
+    <t>0xc000281c90</t>
+  </si>
+  <si>
+    <t>0xc000281cb0</t>
+  </si>
+  <si>
+    <t>0xc000281cc0</t>
+  </si>
+  <si>
+    <t>0xc000281cd0</t>
+  </si>
+  <si>
+    <t>0xc0003170a0</t>
+  </si>
+  <si>
+    <t>0xc0003170b0</t>
   </si>
   <si>
     <t>09-22-02</t>
   </si>
   <si>
-    <t>0xc000287d80</t>
-  </si>
-  <si>
-    <t>0xc000287d70</t>
-  </si>
-  <si>
-    <t>0xc000287d90</t>
-  </si>
-  <si>
-    <t>0xc000287da0</t>
-  </si>
-  <si>
-    <t>0xc000287db0</t>
-  </si>
-  <si>
-    <t>0xc0004cbb90</t>
-  </si>
-  <si>
-    <t>0xc0004cbba0</t>
+    <t>0xc000281d00</t>
+  </si>
+  <si>
+    <t>0xc000281cf0</t>
+  </si>
+  <si>
+    <t>0xc000281d10</t>
+  </si>
+  <si>
+    <t>0xc000281d20</t>
+  </si>
+  <si>
+    <t>0xc000281d30</t>
+  </si>
+  <si>
+    <t>0xc0003170e0</t>
+  </si>
+  <si>
+    <t>0xc0003170f0</t>
   </si>
   <si>
     <t>10-22-01</t>
   </si>
   <si>
-    <t>0xc000287de0</t>
-  </si>
-  <si>
-    <t>0xc000287dd0</t>
-  </si>
-  <si>
-    <t>0xc000287df0</t>
-  </si>
-  <si>
-    <t>0xc000287e00</t>
-  </si>
-  <si>
-    <t>0xc000287e10</t>
-  </si>
-  <si>
-    <t>0xc0004cbbc0</t>
-  </si>
-  <si>
-    <t>0xc0004cbbd0</t>
+    <t>0xc000281d60</t>
+  </si>
+  <si>
+    <t>0xc000281d50</t>
+  </si>
+  <si>
+    <t>0xc000281d70</t>
+  </si>
+  <si>
+    <t>0xc000281d80</t>
+  </si>
+  <si>
+    <t>0xc000281d90</t>
+  </si>
+  <si>
+    <t>0xc000317110</t>
+  </si>
+  <si>
+    <t>0xc000317120</t>
   </si>
   <si>
     <t>10-22-02</t>
   </si>
   <si>
-    <t>0xc000287e40</t>
-  </si>
-  <si>
-    <t>0xc000287e30</t>
-  </si>
-  <si>
-    <t>0xc000287e50</t>
-  </si>
-  <si>
-    <t>0xc000287e60</t>
-  </si>
-  <si>
-    <t>0xc000287e70</t>
-  </si>
-  <si>
-    <t>0xc0004cbbf0</t>
-  </si>
-  <si>
-    <t>0xc0004cbc00</t>
+    <t>0xc000281dc0</t>
+  </si>
+  <si>
+    <t>0xc000281db0</t>
+  </si>
+  <si>
+    <t>0xc000281dd0</t>
+  </si>
+  <si>
+    <t>0xc000281de0</t>
+  </si>
+  <si>
+    <t>0xc000281df0</t>
+  </si>
+  <si>
+    <t>0xc000317140</t>
+  </si>
+  <si>
+    <t>0xc000317150</t>
   </si>
   <si>
     <t>10-22-03</t>
   </si>
   <si>
-    <t>0xc000287ea0</t>
-  </si>
-  <si>
-    <t>0xc000287e90</t>
-  </si>
-  <si>
-    <t>0xc000287eb0</t>
-  </si>
-  <si>
-    <t>0xc000287ec0</t>
-  </si>
-  <si>
-    <t>0xc000287ed0</t>
-  </si>
-  <si>
-    <t>0xc0004cbc18</t>
-  </si>
-  <si>
-    <t>0xc0004cbc38</t>
+    <t>0xc000281e20</t>
+  </si>
+  <si>
+    <t>0xc000281e10</t>
+  </si>
+  <si>
+    <t>0xc000281e30</t>
+  </si>
+  <si>
+    <t>0xc000281e40</t>
+  </si>
+  <si>
+    <t>0xc000281e50</t>
+  </si>
+  <si>
+    <t>0xc000317168</t>
+  </si>
+  <si>
+    <t>0xc000317188</t>
   </si>
   <si>
     <t>10-22-04</t>
   </si>
   <si>
-    <t>0xc000287f00</t>
-  </si>
-  <si>
-    <t>0xc000287ef0</t>
-  </si>
-  <si>
-    <t>0xc000287f10</t>
-  </si>
-  <si>
-    <t>0xc000287f20</t>
-  </si>
-  <si>
-    <t>0xc000287f30</t>
-  </si>
-  <si>
-    <t>0xc0004cbc50</t>
-  </si>
-  <si>
-    <t>0xc0004cbc60</t>
+    <t>0xc000281e80</t>
+  </si>
+  <si>
+    <t>0xc000281e70</t>
+  </si>
+  <si>
+    <t>0xc000281e90</t>
+  </si>
+  <si>
+    <t>0xc000281ea0</t>
+  </si>
+  <si>
+    <t>0xc000281eb0</t>
+  </si>
+  <si>
+    <t>0xc0003171a0</t>
+  </si>
+  <si>
+    <t>0xc0003171b0</t>
   </si>
   <si>
     <t>10-22-05</t>
   </si>
   <si>
-    <t>0xc000287f60</t>
-  </si>
-  <si>
-    <t>0xc000287f50</t>
-  </si>
-  <si>
-    <t>0xc000287f70</t>
-  </si>
-  <si>
-    <t>0xc000287f80</t>
-  </si>
-  <si>
-    <t>0xc000287f90</t>
-  </si>
-  <si>
-    <t>0xc0004cbc80</t>
-  </si>
-  <si>
-    <t>0xc0004cbc90</t>
+    <t>0xc000281ee0</t>
+  </si>
+  <si>
+    <t>0xc000281ed0</t>
+  </si>
+  <si>
+    <t>0xc000281ef0</t>
+  </si>
+  <si>
+    <t>0xc000281f00</t>
+  </si>
+  <si>
+    <t>0xc000281f10</t>
+  </si>
+  <si>
+    <t>0xc0003171d0</t>
+  </si>
+  <si>
+    <t>0xc0003171e0</t>
   </si>
   <si>
     <t>10-22-06</t>
   </si>
   <si>
-    <t>0xc000287fc0</t>
-  </si>
-  <si>
-    <t>0xc000287fb0</t>
-  </si>
-  <si>
-    <t>0xc000287fd0</t>
-  </si>
-  <si>
-    <t>0xc000287fe0</t>
-  </si>
-  <si>
-    <t>0xc000287ff0</t>
-  </si>
-  <si>
-    <t>0xc0004cbcb0</t>
-  </si>
-  <si>
-    <t>0xc0004cbcc0</t>
+    <t>0xc000281f40</t>
+  </si>
+  <si>
+    <t>0xc000281f30</t>
+  </si>
+  <si>
+    <t>0xc000281f50</t>
+  </si>
+  <si>
+    <t>0xc000281f60</t>
+  </si>
+  <si>
+    <t>0xc000281f70</t>
+  </si>
+  <si>
+    <t>0xc000317200</t>
+  </si>
+  <si>
+    <t>0xc000317210</t>
   </si>
   <si>
     <t>10-22-07</t>
   </si>
   <si>
-    <t>0xc000302020</t>
-  </si>
-  <si>
-    <t>0xc000302010</t>
-  </si>
-  <si>
-    <t>0xc000302030</t>
-  </si>
-  <si>
-    <t>0xc000302040</t>
-  </si>
-  <si>
-    <t>0xc000302050</t>
-  </si>
-  <si>
-    <t>0xc0004cbce0</t>
-  </si>
-  <si>
-    <t>0xc0004cbcf0</t>
+    <t>0xc000281fa0</t>
+  </si>
+  <si>
+    <t>0xc000281f90</t>
+  </si>
+  <si>
+    <t>0xc000281fb0</t>
+  </si>
+  <si>
+    <t>0xc000281fc0</t>
+  </si>
+  <si>
+    <t>0xc000281fd0</t>
+  </si>
+  <si>
+    <t>0xc000317230</t>
+  </si>
+  <si>
+    <t>0xc000317240</t>
   </si>
   <si>
     <t>10-22-08</t>
   </si>
   <si>
-    <t>0xc000302080</t>
-  </si>
-  <si>
-    <t>0xc000302070</t>
-  </si>
-  <si>
-    <t>0xc000302090</t>
-  </si>
-  <si>
-    <t>0xc0003020a0</t>
-  </si>
-  <si>
-    <t>0xc0003020b0</t>
-  </si>
-  <si>
-    <t>0xc0004cbd10</t>
-  </si>
-  <si>
-    <t>0xc0004cbd20</t>
+    <t>0xc0002fa000</t>
+  </si>
+  <si>
+    <t>0xc000281ff0</t>
+  </si>
+  <si>
+    <t>0xc0002fa010</t>
+  </si>
+  <si>
+    <t>0xc0002fa020</t>
+  </si>
+  <si>
+    <t>0xc0002fa030</t>
+  </si>
+  <si>
+    <t>0xc000317260</t>
+  </si>
+  <si>
+    <t>0xc000317270</t>
   </si>
   <si>
     <t>10-22-09</t>
   </si>
   <si>
-    <t>0xc0003020e0</t>
-  </si>
-  <si>
-    <t>0xc0003020d0</t>
-  </si>
-  <si>
-    <t>0xc0003020f0</t>
-  </si>
-  <si>
-    <t>0xc000302100</t>
-  </si>
-  <si>
-    <t>0xc000302110</t>
-  </si>
-  <si>
-    <t>0xc0004cbd40</t>
-  </si>
-  <si>
-    <t>0xc0004cbd50</t>
+    <t>0xc0002fa060</t>
+  </si>
+  <si>
+    <t>0xc0002fa050</t>
+  </si>
+  <si>
+    <t>0xc0002fa070</t>
+  </si>
+  <si>
+    <t>0xc0002fa080</t>
+  </si>
+  <si>
+    <t>0xc0002fa090</t>
+  </si>
+  <si>
+    <t>0xc000317290</t>
+  </si>
+  <si>
+    <t>0xc0003172a0</t>
   </si>
   <si>
     <t>10-22-10</t>
   </si>
   <si>
-    <t>0xc000302140</t>
-  </si>
-  <si>
-    <t>0xc000302130</t>
-  </si>
-  <si>
-    <t>0xc000302150</t>
-  </si>
-  <si>
-    <t>0xc000302160</t>
-  </si>
-  <si>
-    <t>0xc000302170</t>
-  </si>
-  <si>
-    <t>0xc0004cbd68</t>
-  </si>
-  <si>
-    <t>0xc0004cbd88</t>
+    <t>0xc0002fa0c0</t>
+  </si>
+  <si>
+    <t>0xc0002fa0b0</t>
+  </si>
+  <si>
+    <t>0xc0002fa0d0</t>
+  </si>
+  <si>
+    <t>0xc0002fa0e0</t>
+  </si>
+  <si>
+    <t>0xc0002fa0f0</t>
+  </si>
+  <si>
+    <t>0xc0003172b8</t>
+  </si>
+  <si>
+    <t>0xc0003172d8</t>
   </si>
   <si>
     <t>10-22-11</t>
   </si>
   <si>
-    <t>0xc0003021a0</t>
-  </si>
-  <si>
-    <t>0xc000302190</t>
-  </si>
-  <si>
-    <t>0xc0003021b0</t>
-  </si>
-  <si>
-    <t>0xc0003021c0</t>
-  </si>
-  <si>
-    <t>0xc0003021d0</t>
-  </si>
-  <si>
-    <t>0xc0004cbdb0</t>
-  </si>
-  <si>
-    <t>0xc0004cbdc0</t>
+    <t>0xc0002fa120</t>
+  </si>
+  <si>
+    <t>0xc0002fa110</t>
+  </si>
+  <si>
+    <t>0xc0002fa130</t>
+  </si>
+  <si>
+    <t>0xc0002fa140</t>
+  </si>
+  <si>
+    <t>0xc0002fa150</t>
+  </si>
+  <si>
+    <t>0xc000317300</t>
+  </si>
+  <si>
+    <t>0xc000317310</t>
   </si>
   <si>
     <t>10-22-12</t>
   </si>
   <si>
-    <t>0xc000302200</t>
-  </si>
-  <si>
-    <t>0xc0003021f0</t>
-  </si>
-  <si>
-    <t>0xc000302210</t>
-  </si>
-  <si>
-    <t>0xc000302220</t>
-  </si>
-  <si>
-    <t>0xc000302230</t>
-  </si>
-  <si>
-    <t>0xc0004cbde0</t>
-  </si>
-  <si>
-    <t>0xc0004cbdf0</t>
+    <t>0xc0002fa180</t>
+  </si>
+  <si>
+    <t>0xc0002fa170</t>
+  </si>
+  <si>
+    <t>0xc0002fa190</t>
+  </si>
+  <si>
+    <t>0xc0002fa1a0</t>
+  </si>
+  <si>
+    <t>0xc0002fa1b0</t>
+  </si>
+  <si>
+    <t>0xc000317330</t>
+  </si>
+  <si>
+    <t>0xc000317340</t>
   </si>
   <si>
     <t>10-22-13</t>
   </si>
   <si>
-    <t>0xc000302260</t>
-  </si>
-  <si>
-    <t>0xc000302250</t>
-  </si>
-  <si>
-    <t>0xc000302270</t>
-  </si>
-  <si>
-    <t>0xc000302280</t>
-  </si>
-  <si>
-    <t>0xc000302290</t>
-  </si>
-  <si>
-    <t>0xc0004cbe08</t>
-  </si>
-  <si>
-    <t>0xc0004cbe18</t>
+    <t>0xc0002fa1e0</t>
+  </si>
+  <si>
+    <t>0xc0002fa1d0</t>
+  </si>
+  <si>
+    <t>0xc0002fa1f0</t>
+  </si>
+  <si>
+    <t>0xc0002fa200</t>
+  </si>
+  <si>
+    <t>0xc0002fa210</t>
+  </si>
+  <si>
+    <t>0xc000317358</t>
+  </si>
+  <si>
+    <t>0xc000317368</t>
   </si>
   <si>
     <t>10-22-14</t>
   </si>
   <si>
-    <t>0xc0003022c0</t>
-  </si>
-  <si>
-    <t>0xc0003022b0</t>
-  </si>
-  <si>
-    <t>0xc0003022d0</t>
-  </si>
-  <si>
-    <t>0xc0003022e0</t>
-  </si>
-  <si>
-    <t>0xc0003022f0</t>
-  </si>
-  <si>
-    <t>0xc0004cbe40</t>
-  </si>
-  <si>
-    <t>0xc0004cbe50</t>
+    <t>0xc0002fa240</t>
+  </si>
+  <si>
+    <t>0xc0002fa230</t>
+  </si>
+  <si>
+    <t>0xc0002fa250</t>
+  </si>
+  <si>
+    <t>0xc0002fa260</t>
+  </si>
+  <si>
+    <t>0xc0002fa270</t>
+  </si>
+  <si>
+    <t>0xc000317390</t>
+  </si>
+  <si>
+    <t>0xc0003173a0</t>
   </si>
   <si>
     <t>10-22-15</t>
   </si>
   <si>
-    <t>0xc000302320</t>
-  </si>
-  <si>
-    <t>0xc000302310</t>
-  </si>
-  <si>
-    <t>0xc000302330</t>
-  </si>
-  <si>
-    <t>0xc000302340</t>
-  </si>
-  <si>
-    <t>0xc000302350</t>
-  </si>
-  <si>
-    <t>0xc0004cbf40</t>
-  </si>
-  <si>
-    <t>0xc0004cbf50</t>
+    <t>0xc0002fa2a0</t>
+  </si>
+  <si>
+    <t>0xc0002fa290</t>
+  </si>
+  <si>
+    <t>0xc0002fa2b0</t>
+  </si>
+  <si>
+    <t>0xc0002fa2c0</t>
+  </si>
+  <si>
+    <t>0xc0002fa2d0</t>
+  </si>
+  <si>
+    <t>0xc0003173c0</t>
+  </si>
+  <si>
+    <t>0xc0003173d0</t>
   </si>
   <si>
     <t>10-22-16</t>
   </si>
   <si>
-    <t>0xc000302380</t>
-  </si>
-  <si>
-    <t>0xc000302370</t>
-  </si>
-  <si>
-    <t>0xc000302390</t>
-  </si>
-  <si>
-    <t>0xc0003023a0</t>
-  </si>
-  <si>
-    <t>0xc0003023b0</t>
-  </si>
-  <si>
-    <t>0xc0004cbf70</t>
-  </si>
-  <si>
-    <t>0xc0004cbf80</t>
+    <t>0xc0002fa300</t>
+  </si>
+  <si>
+    <t>0xc0002fa2f0</t>
+  </si>
+  <si>
+    <t>0xc0002fa310</t>
+  </si>
+  <si>
+    <t>0xc0002fa320</t>
+  </si>
+  <si>
+    <t>0xc0002fa330</t>
+  </si>
+  <si>
+    <t>0xc0003173f0</t>
+  </si>
+  <si>
+    <t>0xc000317400</t>
   </si>
   <si>
     <t>10-22-17</t>
   </si>
   <si>
-    <t>0xc0003023e0</t>
-  </si>
-  <si>
-    <t>0xc0003023d0</t>
-  </si>
-  <si>
-    <t>0xc0003023f0</t>
-  </si>
-  <si>
-    <t>0xc000302400</t>
-  </si>
-  <si>
-    <t>0xc000302410</t>
-  </si>
-  <si>
-    <t>0xc0004cbfb0</t>
-  </si>
-  <si>
-    <t>0xc000292010</t>
+    <t>0xc0002fa360</t>
+  </si>
+  <si>
+    <t>0xc0002fa350</t>
+  </si>
+  <si>
+    <t>0xc0002fa370</t>
+  </si>
+  <si>
+    <t>0xc0002fa380</t>
+  </si>
+  <si>
+    <t>0xc0002fa390</t>
+  </si>
+  <si>
+    <t>0xc000317420</t>
+  </si>
+  <si>
+    <t>0xc000317430</t>
   </si>
   <si>
     <t>10-22-18</t>
   </si>
   <si>
-    <t>0xc000302440</t>
-  </si>
-  <si>
-    <t>0xc000302430</t>
-  </si>
-  <si>
-    <t>0xc000302450</t>
-  </si>
-  <si>
-    <t>0xc000302460</t>
-  </si>
-  <si>
-    <t>0xc000302470</t>
-  </si>
-  <si>
-    <t>0xc000292028</t>
-  </si>
-  <si>
-    <t>0xc000292058</t>
+    <t>0xc0002fa3c0</t>
+  </si>
+  <si>
+    <t>0xc0002fa3b0</t>
+  </si>
+  <si>
+    <t>0xc0002fa3d0</t>
+  </si>
+  <si>
+    <t>0xc0002fa3e0</t>
+  </si>
+  <si>
+    <t>0xc0002fa3f0</t>
+  </si>
+  <si>
+    <t>0xc000317448</t>
+  </si>
+  <si>
+    <t>0xc000317458</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>0xc000302490</t>
-  </si>
-  <si>
-    <t>0xc0003024a0</t>
-  </si>
-  <si>
-    <t>0xc0003024b0</t>
-  </si>
-  <si>
-    <t>0xc0003024c0</t>
-  </si>
-  <si>
-    <t>0xc000292068</t>
-  </si>
-  <si>
-    <t>0xc000292098</t>
+    <t>0xc0002fa410</t>
+  </si>
+  <si>
+    <t>0xc0002fa420</t>
+  </si>
+  <si>
+    <t>0xc0002fa430</t>
+  </si>
+  <si>
+    <t>0xc0002fa440</t>
+  </si>
+  <si>
+    <t>0xc000317468</t>
+  </si>
+  <si>
+    <t>0xc000317478</t>
   </si>
   <si>
     <t>CAP-112</t>
   </si>
   <si>
-    <t>0xc0003024f0</t>
+    <t>0xc0002fa470</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>0xc0003024e0</t>
-  </si>
-  <si>
-    <t>0xc000302500</t>
-  </si>
-  <si>
-    <t>0xc000302510</t>
-  </si>
-  <si>
-    <t>0xc000302520</t>
-  </si>
-  <si>
-    <t>0xc0002920a8</t>
-  </si>
-  <si>
-    <t>0xc0002920d8</t>
+    <t>0xc0002fa460</t>
+  </si>
+  <si>
+    <t>0xc0002fa480</t>
+  </si>
+  <si>
+    <t>0xc0002fa490</t>
+  </si>
+  <si>
+    <t>0xc0002fa4a0</t>
+  </si>
+  <si>
+    <t>0xc000317488</t>
+  </si>
+  <si>
+    <t>0xc000317498</t>
   </si>
   <si>
     <t>CAP-144</t>
   </si>
   <si>
-    <t>0xc000302550</t>
+    <t>0xc0002fa4d0</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>0xc000302540</t>
-  </si>
-  <si>
-    <t>0xc000302560</t>
-  </si>
-  <si>
-    <t>0xc000302570</t>
-  </si>
-  <si>
-    <t>0xc000302580</t>
-  </si>
-  <si>
-    <t>0xc0002920e8</t>
-  </si>
-  <si>
-    <t>0xc000292128</t>
+    <t>0xc0002fa4c0</t>
+  </si>
+  <si>
+    <t>0xc0002fa4e0</t>
+  </si>
+  <si>
+    <t>0xc0002fa4f0</t>
+  </si>
+  <si>
+    <t>0xc0002fa500</t>
+  </si>
+  <si>
+    <t>0xc0003174a8</t>
+  </si>
+  <si>
+    <t>0xc0003174c8</t>
   </si>
   <si>
     <t>CAP-198</t>
   </si>
   <si>
-    <t>0xc0003025b0</t>
-  </si>
-  <si>
-    <t>0xc0003025a0</t>
-  </si>
-  <si>
-    <t>0xc0003025c0</t>
-  </si>
-  <si>
-    <t>0xc0003025d0</t>
-  </si>
-  <si>
-    <t>0xc0003025e0</t>
-  </si>
-  <si>
-    <t>0xc000292158</t>
-  </si>
-  <si>
-    <t>0xc000292198</t>
+    <t>0xc0002fa530</t>
+  </si>
+  <si>
+    <t>0xc0002fa520</t>
+  </si>
+  <si>
+    <t>0xc0002fa540</t>
+  </si>
+  <si>
+    <t>0xc0002fa550</t>
+  </si>
+  <si>
+    <t>0xc0002fa560</t>
+  </si>
+  <si>
+    <t>0xc0003174d8</t>
+  </si>
+  <si>
+    <t>0xc0003174f8</t>
   </si>
   <si>
     <t>CAP-205</t>
   </si>
   <si>
-    <t>0xc000302610</t>
-  </si>
-  <si>
-    <t>0xc000302600</t>
-  </si>
-  <si>
-    <t>0xc000302620</t>
-  </si>
-  <si>
-    <t>0xc000302630</t>
-  </si>
-  <si>
-    <t>0xc000302640</t>
-  </si>
-  <si>
-    <t>0xc0002921b8</t>
-  </si>
-  <si>
-    <t>0xc0002921d8</t>
+    <t>0xc0002fa590</t>
+  </si>
+  <si>
+    <t>0xc0002fa580</t>
+  </si>
+  <si>
+    <t>0xc0002fa5a0</t>
+  </si>
+  <si>
+    <t>0xc0002fa5b0</t>
+  </si>
+  <si>
+    <t>0xc0002fa5c0</t>
+  </si>
+  <si>
+    <t>0xc000317508</t>
+  </si>
+  <si>
+    <t>0xc000317528</t>
   </si>
   <si>
     <t>CAP-225</t>
   </si>
   <si>
-    <t>0xc000302670</t>
-  </si>
-  <si>
-    <t>0xc000302660</t>
-  </si>
-  <si>
-    <t>0xc000302680</t>
-  </si>
-  <si>
-    <t>0xc000302690</t>
-  </si>
-  <si>
-    <t>0xc0003026a0</t>
-  </si>
-  <si>
-    <t>0xc0002921e8</t>
-  </si>
-  <si>
-    <t>0xc000292208</t>
+    <t>0xc0002fa5f0</t>
+  </si>
+  <si>
+    <t>0xc0002fa5e0</t>
+  </si>
+  <si>
+    <t>0xc0002fa600</t>
+  </si>
+  <si>
+    <t>0xc0002fa610</t>
+  </si>
+  <si>
+    <t>0xc0002fa620</t>
+  </si>
+  <si>
+    <t>0xc000317538</t>
+  </si>
+  <si>
+    <t>0xc000317548</t>
   </si>
   <si>
     <t>CAP-230</t>
   </si>
   <si>
-    <t>0xc0003026d0</t>
-  </si>
-  <si>
-    <t>0xc0003026c0</t>
-  </si>
-  <si>
-    <t>0xc0003026e0</t>
-  </si>
-  <si>
-    <t>0xc0003026f0</t>
-  </si>
-  <si>
-    <t>0xc000302700</t>
-  </si>
-  <si>
-    <t>0xc000292218</t>
-  </si>
-  <si>
-    <t>0xc000292238</t>
+    <t>0xc0002fa650</t>
+  </si>
+  <si>
+    <t>0xc0002fa640</t>
+  </si>
+  <si>
+    <t>0xc0002fa660</t>
+  </si>
+  <si>
+    <t>0xc0002fa670</t>
+  </si>
+  <si>
+    <t>0xc0002fa680</t>
+  </si>
+  <si>
+    <t>0xc000317558</t>
+  </si>
+  <si>
+    <t>0xc000317578</t>
   </si>
   <si>
     <t>CAP-251</t>
   </si>
   <si>
-    <t>0xc000302730</t>
-  </si>
-  <si>
-    <t>0xc000302720</t>
-  </si>
-  <si>
-    <t>0xc000302740</t>
-  </si>
-  <si>
-    <t>0xc000302750</t>
-  </si>
-  <si>
-    <t>0xc000302760</t>
-  </si>
-  <si>
-    <t>0xc000292288</t>
-  </si>
-  <si>
-    <t>0xc0002922b8</t>
+    <t>0xc0002fa6b0</t>
+  </si>
+  <si>
+    <t>0xc0002fa6a0</t>
+  </si>
+  <si>
+    <t>0xc0002fa6c0</t>
+  </si>
+  <si>
+    <t>0xc0002fa6d0</t>
+  </si>
+  <si>
+    <t>0xc0002fa6e0</t>
+  </si>
+  <si>
+    <t>0xc000317588</t>
+  </si>
+  <si>
+    <t>0xc0003175a8</t>
   </si>
   <si>
     <t>CAP-260</t>
   </si>
   <si>
-    <t>0xc000302790</t>
-  </si>
-  <si>
-    <t>0xc000302780</t>
-  </si>
-  <si>
-    <t>0xc0003027a0</t>
-  </si>
-  <si>
-    <t>0xc0003027b0</t>
-  </si>
-  <si>
-    <t>0xc0003027c0</t>
-  </si>
-  <si>
-    <t>0xc0002922d8</t>
-  </si>
-  <si>
-    <t>0xc000292318</t>
+    <t>0xc0002fa710</t>
+  </si>
+  <si>
+    <t>0xc0002fa700</t>
+  </si>
+  <si>
+    <t>0xc0002fa720</t>
+  </si>
+  <si>
+    <t>0xc0002fa730</t>
+  </si>
+  <si>
+    <t>0xc0002fa740</t>
+  </si>
+  <si>
+    <t>0xc0003175b8</t>
+  </si>
+  <si>
+    <t>0xc0003175d8</t>
   </si>
   <si>
     <t>CAP-263</t>
   </si>
   <si>
-    <t>0xc0003027f0</t>
-  </si>
-  <si>
-    <t>0xc0003027e0</t>
-  </si>
-  <si>
-    <t>0xc000302800</t>
-  </si>
-  <si>
-    <t>0xc000302810</t>
-  </si>
-  <si>
-    <t>0xc000302820</t>
-  </si>
-  <si>
-    <t>0xc000292360</t>
-  </si>
-  <si>
-    <t>0xc000292380</t>
+    <t>0xc0002fa770</t>
+  </si>
+  <si>
+    <t>0xc0002fa760</t>
+  </si>
+  <si>
+    <t>0xc0002fa780</t>
+  </si>
+  <si>
+    <t>0xc0002fa790</t>
+  </si>
+  <si>
+    <t>0xc0002fa7a0</t>
+  </si>
+  <si>
+    <t>0xc000317600</t>
+  </si>
+  <si>
+    <t>0xc000317610</t>
   </si>
   <si>
     <t>CAP-272</t>
   </si>
   <si>
-    <t>0xc000302850</t>
-  </si>
-  <si>
-    <t>0xc000302840</t>
-  </si>
-  <si>
-    <t>0xc000302860</t>
-  </si>
-  <si>
-    <t>0xc000302870</t>
-  </si>
-  <si>
-    <t>0xc000302880</t>
-  </si>
-  <si>
-    <t>0xc0002923b0</t>
-  </si>
-  <si>
-    <t>0xc0002923d0</t>
+    <t>0xc0002fa7d0</t>
+  </si>
+  <si>
+    <t>0xc0002fa7c0</t>
+  </si>
+  <si>
+    <t>0xc0002fa7e0</t>
+  </si>
+  <si>
+    <t>0xc0002fa7f0</t>
+  </si>
+  <si>
+    <t>0xc0002fa800</t>
+  </si>
+  <si>
+    <t>0xc000317630</t>
+  </si>
+  <si>
+    <t>0xc000317640</t>
   </si>
   <si>
     <t>CAP-312</t>
   </si>
   <si>
-    <t>0xc0003028b0</t>
-  </si>
-  <si>
-    <t>0xc0003028a0</t>
-  </si>
-  <si>
-    <t>0xc0003028c0</t>
-  </si>
-  <si>
-    <t>0xc0003028d0</t>
-  </si>
-  <si>
-    <t>0xc0003028e0</t>
-  </si>
-  <si>
-    <t>0xc000292408</t>
-  </si>
-  <si>
-    <t>0xc000292450</t>
+    <t>0xc0002fa830</t>
+  </si>
+  <si>
+    <t>0xc0002fa820</t>
+  </si>
+  <si>
+    <t>0xc0002fa840</t>
+  </si>
+  <si>
+    <t>0xc0002fa850</t>
+  </si>
+  <si>
+    <t>0xc0002fa860</t>
+  </si>
+  <si>
+    <t>0xc000317668</t>
+  </si>
+  <si>
+    <t>0xc000317680</t>
   </si>
   <si>
     <t>CAP-313</t>
   </si>
   <si>
-    <t>0xc000302910</t>
-  </si>
-  <si>
-    <t>0xc000302900</t>
-  </si>
-  <si>
-    <t>0xc000302920</t>
-  </si>
-  <si>
-    <t>0xc000302930</t>
-  </si>
-  <si>
-    <t>0xc000302940</t>
-  </si>
-  <si>
-    <t>0xc000292498</t>
-  </si>
-  <si>
-    <t>0xc000292510</t>
+    <t>0xc0002fa890</t>
+  </si>
+  <si>
+    <t>0xc0002fa880</t>
+  </si>
+  <si>
+    <t>0xc0002fa8a0</t>
+  </si>
+  <si>
+    <t>0xc0002fa8b0</t>
+  </si>
+  <si>
+    <t>0xc0002fa8c0</t>
+  </si>
+  <si>
+    <t>0xc000317698</t>
+  </si>
+  <si>
+    <t>0xc0003176b0</t>
   </si>
   <si>
     <t>CAP-314</t>
   </si>
   <si>
-    <t>0xc000302970</t>
-  </si>
-  <si>
-    <t>0xc000302960</t>
-  </si>
-  <si>
-    <t>0xc000302980</t>
-  </si>
-  <si>
-    <t>0xc000302990</t>
-  </si>
-  <si>
-    <t>0xc0003029a0</t>
-  </si>
-  <si>
-    <t>0xc000292558</t>
-  </si>
-  <si>
-    <t>0xc000292580</t>
+    <t>0xc0002fa8f0</t>
+  </si>
+  <si>
+    <t>0xc0002fa8e0</t>
+  </si>
+  <si>
+    <t>0xc0002fa900</t>
+  </si>
+  <si>
+    <t>0xc0002fa910</t>
+  </si>
+  <si>
+    <t>0xc0002fa920</t>
+  </si>
+  <si>
+    <t>0xc0003176c8</t>
+  </si>
+  <si>
+    <t>0xc0003176e0</t>
   </si>
   <si>
     <t>CAP-316</t>
   </si>
   <si>
-    <t>0xc0003029d0</t>
-  </si>
-  <si>
-    <t>0xc0003029c0</t>
-  </si>
-  <si>
-    <t>0xc0003029e0</t>
-  </si>
-  <si>
-    <t>0xc0003029f0</t>
-  </si>
-  <si>
-    <t>0xc000302a00</t>
-  </si>
-  <si>
-    <t>0xc0002925a8</t>
-  </si>
-  <si>
-    <t>0xc000292620</t>
+    <t>0xc0002fa950</t>
+  </si>
+  <si>
+    <t>0xc0002fa940</t>
+  </si>
+  <si>
+    <t>0xc0002fa960</t>
+  </si>
+  <si>
+    <t>0xc0002fa970</t>
+  </si>
+  <si>
+    <t>0xc0002fa980</t>
+  </si>
+  <si>
+    <t>0xc0003176f8</t>
+  </si>
+  <si>
+    <t>0xc000317710</t>
   </si>
 </sst>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,126 +14,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>0xc0001ad770</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>CRYS-2557</t>
+  </si>
+  <si>
+    <t>0xc000446660</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>0xc000446650</t>
+  </si>
+  <si>
+    <t>0xc000446670</t>
+  </si>
+  <si>
+    <t>0xc000446680</t>
+  </si>
+  <si>
+    <t>0xc000446690</t>
+  </si>
+  <si>
+    <t>0xc00059a290</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0xc00059a2a0</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>0xc0004466c0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0xc0001ad760</t>
-  </si>
-  <si>
-    <t>0xc0001ad780</t>
-  </si>
-  <si>
-    <t>0xc0001ad790</t>
-  </si>
-  <si>
-    <t>0xc0001ad7a0</t>
-  </si>
-  <si>
-    <t>0xc0000256c8</t>
-  </si>
-  <si>
-    <t>0xc0000256d8</t>
-  </si>
-  <si>
-    <t>PNDT-1372</t>
-  </si>
-  <si>
-    <t>&lt;nil&gt;</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>0xc0001ad7c0</t>
-  </si>
-  <si>
-    <t>0xc0001ad7d0</t>
-  </si>
-  <si>
-    <t>0xc0001ad7e0</t>
-  </si>
-  <si>
-    <t>0xc0001ad7f0</t>
-  </si>
-  <si>
-    <t>0xc0000256f0</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>0xc000025700</t>
-  </si>
-  <si>
-    <t>PNDT-1371</t>
-  </si>
-  <si>
-    <t>0xc0001ad810</t>
-  </si>
-  <si>
-    <t>0xc0001ad820</t>
-  </si>
-  <si>
-    <t>0xc0001ad830</t>
-  </si>
-  <si>
-    <t>0xc0001ad840</t>
-  </si>
-  <si>
-    <t>0xc000025730</t>
-  </si>
-  <si>
-    <t>0xc000025740</t>
-  </si>
-  <si>
-    <t>PNDT-1368</t>
-  </si>
-  <si>
-    <t>0xc0001ad860</t>
-  </si>
-  <si>
-    <t>0xc0001ad870</t>
-  </si>
-  <si>
-    <t>0xc0001ad880</t>
-  </si>
-  <si>
-    <t>0xc0001ad890</t>
-  </si>
-  <si>
-    <t>0xc000025770</t>
-  </si>
-  <si>
-    <t>0xc000025780</t>
-  </si>
-  <si>
-    <t>PNDT-1367</t>
-  </si>
-  <si>
-    <t>0xc0001ad8b0</t>
-  </si>
-  <si>
-    <t>0xc0001ad8c0</t>
-  </si>
-  <si>
-    <t>0xc0001ad8d0</t>
-  </si>
-  <si>
-    <t>0xc0001ad8e0</t>
-  </si>
-  <si>
-    <t>0xc0000257a0</t>
-  </si>
-  <si>
-    <t>0xc0000257b0</t>
+    <t>0xc0004466b0</t>
+  </si>
+  <si>
+    <t>0xc0004466d0</t>
+  </si>
+  <si>
+    <t>0xc0004466e0</t>
+  </si>
+  <si>
+    <t>0xc0004466f0</t>
+  </si>
+  <si>
+    <t>0xc00059a2b8</t>
+  </si>
+  <si>
+    <t>0xc00059a2c8</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>0xc000446720</t>
+  </si>
+  <si>
+    <t>0xc000446710</t>
+  </si>
+  <si>
+    <t>0xc000446730</t>
+  </si>
+  <si>
+    <t>0xc000446740</t>
+  </si>
+  <si>
+    <t>0xc000446750</t>
+  </si>
+  <si>
+    <t>0xc00059a2e0</t>
+  </si>
+  <si>
+    <t>0xc00059a2f0</t>
+  </si>
+  <si>
+    <t>CRYS-2556</t>
+  </si>
+  <si>
+    <t>0xc000446780</t>
+  </si>
+  <si>
+    <t>0xc000446770</t>
+  </si>
+  <si>
+    <t>0xc000446790</t>
+  </si>
+  <si>
+    <t>0xc0004467a0</t>
+  </si>
+  <si>
+    <t>0xc0004467b0</t>
+  </si>
+  <si>
+    <t>0xc00059a330</t>
+  </si>
+  <si>
+    <t>0xc00059a340</t>
+  </si>
+  <si>
+    <t>CRYS-2555</t>
+  </si>
+  <si>
+    <t>0xc0004467e0</t>
+  </si>
+  <si>
+    <t>0xc0004467d0</t>
+  </si>
+  <si>
+    <t>0xc0004467f0</t>
+  </si>
+  <si>
+    <t>0xc000446800</t>
+  </si>
+  <si>
+    <t>0xc000446810</t>
+  </si>
+  <si>
+    <t>0xc00059a378</t>
+  </si>
+  <si>
+    <t>0xc00059a388</t>
   </si>
 </sst>
 </file>
@@ -469,39 +478,39 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -512,95 +521,95 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,135 +14,858 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+  <si>
+    <t>PNDT-1366</t>
+  </si>
+  <si>
+    <t>acid blue acid blue</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>21030317123736490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 2pc per bag and label PNDT-1366	</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1pc</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>PNDT-1365</t>
+  </si>
+  <si>
+    <t>black black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 2pc per bag and label PNDT-1365	</t>
+  </si>
+  <si>
+    <t>PNDT-1364</t>
+  </si>
+  <si>
+    <t>powder pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 2pc per bag and label PNDT-1364	</t>
+  </si>
+  <si>
+    <t>PNDT-1363</t>
+  </si>
+  <si>
+    <t>21030316244765979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 2pc per bag and label PNDT-1363	</t>
+  </si>
+  <si>
+    <t>PNDT-1361</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20090314565849710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 2pc per bag and label PNDT-1361	</t>
+  </si>
+  <si>
+    <t>PNDT-1367</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22040912274504810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1pc per bag and label PNDT-1367	</t>
+  </si>
+  <si>
+    <t>PNDT-1368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Antique Silver </t>
+  </si>
+  <si>
+    <t>140113151727</t>
+  </si>
+  <si>
+    <t>Please pack 1pc per bag and label PNDT-1368</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>PNDT-1371</t>
+  </si>
+  <si>
+    <t>Size:38x47x4mm</t>
+  </si>
+  <si>
+    <t>160806182048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1pc per bag and label PNDT-1371	</t>
+  </si>
+  <si>
+    <t>100g</t>
+  </si>
+  <si>
+    <t>PNDT-1372</t>
+  </si>
+  <si>
+    <t>1 tiger eye</t>
+  </si>
+  <si>
+    <t>19122411211591902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1pc per bag and label PNDT-1372	</t>
+  </si>
   <si>
     <t>CRYS-2557</t>
   </si>
   <si>
-    <t>0xc000446660</t>
-  </si>
-  <si>
     <t>PW</t>
   </si>
   <si>
-    <t>0xc000446650</t>
-  </si>
-  <si>
-    <t>0xc000446670</t>
-  </si>
-  <si>
-    <t>0xc000446680</t>
-  </si>
-  <si>
-    <t>0xc000446690</t>
-  </si>
-  <si>
-    <t>0xc00059a290</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>0xc00059a2a0</t>
+    <t xml:space="preserve"> EGLA-A034-P6mm-A07</t>
+  </si>
+  <si>
+    <t>Please pack 1 strand per bag and label CRYS-2557</t>
+  </si>
+  <si>
+    <t>10strands</t>
   </si>
   <si>
     <t>TEST3</t>
   </si>
   <si>
-    <t>0xc0004466c0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0xc0004466b0</t>
-  </si>
-  <si>
-    <t>0xc0004466d0</t>
-  </si>
-  <si>
-    <t>0xc0004466e0</t>
-  </si>
-  <si>
-    <t>0xc0004466f0</t>
-  </si>
-  <si>
-    <t>0xc00059a2b8</t>
-  </si>
-  <si>
-    <t>0xc00059a2c8</t>
+    <t>TEST</t>
   </si>
   <si>
     <t>TEST2</t>
   </si>
   <si>
-    <t>0xc000446720</t>
-  </si>
-  <si>
-    <t>0xc000446710</t>
-  </si>
-  <si>
-    <t>0xc000446730</t>
-  </si>
-  <si>
-    <t>0xc000446740</t>
-  </si>
-  <si>
-    <t>0xc000446750</t>
-  </si>
-  <si>
-    <t>0xc00059a2e0</t>
-  </si>
-  <si>
-    <t>0xc00059a2f0</t>
-  </si>
-  <si>
     <t>CRYS-2556</t>
   </si>
   <si>
-    <t>0xc000446780</t>
-  </si>
-  <si>
-    <t>0xc000446770</t>
-  </si>
-  <si>
-    <t>0xc000446790</t>
-  </si>
-  <si>
-    <t>0xc0004467a0</t>
-  </si>
-  <si>
-    <t>0xc0004467b0</t>
-  </si>
-  <si>
-    <t>0xc00059a330</t>
-  </si>
-  <si>
-    <t>0xc00059a340</t>
+    <t>EGLA-P017-01B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2556	</t>
+  </si>
+  <si>
+    <t>20strands</t>
   </si>
   <si>
     <t>CRYS-2555</t>
   </si>
   <si>
-    <t>0xc0004467e0</t>
-  </si>
-  <si>
-    <t>0xc0004467d0</t>
-  </si>
-  <si>
-    <t>0xc0004467f0</t>
-  </si>
-  <si>
-    <t>0xc000446800</t>
-  </si>
-  <si>
-    <t>0xc000446810</t>
-  </si>
-  <si>
-    <t>0xc00059a378</t>
-  </si>
-  <si>
-    <t>0xc00059a388</t>
+    <t>EGLA-N002-13-A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 24pc per bag and label CRYS-2555	</t>
+  </si>
+  <si>
+    <t>5strands</t>
+  </si>
+  <si>
+    <t>CRYS-2554</t>
+  </si>
+  <si>
+    <t>EGLA-N002-13-A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 24pc per bag and label CRYS-2554	</t>
+  </si>
+  <si>
+    <t>CRYS-2553</t>
+  </si>
+  <si>
+    <t>EGLA-N002-13-A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 24pc per bag and label CRYS-2553	</t>
+  </si>
+  <si>
+    <t>CRYS-2552</t>
+  </si>
+  <si>
+    <t>EGLA-N002-13-A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 24pc per bag and label CRYS-2552	</t>
+  </si>
+  <si>
+    <t>CRYS-2551</t>
+  </si>
+  <si>
+    <t>EGLA-N002-13-A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 24pc per bag and label CRYS-2551	</t>
+  </si>
+  <si>
+    <t>CRYS-2550</t>
+  </si>
+  <si>
+    <t>EGLA-J042-8mm-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2550	</t>
+  </si>
+  <si>
+    <t>CRYS-2549</t>
+  </si>
+  <si>
+    <t>EGLA-J042-6mm-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2549	</t>
+  </si>
+  <si>
+    <t>CRYS-2548</t>
+  </si>
+  <si>
+    <t>EGLA-J042-4mm-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2548	</t>
+  </si>
+  <si>
+    <t>CRYS-2547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EGLA-J149-B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 0.5 strand per bag and label CRYS-2547	</t>
+  </si>
+  <si>
+    <t>CRYS-2546</t>
+  </si>
+  <si>
+    <t>EGLA-J149-B03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 0.5 strand per bag and label CRYS-2546	</t>
+  </si>
+  <si>
+    <t>CRYS-2545</t>
+  </si>
+  <si>
+    <t>EGLA-J149-B04</t>
+  </si>
+  <si>
+    <t>Please pack 0.5 strand per bag and label CRYS-2545</t>
+  </si>
+  <si>
+    <t>CRYS-2539</t>
+  </si>
+  <si>
+    <t>EGLA-J149-B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 0.5 strand per bag and label CRYS-2539	</t>
+  </si>
+  <si>
+    <t>CRYS-2538</t>
+  </si>
+  <si>
+    <t>EGLA-J149-B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 0.5 strand per bag and label CRYS-2538	</t>
+  </si>
+  <si>
+    <t>CRYS-2537</t>
+  </si>
+  <si>
+    <t>EGLA-E041-5mm-C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 0.5 strand per bag and label CRYS-2537	</t>
+  </si>
+  <si>
+    <t>CRYS-2536</t>
+  </si>
+  <si>
+    <t>EGLA-J047-3x2mm-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2536	</t>
+  </si>
+  <si>
+    <t>30strands</t>
+  </si>
+  <si>
+    <t>CRYS-2535</t>
+  </si>
+  <si>
+    <t>EGLA-J047-4x3mm-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2535	</t>
+  </si>
+  <si>
+    <t>CRYS-2534</t>
+  </si>
+  <si>
+    <t>EGLA-J047-6x4mm-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2534	</t>
+  </si>
+  <si>
+    <t>CRYS-2533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EGLA-J047-8x6mm-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1 strand per bag and label CRYS-2533	</t>
+  </si>
+  <si>
+    <t>PNDT-1337</t>
+  </si>
+  <si>
+    <t>Size:15-30mm</t>
+  </si>
+  <si>
+    <t>160714174006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1pc per bag and label PNDT-1337	</t>
+  </si>
+  <si>
+    <t>PNDT-1374</t>
+  </si>
+  <si>
+    <t>Size:38x47x6mm</t>
+  </si>
+  <si>
+    <t>160727172131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1pc per bag and label PNDT-1374	</t>
+  </si>
+  <si>
+    <t>9pc</t>
+  </si>
+  <si>
+    <t>PNDT-1373</t>
+  </si>
+  <si>
+    <t>Size:26x51x4mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181116150858	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pack 1pc per bag and label PNDT-1373	</t>
+  </si>
+  <si>
+    <t>"09-22-01</t>
+  </si>
+  <si>
+    <t>G-P281-02-6mm</t>
+  </si>
+  <si>
+    <t>1 strand per bag</t>
+  </si>
+  <si>
+    <t>"09-22-03</t>
+  </si>
+  <si>
+    <t>GLAA-R217-02-B05</t>
+  </si>
+  <si>
+    <t>0.5 strand per bag</t>
+  </si>
+  <si>
+    <t>20 strands</t>
+  </si>
+  <si>
+    <t>"09-22-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G-G758-09-10mm</t>
+  </si>
+  <si>
+    <t>"09-22-05</t>
+  </si>
+  <si>
+    <t>GGLA-S054-009A-01</t>
+  </si>
+  <si>
+    <t>10pc per bag</t>
+  </si>
+  <si>
+    <t>500pc</t>
+  </si>
+  <si>
+    <t>"09-22-06</t>
+  </si>
+  <si>
+    <t>EA11070Y-R</t>
+  </si>
+  <si>
+    <t>1000pc</t>
+  </si>
+  <si>
+    <t>"09-22-07</t>
+  </si>
+  <si>
+    <t>TIBEP-EA361Y-R-FF</t>
+  </si>
+  <si>
+    <t>2pc per bag</t>
+  </si>
+  <si>
+    <t>200pc</t>
+  </si>
+  <si>
+    <t>"09-22-08</t>
+  </si>
+  <si>
+    <t>TIBEP-EA13475Y-R-FF</t>
+  </si>
+  <si>
+    <t>1pc per bag</t>
+  </si>
+  <si>
+    <t>100pc</t>
+  </si>
+  <si>
+    <t>"09-22-09</t>
+  </si>
+  <si>
+    <t>RLF0370Y-NF</t>
+  </si>
+  <si>
+    <t>24pc per bag</t>
+  </si>
+  <si>
+    <t>3000pc</t>
+  </si>
+  <si>
+    <t>"09-22-10</t>
+  </si>
+  <si>
+    <t>RLF0737Y-NF</t>
+  </si>
+  <si>
+    <t>"09-22-11</t>
+  </si>
+  <si>
+    <t>G-P072-38-6mm</t>
+  </si>
+  <si>
+    <t>10 strands</t>
+  </si>
+  <si>
+    <t>"09-22-12</t>
+  </si>
+  <si>
+    <t>EGLA-S195-01C-07</t>
+  </si>
+  <si>
+    <t>1strand per bag</t>
+  </si>
+  <si>
+    <t>30 strands</t>
+  </si>
+  <si>
+    <t>"09-22-13</t>
+  </si>
+  <si>
+    <t>G-P384-A</t>
+  </si>
+  <si>
+    <t>10pc</t>
+  </si>
+  <si>
+    <t>"09-22-14</t>
+  </si>
+  <si>
+    <t>G-K194-10mm-06</t>
+  </si>
+  <si>
+    <t>10pc per strand</t>
+  </si>
+  <si>
+    <t>3 strands</t>
+  </si>
+  <si>
+    <t>"09-22-15</t>
+  </si>
+  <si>
+    <t>PORC-S489-12mm-16</t>
+  </si>
+  <si>
+    <t>6pc per bag</t>
+  </si>
+  <si>
+    <t>300pc</t>
+  </si>
+  <si>
+    <t>"09-22-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EGLA-A034-J3mm-N01</t>
+  </si>
+  <si>
+    <t>"09-22-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLF1278Y</t>
+  </si>
+  <si>
+    <t>5 sets per bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 sets </t>
+  </si>
+  <si>
+    <t>"09-22-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G-D840-21-8mm</t>
+  </si>
+  <si>
+    <t>5 strands</t>
+  </si>
+  <si>
+    <t>"09-22-19</t>
+  </si>
+  <si>
+    <t>E148Y-NFR</t>
+  </si>
+  <si>
+    <t>100pc per bag</t>
+  </si>
+  <si>
+    <t>10000pc</t>
+  </si>
+  <si>
+    <t>07-22-01</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>LF0824Y-NF</t>
+  </si>
+  <si>
+    <t>Please pack 30pc per bag</t>
+  </si>
+  <si>
+    <t>07-22-02</t>
+  </si>
+  <si>
+    <t>PALLOY-F224-02AS-06</t>
+  </si>
+  <si>
+    <t>Please pack 2pc per bag</t>
+  </si>
+  <si>
+    <t>07-22-03</t>
+  </si>
+  <si>
+    <t>TIBEP-Q061-31AS-FF</t>
+  </si>
+  <si>
+    <t>Please pack 1pc per bag</t>
+  </si>
+  <si>
+    <t>07-22-04</t>
+  </si>
+  <si>
+    <t>EGLA-A034-P4mm-L17</t>
+  </si>
+  <si>
+    <t>07-22-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLAA-R166-8mm-02I</t>
+  </si>
+  <si>
+    <t>07-22-06</t>
+  </si>
+  <si>
+    <t>G-E456-06A-15mm</t>
+  </si>
+  <si>
+    <t>07-22-07</t>
+  </si>
+  <si>
+    <t>SHEL-S201-1</t>
+  </si>
+  <si>
+    <t>07-22-08</t>
+  </si>
+  <si>
+    <t>CHT104Y-NF</t>
+  </si>
+  <si>
+    <t>1m per bag</t>
+  </si>
+  <si>
+    <t>07-22-09</t>
+  </si>
+  <si>
+    <t>G-T131-57</t>
+  </si>
+  <si>
+    <t>07-22-10</t>
+  </si>
+  <si>
+    <t>SHEL-T011-01-5mm</t>
+  </si>
+  <si>
+    <t>07-22-11</t>
+  </si>
+  <si>
+    <t>SHEL-T012-62</t>
+  </si>
+  <si>
+    <t>07-22-12</t>
+  </si>
+  <si>
+    <t>CORA-R017-27-A01</t>
+  </si>
+  <si>
+    <t>07-22-13</t>
+  </si>
+  <si>
+    <t>TIBE-S303-24AS-FF</t>
+  </si>
+  <si>
+    <t>10g per bag</t>
+  </si>
+  <si>
+    <t>07-22-14</t>
+  </si>
+  <si>
+    <t>CORA-R017-11</t>
+  </si>
+  <si>
+    <t>5pc per bag</t>
+  </si>
+  <si>
+    <t>07-22-15</t>
+  </si>
+  <si>
+    <t>TIBE-S309-99AS-RS</t>
+  </si>
+  <si>
+    <t>8pc per bag</t>
+  </si>
+  <si>
+    <t>07-22-16</t>
+  </si>
+  <si>
+    <t>G-T114-78H</t>
+  </si>
+  <si>
+    <t>07-22-17</t>
+  </si>
+  <si>
+    <t>TIBE-I025-12AS</t>
+  </si>
+  <si>
+    <t>2 sets per bag</t>
+  </si>
+  <si>
+    <t>07-22-18</t>
+  </si>
+  <si>
+    <t>SHEL-S269-65</t>
+  </si>
+  <si>
+    <t>07-22-19</t>
+  </si>
+  <si>
+    <t>BSHE-O016-19C</t>
+  </si>
+  <si>
+    <t>40pc per strand, 1 strand per bag</t>
+  </si>
+  <si>
+    <t>07-22-20</t>
+  </si>
+  <si>
+    <t>AMP-F014-D01</t>
+  </si>
+  <si>
+    <t>07-22-21</t>
+  </si>
+  <si>
+    <t>G-T118-40B</t>
+  </si>
+  <si>
+    <t>08-22-01</t>
+  </si>
+  <si>
+    <t>GGLA-S044-01A</t>
+  </si>
+  <si>
+    <t>08-22-02</t>
+  </si>
+  <si>
+    <t>CH-S068-B-FF</t>
+  </si>
+  <si>
+    <t>Please pack 1m per bag</t>
+  </si>
+  <si>
+    <t>08-22-03</t>
+  </si>
+  <si>
+    <t>CP014Y</t>
+  </si>
+  <si>
+    <t>08-22-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G-G027-R1-12mm</t>
+  </si>
+  <si>
+    <t>08-22-05</t>
+  </si>
+  <si>
+    <t>TIBEP-EBB044Y-B-FF</t>
+  </si>
+  <si>
+    <t>08-22-06</t>
+  </si>
+  <si>
+    <t>TIBEP-EA138Y-B-FF</t>
+  </si>
+  <si>
+    <t>08-22-07</t>
+  </si>
+  <si>
+    <t>TIBE-990-B-NR</t>
+  </si>
+  <si>
+    <t>08-22-08</t>
+  </si>
+  <si>
+    <t>K08VA052</t>
+  </si>
+  <si>
+    <t>08-22-09</t>
+  </si>
+  <si>
+    <t>GLAA-T006-15</t>
+  </si>
+  <si>
+    <t>08-22-10</t>
+  </si>
+  <si>
+    <t>PORC-G002-47</t>
+  </si>
+  <si>
+    <t>08-22-11</t>
+  </si>
+  <si>
+    <t>08-22-12</t>
+  </si>
+  <si>
+    <t>K08N9052</t>
+  </si>
+  <si>
+    <t>08-22-13</t>
+  </si>
+  <si>
+    <t>EGLA-T010-01G</t>
+  </si>
+  <si>
+    <t>08-22-14</t>
+  </si>
+  <si>
+    <t>TURQ-G091-8mm</t>
+  </si>
+  <si>
+    <t>08-22-15</t>
+  </si>
+  <si>
+    <t>G-T121-07</t>
+  </si>
+  <si>
+    <t>08-22-16</t>
+  </si>
+  <si>
+    <t>CLAY-S092-11</t>
+  </si>
+  <si>
+    <t>08-22-17</t>
+  </si>
+  <si>
+    <t>IFIN-A016-B</t>
+  </si>
+  <si>
+    <t>08-22-18</t>
+  </si>
+  <si>
+    <t>STAS-O119-18A-B</t>
+  </si>
+  <si>
+    <t>08-22-19</t>
+  </si>
+  <si>
+    <t>G-P415-23A</t>
+  </si>
+  <si>
+    <t>08-22-20</t>
+  </si>
+  <si>
+    <t>G-Q462-102-8mm</t>
+  </si>
+  <si>
+    <t>08-22-21</t>
+  </si>
+  <si>
+    <t>EGLA-A034-J6mm-D01</t>
+  </si>
+  <si>
+    <t>08-22-22</t>
+  </si>
+  <si>
+    <t>RP0.5X35MM-NFB</t>
+  </si>
+  <si>
+    <t>09-22-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CH-0.7PYSZ-R</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>10-22-01</t>
+  </si>
+  <si>
+    <t>G-F460-47</t>
+  </si>
+  <si>
+    <t>10-22-02</t>
+  </si>
+  <si>
+    <t>CHT104Y-AB</t>
   </si>
 </sst>
 </file>
@@ -474,142 +1197,3182 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1">
+        <v>0.22</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>210</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>0.22</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0.22</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0.27</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0.13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>1.98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0.46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>1.93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0.54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E11" t="s">
         <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>2.82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>2.66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>5.6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>5.6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>5.6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <v>5.6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>5.6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>5.24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22">
+        <v>4.15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23">
+        <v>1.97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24">
+        <v>9.16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25">
+        <v>9.16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26">
+        <v>8.88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27">
+        <v>10.03</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28">
+        <v>10.03</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>10.14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30">
+        <v>4.22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31">
+        <v>4.83</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32">
+        <v>6.89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33">
+        <v>7.55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1.26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35">
+        <v>1.93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>0.32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37">
+        <v>2.89</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38">
+        <v>8.7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39">
+        <v>7.49</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40">
+        <v>8.7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41">
+        <v>8.98</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42">
+        <v>10.43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43">
+        <v>19.14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44">
+        <v>23.4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45">
+        <v>13.39</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46">
+        <v>16.05</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47">
+        <v>11.59</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48">
+        <v>9.29</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49">
+        <v>5.22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" t="s">
+        <v>167</v>
+      </c>
+      <c r="H50">
+        <v>10.27</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51">
+        <v>4.09</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52">
+        <v>12.99</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53">
+        <v>8.56</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54">
+        <v>4.92</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>201</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>155</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>212</v>
+      </c>
+      <c r="G67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>215</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>218</v>
+      </c>
+      <c r="G69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>228</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>267</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>273</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" t="s">
+        <v>274</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>275</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" t="s">
+        <v>276</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" t="s">
+        <v>278</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>201</v>
+      </c>
+      <c r="G98" t="s">
+        <v>279</v>
+      </c>
+      <c r="H98">
+        <v>5.99</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>280</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
